--- a/BackTest/2020-01-23 BackTest INS.xlsx
+++ b/BackTest/2020-01-23 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>184.1</v>
+        <v>184.2</v>
       </c>
       <c r="C2" t="n">
-        <v>184.1</v>
+        <v>184.2</v>
       </c>
       <c r="D2" t="n">
-        <v>184.1</v>
+        <v>184.2</v>
       </c>
       <c r="E2" t="n">
-        <v>184.1</v>
+        <v>184.2</v>
       </c>
       <c r="F2" t="n">
-        <v>5000</v>
+        <v>2849.6745</v>
       </c>
       <c r="G2" t="n">
-        <v>185.0366666666667</v>
+        <v>185.08</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>184.1</v>
       </c>
       <c r="C3" t="n">
-        <v>184</v>
+        <v>184.1</v>
       </c>
       <c r="D3" t="n">
         <v>184.1</v>
       </c>
       <c r="E3" t="n">
-        <v>184</v>
+        <v>184.1</v>
       </c>
       <c r="F3" t="n">
-        <v>7922.1406</v>
+        <v>5000</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9916666666667</v>
+        <v>185.0366666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>184</v>
+        <v>184.1</v>
       </c>
       <c r="C4" t="n">
         <v>184</v>
       </c>
       <c r="D4" t="n">
-        <v>184</v>
+        <v>184.1</v>
       </c>
       <c r="E4" t="n">
         <v>184</v>
       </c>
       <c r="F4" t="n">
-        <v>18.5395</v>
+        <v>7922.1406</v>
       </c>
       <c r="G4" t="n">
-        <v>184.9633333333333</v>
+        <v>184.9916666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>183.9</v>
+        <v>184</v>
       </c>
       <c r="C5" t="n">
-        <v>183.9</v>
+        <v>184</v>
       </c>
       <c r="D5" t="n">
-        <v>183.9</v>
+        <v>184</v>
       </c>
       <c r="E5" t="n">
-        <v>183.9</v>
+        <v>184</v>
       </c>
       <c r="F5" t="n">
-        <v>503.218</v>
+        <v>18.5395</v>
       </c>
       <c r="G5" t="n">
-        <v>184.9366666666666</v>
+        <v>184.9633333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>183.9</v>
       </c>
       <c r="F6" t="n">
-        <v>1447</v>
+        <v>503.218</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9166666666666</v>
+        <v>184.9366666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>184</v>
+        <v>183.9</v>
       </c>
       <c r="C7" t="n">
-        <v>184</v>
+        <v>183.9</v>
       </c>
       <c r="D7" t="n">
-        <v>184</v>
+        <v>183.9</v>
       </c>
       <c r="E7" t="n">
-        <v>184</v>
+        <v>183.9</v>
       </c>
       <c r="F7" t="n">
-        <v>312</v>
+        <v>1447</v>
       </c>
       <c r="G7" t="n">
-        <v>184.8783333333333</v>
+        <v>184.9166666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>184</v>
       </c>
       <c r="F8" t="n">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="G8" t="n">
-        <v>184.8316666666666</v>
+        <v>184.8783333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>184.1</v>
+        <v>184</v>
       </c>
       <c r="C9" t="n">
-        <v>184.1</v>
+        <v>184</v>
       </c>
       <c r="D9" t="n">
-        <v>184.1</v>
+        <v>184</v>
       </c>
       <c r="E9" t="n">
-        <v>184.1</v>
+        <v>184</v>
       </c>
       <c r="F9" t="n">
-        <v>542.0248</v>
+        <v>230</v>
       </c>
       <c r="G9" t="n">
-        <v>184.79</v>
+        <v>184.8316666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>184.9</v>
+        <v>184.1</v>
       </c>
       <c r="C10" t="n">
-        <v>184.9</v>
+        <v>184.1</v>
       </c>
       <c r="D10" t="n">
-        <v>184.9</v>
+        <v>184.1</v>
       </c>
       <c r="E10" t="n">
-        <v>184.9</v>
+        <v>184.1</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>542.0248</v>
       </c>
       <c r="G10" t="n">
-        <v>184.7966666666667</v>
+        <v>184.79</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,35 +748,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>183.9</v>
+        <v>184.9</v>
       </c>
       <c r="C11" t="n">
-        <v>183.9</v>
+        <v>184.9</v>
       </c>
       <c r="D11" t="n">
-        <v>183.9</v>
+        <v>184.9</v>
       </c>
       <c r="E11" t="n">
-        <v>183.9</v>
+        <v>184.9</v>
       </c>
       <c r="F11" t="n">
-        <v>2419.2586</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>184.7466666666666</v>
+        <v>184.7966666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>184.9</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -787,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>185.7</v>
+        <v>183.9</v>
       </c>
       <c r="C12" t="n">
-        <v>185.7</v>
+        <v>183.9</v>
       </c>
       <c r="D12" t="n">
-        <v>185.7</v>
+        <v>183.9</v>
       </c>
       <c r="E12" t="n">
-        <v>185.7</v>
+        <v>183.9</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>2419.2586</v>
       </c>
       <c r="G12" t="n">
-        <v>184.765</v>
+        <v>184.7466666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -811,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -828,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>184.9</v>
+        <v>185.7</v>
       </c>
       <c r="C13" t="n">
-        <v>183.8</v>
+        <v>185.7</v>
       </c>
       <c r="D13" t="n">
-        <v>184.9</v>
+        <v>185.7</v>
       </c>
       <c r="E13" t="n">
-        <v>183.8</v>
+        <v>185.7</v>
       </c>
       <c r="F13" t="n">
-        <v>3475.332</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>184.7516666666666</v>
+        <v>184.765</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -852,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -872,19 +856,19 @@
         <v>184.9</v>
       </c>
       <c r="C14" t="n">
-        <v>184.9</v>
+        <v>183.8</v>
       </c>
       <c r="D14" t="n">
         <v>184.9</v>
       </c>
       <c r="E14" t="n">
-        <v>184.9</v>
+        <v>183.8</v>
       </c>
       <c r="F14" t="n">
-        <v>159.2097</v>
+        <v>3475.332</v>
       </c>
       <c r="G14" t="n">
-        <v>184.7566666666666</v>
+        <v>184.7516666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -893,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -910,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>185.7</v>
+        <v>184.9</v>
       </c>
       <c r="C15" t="n">
-        <v>185.7</v>
+        <v>184.9</v>
       </c>
       <c r="D15" t="n">
-        <v>185.7</v>
+        <v>184.9</v>
       </c>
       <c r="E15" t="n">
-        <v>185.7</v>
+        <v>184.9</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>159.2097</v>
       </c>
       <c r="G15" t="n">
-        <v>184.775</v>
+        <v>184.7566666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -934,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -951,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>184.9</v>
+        <v>185.7</v>
       </c>
       <c r="C16" t="n">
-        <v>185</v>
+        <v>185.7</v>
       </c>
       <c r="D16" t="n">
-        <v>185</v>
+        <v>185.7</v>
       </c>
       <c r="E16" t="n">
-        <v>184.8</v>
+        <v>185.7</v>
       </c>
       <c r="F16" t="n">
-        <v>459.0099</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>184.7816666666666</v>
+        <v>184.775</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -975,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -992,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="C17" t="n">
         <v>185</v>
@@ -1001,13 +967,13 @@
         <v>185</v>
       </c>
       <c r="E17" t="n">
-        <v>185</v>
+        <v>184.8</v>
       </c>
       <c r="F17" t="n">
-        <v>1500</v>
+        <v>459.0099</v>
       </c>
       <c r="G17" t="n">
-        <v>184.7883333333333</v>
+        <v>184.7816666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1016,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1033,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>184.2</v>
+        <v>185</v>
       </c>
       <c r="C18" t="n">
-        <v>184.2</v>
+        <v>185</v>
       </c>
       <c r="D18" t="n">
-        <v>184.2</v>
+        <v>185</v>
       </c>
       <c r="E18" t="n">
-        <v>184.2</v>
+        <v>185</v>
       </c>
       <c r="F18" t="n">
-        <v>35.3674</v>
+        <v>1500</v>
       </c>
       <c r="G18" t="n">
-        <v>184.7799999999999</v>
+        <v>184.7883333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1057,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1074,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>184</v>
+        <v>184.2</v>
       </c>
       <c r="C19" t="n">
-        <v>184</v>
+        <v>184.2</v>
       </c>
       <c r="D19" t="n">
-        <v>184</v>
+        <v>184.2</v>
       </c>
       <c r="E19" t="n">
-        <v>184</v>
+        <v>184.2</v>
       </c>
       <c r="F19" t="n">
-        <v>500</v>
+        <v>35.3674</v>
       </c>
       <c r="G19" t="n">
-        <v>184.7666666666666</v>
+        <v>184.7799999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1098,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1115,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D20" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E20" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F20" t="n">
-        <v>22.6333</v>
+        <v>500</v>
       </c>
       <c r="G20" t="n">
-        <v>184.7716666666666</v>
+        <v>184.7666666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1139,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1156,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C21" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D21" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E21" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F21" t="n">
-        <v>4973.3815</v>
+        <v>22.6333</v>
       </c>
       <c r="G21" t="n">
-        <v>184.7416666666666</v>
+        <v>184.7716666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1180,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1197,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>183.9</v>
+        <v>184</v>
       </c>
       <c r="C22" t="n">
-        <v>183.9</v>
+        <v>184</v>
       </c>
       <c r="D22" t="n">
-        <v>183.9</v>
+        <v>184</v>
       </c>
       <c r="E22" t="n">
-        <v>183.9</v>
+        <v>184</v>
       </c>
       <c r="F22" t="n">
-        <v>4962.2769</v>
+        <v>4973.3815</v>
       </c>
       <c r="G22" t="n">
-        <v>184.7183333333333</v>
+        <v>184.7416666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1221,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>183.8</v>
+        <v>183.9</v>
       </c>
       <c r="C23" t="n">
-        <v>183.8</v>
+        <v>183.9</v>
       </c>
       <c r="D23" t="n">
-        <v>183.8</v>
+        <v>183.9</v>
       </c>
       <c r="E23" t="n">
-        <v>183.8</v>
+        <v>183.9</v>
       </c>
       <c r="F23" t="n">
-        <v>3331.4924</v>
+        <v>4962.2769</v>
       </c>
       <c r="G23" t="n">
-        <v>184.695</v>
+        <v>184.7183333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1262,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1282,19 +1206,19 @@
         <v>183.8</v>
       </c>
       <c r="C24" t="n">
-        <v>183.7</v>
+        <v>183.8</v>
       </c>
       <c r="D24" t="n">
         <v>183.8</v>
       </c>
       <c r="E24" t="n">
-        <v>183.7</v>
+        <v>183.8</v>
       </c>
       <c r="F24" t="n">
-        <v>1489.4587</v>
+        <v>3331.4924</v>
       </c>
       <c r="G24" t="n">
-        <v>184.6766666666666</v>
+        <v>184.695</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1303,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1320,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>183.7</v>
+        <v>183.8</v>
       </c>
       <c r="C25" t="n">
         <v>183.7</v>
       </c>
       <c r="D25" t="n">
-        <v>183.7</v>
+        <v>183.8</v>
       </c>
       <c r="E25" t="n">
         <v>183.7</v>
       </c>
       <c r="F25" t="n">
-        <v>2000</v>
+        <v>1489.4587</v>
       </c>
       <c r="G25" t="n">
-        <v>184.6583333333333</v>
+        <v>184.6766666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1344,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1361,19 +1273,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>184.8</v>
+        <v>183.7</v>
       </c>
       <c r="C26" t="n">
-        <v>184.8</v>
+        <v>183.7</v>
       </c>
       <c r="D26" t="n">
-        <v>184.8</v>
+        <v>183.7</v>
       </c>
       <c r="E26" t="n">
-        <v>184.8</v>
+        <v>183.7</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>2000</v>
       </c>
       <c r="G26" t="n">
         <v>184.6583333333333</v>
@@ -1385,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1402,38 +1308,36 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>183.7</v>
+        <v>184.8</v>
       </c>
       <c r="C27" t="n">
-        <v>184.7</v>
+        <v>184.8</v>
       </c>
       <c r="D27" t="n">
-        <v>184.7</v>
+        <v>184.8</v>
       </c>
       <c r="E27" t="n">
-        <v>183.7</v>
+        <v>184.8</v>
       </c>
       <c r="F27" t="n">
-        <v>4005</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>184.6566666666667</v>
+        <v>184.6583333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>183.7</v>
+      </c>
       <c r="K27" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>183.7</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1443,22 +1347,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>184.4</v>
+        <v>183.7</v>
       </c>
       <c r="C28" t="n">
-        <v>184.4</v>
+        <v>184.7</v>
       </c>
       <c r="D28" t="n">
-        <v>184.4</v>
+        <v>184.7</v>
       </c>
       <c r="E28" t="n">
-        <v>184.4</v>
+        <v>183.7</v>
       </c>
       <c r="F28" t="n">
-        <v>4522.2234</v>
+        <v>4005</v>
       </c>
       <c r="G28" t="n">
-        <v>184.6483333333334</v>
+        <v>184.6566666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1468,11 +1372,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -1484,22 +1388,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>183.6</v>
+        <v>184.4</v>
       </c>
       <c r="C29" t="n">
-        <v>183.6</v>
+        <v>184.4</v>
       </c>
       <c r="D29" t="n">
-        <v>183.6</v>
+        <v>184.4</v>
       </c>
       <c r="E29" t="n">
-        <v>183.6</v>
+        <v>184.4</v>
       </c>
       <c r="F29" t="n">
-        <v>22.6333</v>
+        <v>4522.2234</v>
       </c>
       <c r="G29" t="n">
-        <v>184.6266666666667</v>
+        <v>184.6483333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1509,7 +1413,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1528,19 +1432,19 @@
         <v>183.6</v>
       </c>
       <c r="C30" t="n">
-        <v>183.2</v>
+        <v>183.6</v>
       </c>
       <c r="D30" t="n">
         <v>183.6</v>
       </c>
       <c r="E30" t="n">
-        <v>183.2</v>
+        <v>183.6</v>
       </c>
       <c r="F30" t="n">
-        <v>19916.8434</v>
+        <v>22.6333</v>
       </c>
       <c r="G30" t="n">
-        <v>184.5866666666667</v>
+        <v>184.6266666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1550,7 +1454,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1566,22 +1470,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="C31" t="n">
         <v>183.2</v>
       </c>
-      <c r="C31" t="n">
-        <v>183</v>
-      </c>
       <c r="D31" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="E31" t="n">
         <v>183.2</v>
       </c>
-      <c r="E31" t="n">
-        <v>183</v>
-      </c>
       <c r="F31" t="n">
-        <v>5000</v>
+        <v>19916.8434</v>
       </c>
       <c r="G31" t="n">
-        <v>184.5433333333334</v>
+        <v>184.5866666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1591,7 +1495,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1607,22 +1511,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>184</v>
+        <v>183.2</v>
       </c>
       <c r="C32" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D32" t="n">
-        <v>184</v>
+        <v>183.2</v>
       </c>
       <c r="E32" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F32" t="n">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="n">
-        <v>184.5050000000001</v>
+        <v>184.5433333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1632,7 +1536,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1660,10 +1564,10 @@
         <v>184</v>
       </c>
       <c r="F33" t="n">
-        <v>422.0088</v>
+        <v>400</v>
       </c>
       <c r="G33" t="n">
-        <v>184.4683333333334</v>
+        <v>184.5050000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1673,7 +1577,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1689,7 +1593,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>183.9</v>
+        <v>184</v>
       </c>
       <c r="C34" t="n">
         <v>184</v>
@@ -1698,13 +1602,13 @@
         <v>184</v>
       </c>
       <c r="E34" t="n">
-        <v>183.9</v>
+        <v>184</v>
       </c>
       <c r="F34" t="n">
-        <v>680.8866</v>
+        <v>422.0088</v>
       </c>
       <c r="G34" t="n">
-        <v>184.4533333333334</v>
+        <v>184.4683333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1714,7 +1618,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1730,7 +1634,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>184</v>
+        <v>183.9</v>
       </c>
       <c r="C35" t="n">
         <v>184</v>
@@ -1739,13 +1643,13 @@
         <v>184</v>
       </c>
       <c r="E35" t="n">
-        <v>184</v>
+        <v>183.9</v>
       </c>
       <c r="F35" t="n">
-        <v>7231.3484</v>
+        <v>680.8866</v>
       </c>
       <c r="G35" t="n">
-        <v>184.4366666666667</v>
+        <v>184.4533333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1755,7 +1659,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1783,10 +1687,10 @@
         <v>184</v>
       </c>
       <c r="F36" t="n">
-        <v>10971.0306</v>
+        <v>7231.3484</v>
       </c>
       <c r="G36" t="n">
-        <v>184.3916666666667</v>
+        <v>184.4366666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1796,7 +1700,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1815,19 +1719,19 @@
         <v>184</v>
       </c>
       <c r="C37" t="n">
-        <v>184.5</v>
+        <v>184</v>
       </c>
       <c r="D37" t="n">
-        <v>184.5</v>
+        <v>184</v>
       </c>
       <c r="E37" t="n">
         <v>184</v>
       </c>
       <c r="F37" t="n">
-        <v>240.2003</v>
+        <v>10971.0306</v>
       </c>
       <c r="G37" t="n">
-        <v>184.385</v>
+        <v>184.3916666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1837,7 +1741,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1853,22 +1757,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>184</v>
+      </c>
+      <c r="C38" t="n">
         <v>184.5</v>
       </c>
-      <c r="C38" t="n">
-        <v>184.6</v>
-      </c>
       <c r="D38" t="n">
-        <v>184.6</v>
+        <v>184.5</v>
       </c>
       <c r="E38" t="n">
-        <v>184.5</v>
+        <v>184</v>
       </c>
       <c r="F38" t="n">
-        <v>669.2007</v>
+        <v>240.2003</v>
       </c>
       <c r="G38" t="n">
-        <v>184.3800000000001</v>
+        <v>184.385</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1878,7 +1782,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1894,22 +1798,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>184</v>
+        <v>184.5</v>
       </c>
       <c r="C39" t="n">
-        <v>184</v>
+        <v>184.6</v>
       </c>
       <c r="D39" t="n">
-        <v>184</v>
+        <v>184.6</v>
       </c>
       <c r="E39" t="n">
-        <v>184</v>
+        <v>184.5</v>
       </c>
       <c r="F39" t="n">
-        <v>3272.5276</v>
+        <v>669.2007</v>
       </c>
       <c r="G39" t="n">
-        <v>184.3650000000001</v>
+        <v>184.3800000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1919,7 +1823,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1947,10 +1851,10 @@
         <v>184</v>
       </c>
       <c r="F40" t="n">
-        <v>2945.2747</v>
+        <v>3272.5276</v>
       </c>
       <c r="G40" t="n">
-        <v>184.3500000000001</v>
+        <v>184.3650000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1960,7 +1864,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1979,19 +1883,19 @@
         <v>184</v>
       </c>
       <c r="C41" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="D41" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="E41" t="n">
         <v>184</v>
       </c>
       <c r="F41" t="n">
-        <v>1101.3303</v>
+        <v>2945.2747</v>
       </c>
       <c r="G41" t="n">
-        <v>184.3450000000001</v>
+        <v>184.3500000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2001,7 +1905,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2017,7 +1921,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="C42" t="n">
         <v>184.6</v>
@@ -2026,13 +1930,13 @@
         <v>184.6</v>
       </c>
       <c r="E42" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="F42" t="n">
-        <v>1351.4054</v>
+        <v>1101.3303</v>
       </c>
       <c r="G42" t="n">
-        <v>184.3466666666667</v>
+        <v>184.3450000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2042,7 +1946,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2058,22 +1962,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>184.3</v>
+        <v>184.6</v>
       </c>
       <c r="C43" t="n">
-        <v>184.3</v>
+        <v>184.6</v>
       </c>
       <c r="D43" t="n">
-        <v>184.3</v>
+        <v>184.6</v>
       </c>
       <c r="E43" t="n">
-        <v>184.3</v>
+        <v>184.6</v>
       </c>
       <c r="F43" t="n">
-        <v>95</v>
+        <v>1351.4054</v>
       </c>
       <c r="G43" t="n">
-        <v>184.3450000000001</v>
+        <v>184.3466666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2083,7 +1987,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2102,19 +2006,19 @@
         <v>184.3</v>
       </c>
       <c r="C44" t="n">
-        <v>184.6</v>
+        <v>184.3</v>
       </c>
       <c r="D44" t="n">
-        <v>184.6</v>
+        <v>184.3</v>
       </c>
       <c r="E44" t="n">
         <v>184.3</v>
       </c>
       <c r="F44" t="n">
-        <v>503.1509</v>
+        <v>95</v>
       </c>
       <c r="G44" t="n">
-        <v>184.3500000000001</v>
+        <v>184.3450000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2124,7 +2028,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2140,7 +2044,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>184.6</v>
+        <v>184.3</v>
       </c>
       <c r="C45" t="n">
         <v>184.6</v>
@@ -2149,13 +2053,13 @@
         <v>184.6</v>
       </c>
       <c r="E45" t="n">
-        <v>184.6</v>
+        <v>184.3</v>
       </c>
       <c r="F45" t="n">
-        <v>558.1647</v>
+        <v>503.1509</v>
       </c>
       <c r="G45" t="n">
-        <v>184.3550000000001</v>
+        <v>184.3500000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2165,7 +2069,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2184,19 +2088,19 @@
         <v>184.6</v>
       </c>
       <c r="C46" t="n">
-        <v>185.2</v>
+        <v>184.6</v>
       </c>
       <c r="D46" t="n">
-        <v>185.2</v>
+        <v>184.6</v>
       </c>
       <c r="E46" t="n">
         <v>184.6</v>
       </c>
       <c r="F46" t="n">
-        <v>1913.2625</v>
+        <v>558.1647</v>
       </c>
       <c r="G46" t="n">
-        <v>184.3700000000001</v>
+        <v>184.3550000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2206,7 +2110,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2222,22 +2126,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>183.8</v>
+        <v>184.6</v>
       </c>
       <c r="C47" t="n">
-        <v>183.8</v>
+        <v>185.2</v>
       </c>
       <c r="D47" t="n">
-        <v>183.8</v>
+        <v>185.2</v>
       </c>
       <c r="E47" t="n">
-        <v>183.8</v>
+        <v>184.6</v>
       </c>
       <c r="F47" t="n">
-        <v>4295.997</v>
+        <v>1913.2625</v>
       </c>
       <c r="G47" t="n">
-        <v>184.3416666666668</v>
+        <v>184.3700000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2247,7 +2151,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2266,19 +2170,19 @@
         <v>183.8</v>
       </c>
       <c r="C48" t="n">
-        <v>185.1</v>
+        <v>183.8</v>
       </c>
       <c r="D48" t="n">
-        <v>185.1</v>
+        <v>183.8</v>
       </c>
       <c r="E48" t="n">
         <v>183.8</v>
       </c>
       <c r="F48" t="n">
-        <v>113</v>
+        <v>4295.997</v>
       </c>
       <c r="G48" t="n">
-        <v>184.3433333333334</v>
+        <v>184.3416666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2288,7 +2192,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2304,7 +2208,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>185.1</v>
+        <v>183.8</v>
       </c>
       <c r="C49" t="n">
         <v>185.1</v>
@@ -2313,13 +2217,13 @@
         <v>185.1</v>
       </c>
       <c r="E49" t="n">
-        <v>185.1</v>
+        <v>183.8</v>
       </c>
       <c r="F49" t="n">
-        <v>1946.6461</v>
+        <v>113</v>
       </c>
       <c r="G49" t="n">
-        <v>184.3500000000001</v>
+        <v>184.3433333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2329,7 +2233,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2357,10 +2261,10 @@
         <v>185.1</v>
       </c>
       <c r="F50" t="n">
-        <v>853.4417999999999</v>
+        <v>1946.6461</v>
       </c>
       <c r="G50" t="n">
-        <v>184.3566666666668</v>
+        <v>184.3500000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2370,7 +2274,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2398,10 +2302,10 @@
         <v>185.1</v>
       </c>
       <c r="F51" t="n">
-        <v>163.0049</v>
+        <v>853.4417999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>184.3700000000001</v>
+        <v>184.3566666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2411,7 +2315,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2439,10 +2343,10 @@
         <v>185.1</v>
       </c>
       <c r="F52" t="n">
-        <v>1151.7145</v>
+        <v>163.0049</v>
       </c>
       <c r="G52" t="n">
-        <v>184.3866666666668</v>
+        <v>184.3700000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2452,7 +2356,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2468,22 +2372,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>185.5</v>
+        <v>185.1</v>
       </c>
       <c r="C53" t="n">
-        <v>185.5</v>
+        <v>185.1</v>
       </c>
       <c r="D53" t="n">
-        <v>185.5</v>
+        <v>185.1</v>
       </c>
       <c r="E53" t="n">
-        <v>185.5</v>
+        <v>185.1</v>
       </c>
       <c r="F53" t="n">
-        <v>2.68</v>
+        <v>1151.7145</v>
       </c>
       <c r="G53" t="n">
-        <v>184.4083333333334</v>
+        <v>184.3866666666668</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2493,7 +2397,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2521,10 +2425,10 @@
         <v>185.5</v>
       </c>
       <c r="F54" t="n">
-        <v>7409.1446</v>
+        <v>2.68</v>
       </c>
       <c r="G54" t="n">
-        <v>184.4033333333335</v>
+        <v>184.4083333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2534,7 +2438,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2550,22 +2454,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>186.3</v>
+        <v>185.5</v>
       </c>
       <c r="C55" t="n">
-        <v>186.3</v>
+        <v>185.5</v>
       </c>
       <c r="D55" t="n">
-        <v>186.3</v>
+        <v>185.5</v>
       </c>
       <c r="E55" t="n">
-        <v>186.3</v>
+        <v>185.5</v>
       </c>
       <c r="F55" t="n">
-        <v>5</v>
+        <v>7409.1446</v>
       </c>
       <c r="G55" t="n">
-        <v>184.4166666666668</v>
+        <v>184.4033333333335</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2575,7 +2479,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2603,10 +2507,10 @@
         <v>186.3</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G56" t="n">
-        <v>184.4500000000001</v>
+        <v>184.4166666666668</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2616,7 +2520,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2632,22 +2536,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>185.5</v>
+        <v>186.3</v>
       </c>
       <c r="C57" t="n">
-        <v>185.5</v>
+        <v>186.3</v>
       </c>
       <c r="D57" t="n">
-        <v>185.5</v>
+        <v>186.3</v>
       </c>
       <c r="E57" t="n">
-        <v>185.5</v>
+        <v>186.3</v>
       </c>
       <c r="F57" t="n">
-        <v>577.1642000000001</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>184.4583333333335</v>
+        <v>184.4500000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2657,7 +2561,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2673,22 +2577,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>186.4</v>
+        <v>185.5</v>
       </c>
       <c r="C58" t="n">
-        <v>186.4</v>
+        <v>185.5</v>
       </c>
       <c r="D58" t="n">
-        <v>186.4</v>
+        <v>185.5</v>
       </c>
       <c r="E58" t="n">
-        <v>186.4</v>
+        <v>185.5</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>577.1642000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>184.4900000000001</v>
+        <v>184.4583333333335</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2698,7 +2602,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2714,22 +2618,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>186.9</v>
+        <v>186.4</v>
       </c>
       <c r="C59" t="n">
-        <v>186.9</v>
+        <v>186.4</v>
       </c>
       <c r="D59" t="n">
-        <v>186.9</v>
+        <v>186.4</v>
       </c>
       <c r="E59" t="n">
-        <v>186.9</v>
+        <v>186.4</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G59" t="n">
-        <v>184.5333333333334</v>
+        <v>184.4900000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2739,7 +2643,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2755,22 +2659,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>187</v>
+        <v>186.9</v>
       </c>
       <c r="C60" t="n">
-        <v>188</v>
+        <v>186.9</v>
       </c>
       <c r="D60" t="n">
-        <v>188</v>
+        <v>186.9</v>
       </c>
       <c r="E60" t="n">
-        <v>187</v>
+        <v>186.9</v>
       </c>
       <c r="F60" t="n">
-        <v>22451</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>184.5966666666668</v>
+        <v>184.5333333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2780,7 +2684,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2796,22 +2700,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>187</v>
+      </c>
+      <c r="C61" t="n">
         <v>188</v>
       </c>
-      <c r="C61" t="n">
-        <v>188.7</v>
-      </c>
       <c r="D61" t="n">
-        <v>188.7</v>
+        <v>188</v>
       </c>
       <c r="E61" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F61" t="n">
-        <v>2134</v>
+        <v>22451</v>
       </c>
       <c r="G61" t="n">
-        <v>184.6716666666668</v>
+        <v>184.5966666666668</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2821,7 +2725,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2837,40 +2741,40 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C62" t="n">
-        <v>189</v>
+        <v>188.7</v>
       </c>
       <c r="D62" t="n">
-        <v>189</v>
+        <v>188.7</v>
       </c>
       <c r="E62" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>2134</v>
       </c>
       <c r="G62" t="n">
-        <v>184.7533333333334</v>
+        <v>184.6716666666668</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>184.9</v>
+        <v>183.7</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>1.022218290691345</v>
       </c>
     </row>
     <row r="63">
@@ -2881,19 +2785,19 @@
         <v>189</v>
       </c>
       <c r="C63" t="n">
-        <v>189.1</v>
+        <v>189</v>
       </c>
       <c r="D63" t="n">
-        <v>189.1</v>
+        <v>189</v>
       </c>
       <c r="E63" t="n">
         <v>189</v>
       </c>
       <c r="F63" t="n">
-        <v>6700</v>
+        <v>5</v>
       </c>
       <c r="G63" t="n">
-        <v>184.8383333333335</v>
+        <v>184.7533333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2902,16 +2806,10 @@
         <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>1.017714981070849</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2919,28 +2817,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>187.4</v>
+        <v>189</v>
       </c>
       <c r="C64" t="n">
-        <v>188.9</v>
+        <v>189.1</v>
       </c>
       <c r="D64" t="n">
-        <v>188.9</v>
+        <v>189.1</v>
       </c>
       <c r="E64" t="n">
-        <v>187.3</v>
+        <v>189</v>
       </c>
       <c r="F64" t="n">
-        <v>3828.2238</v>
+        <v>6700</v>
       </c>
       <c r="G64" t="n">
-        <v>184.9200000000001</v>
+        <v>184.8383333333335</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2954,22 +2852,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>186.8</v>
+        <v>187.4</v>
       </c>
       <c r="C65" t="n">
-        <v>186.7</v>
+        <v>188.9</v>
       </c>
       <c r="D65" t="n">
-        <v>186.8</v>
+        <v>188.9</v>
       </c>
       <c r="E65" t="n">
-        <v>186.7</v>
+        <v>187.3</v>
       </c>
       <c r="F65" t="n">
-        <v>3268.8491</v>
+        <v>3828.2238</v>
       </c>
       <c r="G65" t="n">
-        <v>184.9666666666668</v>
+        <v>184.9200000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2989,22 +2887,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>186.6</v>
+        <v>186.8</v>
       </c>
       <c r="C66" t="n">
-        <v>186.6</v>
+        <v>186.7</v>
       </c>
       <c r="D66" t="n">
-        <v>186.6</v>
+        <v>186.8</v>
       </c>
       <c r="E66" t="n">
-        <v>186.6</v>
+        <v>186.7</v>
       </c>
       <c r="F66" t="n">
-        <v>542.8247</v>
+        <v>3268.8491</v>
       </c>
       <c r="G66" t="n">
-        <v>185.0116666666668</v>
+        <v>184.9666666666668</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3024,22 +2922,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>186.7</v>
+        <v>186.6</v>
       </c>
       <c r="C67" t="n">
-        <v>186.7</v>
+        <v>186.6</v>
       </c>
       <c r="D67" t="n">
-        <v>186.7</v>
+        <v>186.6</v>
       </c>
       <c r="E67" t="n">
-        <v>186.7</v>
+        <v>186.6</v>
       </c>
       <c r="F67" t="n">
-        <v>1829.454</v>
+        <v>542.8247</v>
       </c>
       <c r="G67" t="n">
-        <v>185.0566666666668</v>
+        <v>185.0116666666668</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3059,22 +2957,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>185.6</v>
+        <v>186.7</v>
       </c>
       <c r="C68" t="n">
-        <v>185.6</v>
+        <v>186.7</v>
       </c>
       <c r="D68" t="n">
-        <v>185.6</v>
+        <v>186.7</v>
       </c>
       <c r="E68" t="n">
-        <v>185.6</v>
+        <v>186.7</v>
       </c>
       <c r="F68" t="n">
-        <v>8.473100000000001</v>
+        <v>1829.454</v>
       </c>
       <c r="G68" t="n">
-        <v>185.0833333333335</v>
+        <v>185.0566666666668</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3094,22 +2992,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>186.1</v>
+        <v>185.6</v>
       </c>
       <c r="C69" t="n">
-        <v>186.1</v>
+        <v>185.6</v>
       </c>
       <c r="D69" t="n">
-        <v>186.1</v>
+        <v>185.6</v>
       </c>
       <c r="E69" t="n">
-        <v>186.1</v>
+        <v>185.6</v>
       </c>
       <c r="F69" t="n">
-        <v>1070</v>
+        <v>8.473100000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>185.1166666666668</v>
+        <v>185.0833333333335</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3129,22 +3027,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>186.6</v>
+        <v>186.1</v>
       </c>
       <c r="C70" t="n">
-        <v>186.6</v>
+        <v>186.1</v>
       </c>
       <c r="D70" t="n">
-        <v>186.6</v>
+        <v>186.1</v>
       </c>
       <c r="E70" t="n">
-        <v>186.6</v>
+        <v>186.1</v>
       </c>
       <c r="F70" t="n">
-        <v>5</v>
+        <v>1070</v>
       </c>
       <c r="G70" t="n">
-        <v>185.1450000000002</v>
+        <v>185.1166666666668</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3167,19 +3065,19 @@
         <v>186.6</v>
       </c>
       <c r="C71" t="n">
-        <v>187.7</v>
+        <v>186.6</v>
       </c>
       <c r="D71" t="n">
-        <v>187.7</v>
+        <v>186.6</v>
       </c>
       <c r="E71" t="n">
         <v>186.6</v>
       </c>
       <c r="F71" t="n">
-        <v>6810</v>
+        <v>5</v>
       </c>
       <c r="G71" t="n">
-        <v>185.2083333333335</v>
+        <v>185.1450000000002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3199,22 +3097,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="C72" t="n">
         <v>187.7</v>
       </c>
-      <c r="C72" t="n">
-        <v>188.5</v>
-      </c>
       <c r="D72" t="n">
-        <v>188.5</v>
+        <v>187.7</v>
       </c>
       <c r="E72" t="n">
-        <v>187.7</v>
+        <v>186.6</v>
       </c>
       <c r="F72" t="n">
-        <v>502.2132</v>
+        <v>6810</v>
       </c>
       <c r="G72" t="n">
-        <v>185.2550000000002</v>
+        <v>185.2083333333335</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3234,7 +3132,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>188.5</v>
+        <v>187.7</v>
       </c>
       <c r="C73" t="n">
         <v>188.5</v>
@@ -3243,13 +3141,13 @@
         <v>188.5</v>
       </c>
       <c r="E73" t="n">
-        <v>188.5</v>
+        <v>187.7</v>
       </c>
       <c r="F73" t="n">
-        <v>18.5914</v>
+        <v>502.2132</v>
       </c>
       <c r="G73" t="n">
-        <v>185.3333333333335</v>
+        <v>185.2550000000002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3269,22 +3167,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>187.2</v>
+        <v>188.5</v>
       </c>
       <c r="C74" t="n">
-        <v>186.9</v>
+        <v>188.5</v>
       </c>
       <c r="D74" t="n">
-        <v>187.2</v>
+        <v>188.5</v>
       </c>
       <c r="E74" t="n">
-        <v>186.9</v>
+        <v>188.5</v>
       </c>
       <c r="F74" t="n">
-        <v>9950</v>
+        <v>18.5914</v>
       </c>
       <c r="G74" t="n">
-        <v>185.3666666666668</v>
+        <v>185.3333333333335</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3304,22 +3202,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>186.6</v>
+        <v>187.2</v>
       </c>
       <c r="C75" t="n">
-        <v>186.6</v>
+        <v>186.9</v>
       </c>
       <c r="D75" t="n">
-        <v>186.6</v>
+        <v>187.2</v>
       </c>
       <c r="E75" t="n">
-        <v>186.6</v>
+        <v>186.9</v>
       </c>
       <c r="F75" t="n">
-        <v>2677.742</v>
+        <v>9950</v>
       </c>
       <c r="G75" t="n">
-        <v>185.3816666666668</v>
+        <v>185.3666666666668</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3339,22 +3237,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>186.3</v>
+        <v>186.6</v>
       </c>
       <c r="C76" t="n">
-        <v>186.3</v>
+        <v>186.6</v>
       </c>
       <c r="D76" t="n">
-        <v>186.3</v>
+        <v>186.6</v>
       </c>
       <c r="E76" t="n">
-        <v>186.3</v>
+        <v>186.6</v>
       </c>
       <c r="F76" t="n">
-        <v>254.377</v>
+        <v>2677.742</v>
       </c>
       <c r="G76" t="n">
-        <v>185.4033333333335</v>
+        <v>185.3816666666668</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3374,22 +3272,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>186.8</v>
+        <v>186.3</v>
       </c>
       <c r="C77" t="n">
-        <v>186.8</v>
+        <v>186.3</v>
       </c>
       <c r="D77" t="n">
-        <v>186.8</v>
+        <v>186.3</v>
       </c>
       <c r="E77" t="n">
-        <v>186.8</v>
+        <v>186.3</v>
       </c>
       <c r="F77" t="n">
-        <v>2.66</v>
+        <v>254.377</v>
       </c>
       <c r="G77" t="n">
-        <v>185.4333333333335</v>
+        <v>185.4033333333335</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3409,22 +3307,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>186</v>
+        <v>186.8</v>
       </c>
       <c r="C78" t="n">
-        <v>184.9</v>
+        <v>186.8</v>
       </c>
       <c r="D78" t="n">
-        <v>186</v>
+        <v>186.8</v>
       </c>
       <c r="E78" t="n">
-        <v>184.9</v>
+        <v>186.8</v>
       </c>
       <c r="F78" t="n">
-        <v>17925.489</v>
+        <v>2.66</v>
       </c>
       <c r="G78" t="n">
-        <v>185.4450000000001</v>
+        <v>185.4333333333335</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3447,19 +3345,19 @@
         <v>186</v>
       </c>
       <c r="C79" t="n">
-        <v>186</v>
+        <v>184.9</v>
       </c>
       <c r="D79" t="n">
         <v>186</v>
       </c>
       <c r="E79" t="n">
-        <v>186</v>
+        <v>184.9</v>
       </c>
       <c r="F79" t="n">
-        <v>2058.6175</v>
+        <v>17925.489</v>
       </c>
       <c r="G79" t="n">
-        <v>185.4783333333335</v>
+        <v>185.4450000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3482,19 +3380,19 @@
         <v>186</v>
       </c>
       <c r="C80" t="n">
-        <v>186.8</v>
+        <v>186</v>
       </c>
       <c r="D80" t="n">
-        <v>186.8</v>
+        <v>186</v>
       </c>
       <c r="E80" t="n">
         <v>186</v>
       </c>
       <c r="F80" t="n">
-        <v>85</v>
+        <v>2058.6175</v>
       </c>
       <c r="G80" t="n">
-        <v>185.5083333333335</v>
+        <v>185.4783333333335</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3514,7 +3412,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>186.8</v>
+        <v>186</v>
       </c>
       <c r="C81" t="n">
         <v>186.8</v>
@@ -3523,13 +3421,13 @@
         <v>186.8</v>
       </c>
       <c r="E81" t="n">
-        <v>186.8</v>
+        <v>186</v>
       </c>
       <c r="F81" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="G81" t="n">
-        <v>185.5550000000001</v>
+        <v>185.5083333333335</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3561,10 +3459,10 @@
         <v>186.8</v>
       </c>
       <c r="F82" t="n">
-        <v>540.623</v>
+        <v>16</v>
       </c>
       <c r="G82" t="n">
-        <v>185.6033333333334</v>
+        <v>185.5550000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3584,22 +3482,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>185.2</v>
+        <v>186.8</v>
       </c>
       <c r="C83" t="n">
-        <v>185.2</v>
+        <v>186.8</v>
       </c>
       <c r="D83" t="n">
-        <v>185.2</v>
+        <v>186.8</v>
       </c>
       <c r="E83" t="n">
-        <v>185.2</v>
+        <v>186.8</v>
       </c>
       <c r="F83" t="n">
-        <v>1073.892</v>
+        <v>540.623</v>
       </c>
       <c r="G83" t="n">
-        <v>185.6266666666668</v>
+        <v>185.6033333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3619,22 +3517,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>187.2</v>
+        <v>185.2</v>
       </c>
       <c r="C84" t="n">
-        <v>187.2</v>
+        <v>185.2</v>
       </c>
       <c r="D84" t="n">
-        <v>187.2</v>
+        <v>185.2</v>
       </c>
       <c r="E84" t="n">
-        <v>187.2</v>
+        <v>185.2</v>
       </c>
       <c r="F84" t="n">
-        <v>2.66</v>
+        <v>1073.892</v>
       </c>
       <c r="G84" t="n">
-        <v>185.6850000000001</v>
+        <v>185.6266666666668</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3654,22 +3552,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>186.5</v>
+        <v>187.2</v>
       </c>
       <c r="C85" t="n">
-        <v>186.5</v>
+        <v>187.2</v>
       </c>
       <c r="D85" t="n">
-        <v>186.5</v>
+        <v>187.2</v>
       </c>
       <c r="E85" t="n">
-        <v>186.5</v>
+        <v>187.2</v>
       </c>
       <c r="F85" t="n">
-        <v>1403</v>
+        <v>2.66</v>
       </c>
       <c r="G85" t="n">
-        <v>185.7316666666668</v>
+        <v>185.6850000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3689,22 +3587,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>186.8</v>
+        <v>186.5</v>
       </c>
       <c r="C86" t="n">
-        <v>186.8</v>
+        <v>186.5</v>
       </c>
       <c r="D86" t="n">
-        <v>186.8</v>
+        <v>186.5</v>
       </c>
       <c r="E86" t="n">
-        <v>186.8</v>
+        <v>186.5</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>1403</v>
       </c>
       <c r="G86" t="n">
-        <v>185.7650000000001</v>
+        <v>185.7316666666668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3724,22 +3622,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>185.5</v>
+        <v>186.8</v>
       </c>
       <c r="C87" t="n">
-        <v>185.5</v>
+        <v>186.8</v>
       </c>
       <c r="D87" t="n">
-        <v>185.5</v>
+        <v>186.8</v>
       </c>
       <c r="E87" t="n">
-        <v>185.5</v>
+        <v>186.8</v>
       </c>
       <c r="F87" t="n">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>185.7783333333334</v>
+        <v>185.7650000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3759,22 +3657,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>186.7</v>
+        <v>185.5</v>
       </c>
       <c r="C88" t="n">
-        <v>186.7</v>
+        <v>185.5</v>
       </c>
       <c r="D88" t="n">
-        <v>186.7</v>
+        <v>185.5</v>
       </c>
       <c r="E88" t="n">
-        <v>186.7</v>
+        <v>185.5</v>
       </c>
       <c r="F88" t="n">
-        <v>2.67</v>
+        <v>400</v>
       </c>
       <c r="G88" t="n">
-        <v>185.8166666666668</v>
+        <v>185.7783333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3794,22 +3692,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>185.5</v>
+        <v>186.7</v>
       </c>
       <c r="C89" t="n">
-        <v>185.5</v>
+        <v>186.7</v>
       </c>
       <c r="D89" t="n">
-        <v>185.5</v>
+        <v>186.7</v>
       </c>
       <c r="E89" t="n">
-        <v>185.5</v>
+        <v>186.7</v>
       </c>
       <c r="F89" t="n">
-        <v>5674.0429</v>
+        <v>2.67</v>
       </c>
       <c r="G89" t="n">
-        <v>185.8483333333334</v>
+        <v>185.8166666666668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3841,10 +3739,10 @@
         <v>185.5</v>
       </c>
       <c r="F90" t="n">
-        <v>1924</v>
+        <v>5674.0429</v>
       </c>
       <c r="G90" t="n">
-        <v>185.8866666666668</v>
+        <v>185.8483333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3876,10 +3774,10 @@
         <v>185.5</v>
       </c>
       <c r="F91" t="n">
-        <v>3151.2797</v>
+        <v>1924</v>
       </c>
       <c r="G91" t="n">
-        <v>185.9283333333334</v>
+        <v>185.8866666666668</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3911,10 +3809,10 @@
         <v>185.5</v>
       </c>
       <c r="F92" t="n">
-        <v>1109.3869</v>
+        <v>3151.2797</v>
       </c>
       <c r="G92" t="n">
-        <v>185.9533333333334</v>
+        <v>185.9283333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3934,22 +3832,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>185</v>
+        <v>185.5</v>
       </c>
       <c r="C93" t="n">
-        <v>184.9</v>
+        <v>185.5</v>
       </c>
       <c r="D93" t="n">
-        <v>185</v>
+        <v>185.5</v>
       </c>
       <c r="E93" t="n">
-        <v>184.9</v>
+        <v>185.5</v>
       </c>
       <c r="F93" t="n">
-        <v>1456.1464</v>
+        <v>1109.3869</v>
       </c>
       <c r="G93" t="n">
-        <v>185.9683333333334</v>
+        <v>185.9533333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3969,22 +3867,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>184.9</v>
+        <v>185</v>
       </c>
       <c r="C94" t="n">
         <v>184.9</v>
       </c>
       <c r="D94" t="n">
-        <v>184.9</v>
+        <v>185</v>
       </c>
       <c r="E94" t="n">
         <v>184.9</v>
       </c>
       <c r="F94" t="n">
-        <v>19.5559</v>
+        <v>1456.1464</v>
       </c>
       <c r="G94" t="n">
-        <v>185.9833333333334</v>
+        <v>185.9683333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4007,19 +3905,19 @@
         <v>184.9</v>
       </c>
       <c r="C95" t="n">
-        <v>184.7</v>
+        <v>184.9</v>
       </c>
       <c r="D95" t="n">
         <v>184.9</v>
       </c>
       <c r="E95" t="n">
-        <v>184.7</v>
+        <v>184.9</v>
       </c>
       <c r="F95" t="n">
-        <v>4766.9322</v>
+        <v>19.5559</v>
       </c>
       <c r="G95" t="n">
-        <v>185.9950000000001</v>
+        <v>185.9833333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4039,22 +3937,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>184.6</v>
+        <v>184.9</v>
       </c>
       <c r="C96" t="n">
-        <v>184.6</v>
+        <v>184.7</v>
       </c>
       <c r="D96" t="n">
-        <v>184.6</v>
+        <v>184.9</v>
       </c>
       <c r="E96" t="n">
-        <v>184.6</v>
+        <v>184.7</v>
       </c>
       <c r="F96" t="n">
-        <v>3242.1708</v>
+        <v>4766.9322</v>
       </c>
       <c r="G96" t="n">
-        <v>186.0050000000001</v>
+        <v>185.9950000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4086,10 +3984,10 @@
         <v>184.6</v>
       </c>
       <c r="F97" t="n">
-        <v>1192.4292</v>
+        <v>3242.1708</v>
       </c>
       <c r="G97" t="n">
-        <v>186.0066666666668</v>
+        <v>186.0050000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4109,22 +4007,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>184.8</v>
+        <v>184.6</v>
       </c>
       <c r="C98" t="n">
-        <v>184.8</v>
+        <v>184.6</v>
       </c>
       <c r="D98" t="n">
-        <v>184.8</v>
+        <v>184.6</v>
       </c>
       <c r="E98" t="n">
-        <v>184.8</v>
+        <v>184.6</v>
       </c>
       <c r="F98" t="n">
-        <v>1651.7858</v>
+        <v>1192.4292</v>
       </c>
       <c r="G98" t="n">
-        <v>186.0100000000001</v>
+        <v>186.0066666666668</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4147,19 +4045,19 @@
         <v>184.8</v>
       </c>
       <c r="C99" t="n">
-        <v>184.5</v>
+        <v>184.8</v>
       </c>
       <c r="D99" t="n">
         <v>184.8</v>
       </c>
       <c r="E99" t="n">
-        <v>184.5</v>
+        <v>184.8</v>
       </c>
       <c r="F99" t="n">
-        <v>17806.572</v>
+        <v>1651.7858</v>
       </c>
       <c r="G99" t="n">
-        <v>186.0183333333334</v>
+        <v>186.0100000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4179,22 +4077,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>184.5</v>
+        <v>184.8</v>
       </c>
       <c r="C100" t="n">
         <v>184.5</v>
       </c>
       <c r="D100" t="n">
-        <v>184.5</v>
+        <v>184.8</v>
       </c>
       <c r="E100" t="n">
         <v>184.5</v>
       </c>
       <c r="F100" t="n">
-        <v>13207.0767</v>
+        <v>17806.572</v>
       </c>
       <c r="G100" t="n">
-        <v>186.0266666666668</v>
+        <v>186.0183333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4214,22 +4112,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>184.8</v>
+        <v>184.5</v>
       </c>
       <c r="C101" t="n">
-        <v>184.9</v>
+        <v>184.5</v>
       </c>
       <c r="D101" t="n">
-        <v>184.9</v>
+        <v>184.5</v>
       </c>
       <c r="E101" t="n">
-        <v>184.8</v>
+        <v>184.5</v>
       </c>
       <c r="F101" t="n">
-        <v>2530.7148</v>
+        <v>13207.0767</v>
       </c>
       <c r="G101" t="n">
-        <v>186.0316666666668</v>
+        <v>186.0266666666668</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4249,22 +4147,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="C102" t="n">
         <v>184.9</v>
       </c>
-      <c r="C102" t="n">
-        <v>185</v>
-      </c>
       <c r="D102" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="E102" t="n">
-        <v>184.9</v>
+        <v>184.8</v>
       </c>
       <c r="F102" t="n">
-        <v>5441.9999</v>
+        <v>2530.7148</v>
       </c>
       <c r="G102" t="n">
-        <v>186.0383333333334</v>
+        <v>186.0316666666668</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4284,7 +4182,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="C103" t="n">
         <v>185</v>
@@ -4293,26 +4191,22 @@
         <v>185</v>
       </c>
       <c r="E103" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="F103" t="n">
-        <v>716.7177</v>
+        <v>5441.9999</v>
       </c>
       <c r="G103" t="n">
-        <v>186.0500000000001</v>
+        <v>186.0383333333334</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>185</v>
-      </c>
-      <c r="K103" t="n">
-        <v>185</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
@@ -4335,10 +4229,10 @@
         <v>185</v>
       </c>
       <c r="F104" t="n">
-        <v>244.7343</v>
+        <v>716.7177</v>
       </c>
       <c r="G104" t="n">
-        <v>186.0566666666668</v>
+        <v>186.0500000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4347,14 +4241,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>185</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4364,22 +4252,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>184.5</v>
+        <v>185</v>
       </c>
       <c r="C105" t="n">
-        <v>183.7</v>
+        <v>185</v>
       </c>
       <c r="D105" t="n">
-        <v>184.5</v>
+        <v>185</v>
       </c>
       <c r="E105" t="n">
-        <v>183.7</v>
+        <v>185</v>
       </c>
       <c r="F105" t="n">
-        <v>2626.1795</v>
+        <v>244.7343</v>
       </c>
       <c r="G105" t="n">
-        <v>186.0416666666668</v>
+        <v>186.0566666666668</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4388,14 +4276,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>185</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4405,22 +4287,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>183.7</v>
+        <v>184.5</v>
       </c>
       <c r="C106" t="n">
-        <v>185</v>
+        <v>183.7</v>
       </c>
       <c r="D106" t="n">
-        <v>185</v>
+        <v>184.5</v>
       </c>
       <c r="E106" t="n">
         <v>183.7</v>
       </c>
       <c r="F106" t="n">
-        <v>12.7</v>
+        <v>2626.1795</v>
       </c>
       <c r="G106" t="n">
-        <v>186.0383333333334</v>
+        <v>186.0416666666668</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4429,14 +4311,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>185</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4446,7 +4322,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>185</v>
+        <v>183.7</v>
       </c>
       <c r="C107" t="n">
         <v>185</v>
@@ -4455,27 +4331,27 @@
         <v>185</v>
       </c>
       <c r="E107" t="n">
-        <v>185</v>
+        <v>183.7</v>
       </c>
       <c r="F107" t="n">
-        <v>35.848</v>
+        <v>12.7</v>
       </c>
       <c r="G107" t="n">
-        <v>186.0583333333334</v>
+        <v>186.0383333333334</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>185</v>
-      </c>
+      <c r="J107" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M107" t="n">
@@ -4487,22 +4363,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>183.9</v>
+        <v>185</v>
       </c>
       <c r="C108" t="n">
-        <v>183.9</v>
+        <v>185</v>
       </c>
       <c r="D108" t="n">
-        <v>183.9</v>
+        <v>185</v>
       </c>
       <c r="E108" t="n">
-        <v>183.9</v>
+        <v>185</v>
       </c>
       <c r="F108" t="n">
-        <v>3918.6947</v>
+        <v>35.848</v>
       </c>
       <c r="G108" t="n">
-        <v>186.0383333333334</v>
+        <v>186.0583333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4511,9 +4387,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>185</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4528,22 +4402,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>185.3</v>
+        <v>183.9</v>
       </c>
       <c r="C109" t="n">
-        <v>186.7</v>
+        <v>183.9</v>
       </c>
       <c r="D109" t="n">
-        <v>187.8</v>
+        <v>183.9</v>
       </c>
       <c r="E109" t="n">
         <v>183.9</v>
       </c>
       <c r="F109" t="n">
-        <v>15947.7257</v>
+        <v>3918.6947</v>
       </c>
       <c r="G109" t="n">
-        <v>186.0650000000001</v>
+        <v>186.0383333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4552,9 +4426,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>185</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4569,22 +4441,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>185.4</v>
+        <v>185.3</v>
       </c>
       <c r="C110" t="n">
-        <v>184.7</v>
+        <v>186.7</v>
       </c>
       <c r="D110" t="n">
-        <v>185.4</v>
+        <v>187.8</v>
       </c>
       <c r="E110" t="n">
-        <v>184.1</v>
+        <v>183.9</v>
       </c>
       <c r="F110" t="n">
-        <v>20303.6461</v>
+        <v>15947.7257</v>
       </c>
       <c r="G110" t="n">
-        <v>186.0583333333334</v>
+        <v>186.0650000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4593,9 +4465,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>185</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4610,22 +4480,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>184</v>
+        <v>185.4</v>
       </c>
       <c r="C111" t="n">
-        <v>185.4</v>
+        <v>184.7</v>
       </c>
       <c r="D111" t="n">
         <v>185.4</v>
       </c>
       <c r="E111" t="n">
-        <v>184</v>
+        <v>184.1</v>
       </c>
       <c r="F111" t="n">
-        <v>4586.3041</v>
+        <v>20303.6461</v>
       </c>
       <c r="G111" t="n">
-        <v>186.0633333333334</v>
+        <v>186.0583333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4634,9 +4504,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>185</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4651,22 +4519,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>184</v>
+      </c>
+      <c r="C112" t="n">
         <v>185.4</v>
-      </c>
-      <c r="C112" t="n">
-        <v>184.6</v>
       </c>
       <c r="D112" t="n">
         <v>185.4</v>
       </c>
       <c r="E112" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="F112" t="n">
-        <v>23368.0914</v>
+        <v>4586.3041</v>
       </c>
       <c r="G112" t="n">
-        <v>186.0550000000001</v>
+        <v>186.0633333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4675,9 +4543,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>185</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4695,19 +4561,19 @@
         <v>185.4</v>
       </c>
       <c r="C113" t="n">
-        <v>185.4</v>
+        <v>184.6</v>
       </c>
       <c r="D113" t="n">
         <v>185.4</v>
       </c>
       <c r="E113" t="n">
-        <v>185.4</v>
+        <v>184.6</v>
       </c>
       <c r="F113" t="n">
-        <v>0.6524</v>
+        <v>23368.0914</v>
       </c>
       <c r="G113" t="n">
-        <v>186.0533333333334</v>
+        <v>186.0550000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4716,9 +4582,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>185</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4736,19 +4600,19 @@
         <v>185.4</v>
       </c>
       <c r="C114" t="n">
-        <v>187.5</v>
+        <v>185.4</v>
       </c>
       <c r="D114" t="n">
-        <v>187.5</v>
+        <v>185.4</v>
       </c>
       <c r="E114" t="n">
         <v>185.4</v>
       </c>
       <c r="F114" t="n">
-        <v>6013.5069</v>
+        <v>0.6524</v>
       </c>
       <c r="G114" t="n">
-        <v>186.0866666666667</v>
+        <v>186.0533333333334</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4757,9 +4621,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>185</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4774,22 +4636,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>187</v>
+        <v>185.4</v>
       </c>
       <c r="C115" t="n">
-        <v>187.2</v>
+        <v>187.5</v>
       </c>
       <c r="D115" t="n">
-        <v>187.2</v>
+        <v>187.5</v>
       </c>
       <c r="E115" t="n">
-        <v>187</v>
+        <v>185.4</v>
       </c>
       <c r="F115" t="n">
-        <v>3767</v>
+        <v>6013.5069</v>
       </c>
       <c r="G115" t="n">
-        <v>186.1016666666668</v>
+        <v>186.0866666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4798,9 +4660,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>185</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4815,22 +4675,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>185.4</v>
+        <v>187</v>
       </c>
       <c r="C116" t="n">
-        <v>184.5</v>
+        <v>187.2</v>
       </c>
       <c r="D116" t="n">
-        <v>185.4</v>
+        <v>187.2</v>
       </c>
       <c r="E116" t="n">
-        <v>184.5</v>
+        <v>187</v>
       </c>
       <c r="F116" t="n">
-        <v>9610.265100000001</v>
+        <v>3767</v>
       </c>
       <c r="G116" t="n">
-        <v>186.0716666666668</v>
+        <v>186.1016666666668</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4839,9 +4699,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>185</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4856,22 +4714,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>185.2</v>
+        <v>185.4</v>
       </c>
       <c r="C117" t="n">
-        <v>185.9</v>
+        <v>184.5</v>
       </c>
       <c r="D117" t="n">
-        <v>185.9</v>
+        <v>185.4</v>
       </c>
       <c r="E117" t="n">
-        <v>184.9</v>
+        <v>184.5</v>
       </c>
       <c r="F117" t="n">
-        <v>6541.4303</v>
+        <v>9610.265100000001</v>
       </c>
       <c r="G117" t="n">
-        <v>186.0783333333334</v>
+        <v>186.0716666666668</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4880,9 +4738,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>185</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4897,22 +4753,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>184</v>
+        <v>185.2</v>
       </c>
       <c r="C118" t="n">
-        <v>185</v>
+        <v>185.9</v>
       </c>
       <c r="D118" t="n">
-        <v>185</v>
+        <v>185.9</v>
       </c>
       <c r="E118" t="n">
-        <v>183.9</v>
+        <v>184.9</v>
       </c>
       <c r="F118" t="n">
-        <v>3458.3516</v>
+        <v>6541.4303</v>
       </c>
       <c r="G118" t="n">
-        <v>186.0550000000001</v>
+        <v>186.0783333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4921,9 +4777,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>185</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4938,39 +4792,76 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>184</v>
+      </c>
+      <c r="C119" t="n">
+        <v>185</v>
+      </c>
+      <c r="D119" t="n">
+        <v>185</v>
+      </c>
+      <c r="E119" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3458.3516</v>
+      </c>
+      <c r="G119" t="n">
+        <v>186.0550000000001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
         <v>184.8</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C120" t="n">
         <v>184.8</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D120" t="n">
         <v>184.8</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E120" t="n">
         <v>184.8</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F120" t="n">
         <v>268.182</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G120" t="n">
         <v>186.0200000000001</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>185</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest INS.xlsx
+++ b/BackTest/2020-01-23 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2849.6745</v>
       </c>
       <c r="G2" t="n">
+        <v>184.6866666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>185.08</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>5000</v>
       </c>
       <c r="G3" t="n">
+        <v>184.5933333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>185.0366666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>7922.1406</v>
       </c>
       <c r="G4" t="n">
+        <v>184.5266666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>184.9916666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>18.5395</v>
       </c>
       <c r="G5" t="n">
+        <v>184.48</v>
+      </c>
+      <c r="H5" t="n">
         <v>184.9633333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>503.218</v>
       </c>
       <c r="G6" t="n">
+        <v>184.4266666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>184.9366666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1447</v>
       </c>
       <c r="G7" t="n">
+        <v>184.4</v>
+      </c>
+      <c r="H7" t="n">
         <v>184.9166666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>312</v>
       </c>
       <c r="G8" t="n">
+        <v>184.3933333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>184.8783333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>230</v>
       </c>
       <c r="G9" t="n">
+        <v>184.38</v>
+      </c>
+      <c r="H9" t="n">
         <v>184.8316666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>542.0248</v>
       </c>
       <c r="G10" t="n">
+        <v>184.2666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>184.79</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,25 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
+        <v>184.2266666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>184.7966666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +837,27 @@
         <v>2419.2586</v>
       </c>
       <c r="G12" t="n">
+        <v>184.2</v>
+      </c>
+      <c r="H12" t="n">
         <v>184.7466666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +881,27 @@
         <v>5</v>
       </c>
       <c r="G13" t="n">
+        <v>184.2466666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>184.765</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +925,21 @@
         <v>3475.332</v>
       </c>
       <c r="G14" t="n">
+        <v>184.2</v>
+      </c>
+      <c r="H14" t="n">
         <v>184.7516666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +963,21 @@
         <v>159.2097</v>
       </c>
       <c r="G15" t="n">
+        <v>184.24</v>
+      </c>
+      <c r="H15" t="n">
         <v>184.7566666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1001,21 @@
         <v>5</v>
       </c>
       <c r="G16" t="n">
+        <v>184.34</v>
+      </c>
+      <c r="H16" t="n">
         <v>184.775</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1039,21 @@
         <v>459.0099</v>
       </c>
       <c r="G17" t="n">
+        <v>184.3933333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>184.7816666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1077,21 @@
         <v>1500</v>
       </c>
       <c r="G18" t="n">
+        <v>184.4533333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>184.7883333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1115,21 @@
         <v>35.3674</v>
       </c>
       <c r="G19" t="n">
+        <v>184.4666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>184.7799999999999</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1153,21 @@
         <v>500</v>
       </c>
       <c r="G20" t="n">
+        <v>184.4666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>184.7666666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1191,21 @@
         <v>22.6333</v>
       </c>
       <c r="G21" t="n">
+        <v>184.54</v>
+      </c>
+      <c r="H21" t="n">
         <v>184.7716666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1229,21 @@
         <v>4973.3815</v>
       </c>
       <c r="G22" t="n">
+        <v>184.5466666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>184.7416666666666</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1267,21 @@
         <v>4962.2769</v>
       </c>
       <c r="G23" t="n">
+        <v>184.54</v>
+      </c>
+      <c r="H23" t="n">
         <v>184.7183333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1305,25 @@
         <v>3331.4924</v>
       </c>
       <c r="G24" t="n">
+        <v>184.5266666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>184.695</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L24" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1347,29 @@
         <v>1489.4587</v>
       </c>
       <c r="G25" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="H25" t="n">
         <v>184.6766666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="L25" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1393,29 @@
         <v>2000</v>
       </c>
       <c r="G26" t="n">
+        <v>184.42</v>
+      </c>
+      <c r="H26" t="n">
         <v>184.6583333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="L26" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,22 +1439,29 @@
         <v>5</v>
       </c>
       <c r="G27" t="n">
+        <v>184.48</v>
+      </c>
+      <c r="H27" t="n">
         <v>184.6583333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>183.7</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>183.7</v>
       </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1362,24 +1485,27 @@
         <v>4005</v>
       </c>
       <c r="G28" t="n">
+        <v>184.4133333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>184.6566666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1403,24 +1529,27 @@
         <v>4522.2234</v>
       </c>
       <c r="G29" t="n">
+        <v>184.4533333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>184.6483333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,24 +1573,27 @@
         <v>22.6333</v>
       </c>
       <c r="G30" t="n">
+        <v>184.3666666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>184.6266666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1485,24 +1617,29 @@
         <v>19916.8434</v>
       </c>
       <c r="G31" t="n">
+        <v>184.2</v>
+      </c>
+      <c r="H31" t="n">
         <v>184.5866666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L31" t="inlineStr">
+        <v>183.6</v>
+      </c>
+      <c r="L31" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1526,24 +1663,27 @@
         <v>5000</v>
       </c>
       <c r="G32" t="n">
+        <v>184.0666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>184.5433333333334</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1567,24 +1707,27 @@
         <v>400</v>
       </c>
       <c r="G33" t="n">
+        <v>184</v>
+      </c>
+      <c r="H33" t="n">
         <v>184.5050000000001</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1608,24 +1751,29 @@
         <v>422.0088</v>
       </c>
       <c r="G34" t="n">
+        <v>183.9866666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>184.4683333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L34" t="inlineStr">
+        <v>184</v>
+      </c>
+      <c r="L34" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1649,24 +1797,29 @@
         <v>680.8866</v>
       </c>
       <c r="G35" t="n">
+        <v>183.9866666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>184.4533333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L35" t="inlineStr">
+        <v>184</v>
+      </c>
+      <c r="L35" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1690,24 +1843,29 @@
         <v>7231.3484</v>
       </c>
       <c r="G36" t="n">
+        <v>183.92</v>
+      </c>
+      <c r="H36" t="n">
         <v>184.4366666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L36" t="inlineStr">
+        <v>184</v>
+      </c>
+      <c r="L36" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1731,24 +1889,29 @@
         <v>10971.0306</v>
       </c>
       <c r="G37" t="n">
+        <v>183.92</v>
+      </c>
+      <c r="H37" t="n">
         <v>184.3916666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L37" t="inlineStr">
+        <v>184</v>
+      </c>
+      <c r="L37" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1772,24 +1935,29 @@
         <v>240.2003</v>
       </c>
       <c r="G38" t="n">
+        <v>183.96</v>
+      </c>
+      <c r="H38" t="n">
         <v>184.385</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L38" t="inlineStr">
+        <v>184</v>
+      </c>
+      <c r="L38" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,24 +1981,29 @@
         <v>669.2007</v>
       </c>
       <c r="G39" t="n">
+        <v>184.0133333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>184.3800000000001</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L39" t="inlineStr">
+        <v>184.5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1854,24 +2027,29 @@
         <v>3272.5276</v>
       </c>
       <c r="G40" t="n">
+        <v>184.0333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>184.3650000000001</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L40" t="inlineStr">
+        <v>184.6</v>
+      </c>
+      <c r="L40" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1895,24 +2073,29 @@
         <v>2945.2747</v>
       </c>
       <c r="G41" t="n">
+        <v>184.0533333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>184.3500000000001</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L41" t="inlineStr">
+        <v>184</v>
+      </c>
+      <c r="L41" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,24 +2119,29 @@
         <v>1101.3303</v>
       </c>
       <c r="G42" t="n">
+        <v>184.04</v>
+      </c>
+      <c r="H42" t="n">
         <v>184.3450000000001</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L42" t="inlineStr">
+        <v>184</v>
+      </c>
+      <c r="L42" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1977,24 +2165,27 @@
         <v>1351.4054</v>
       </c>
       <c r="G43" t="n">
+        <v>184.0333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>184.3466666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2018,24 +2209,27 @@
         <v>95</v>
       </c>
       <c r="G44" t="n">
+        <v>184.0266666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>184.3450000000001</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2059,24 +2253,29 @@
         <v>503.1509</v>
       </c>
       <c r="G45" t="n">
+        <v>184.0933333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>184.3500000000001</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L45" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="L45" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2100,24 +2299,27 @@
         <v>558.1647</v>
       </c>
       <c r="G46" t="n">
+        <v>184.1866666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>184.3550000000001</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2141,24 +2343,29 @@
         <v>1913.2625</v>
       </c>
       <c r="G47" t="n">
+        <v>184.3333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>184.3700000000001</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L47" t="inlineStr">
+        <v>184.6</v>
+      </c>
+      <c r="L47" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,24 +2389,27 @@
         <v>4295.997</v>
       </c>
       <c r="G48" t="n">
+        <v>184.32</v>
+      </c>
+      <c r="H48" t="n">
         <v>184.3416666666668</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2223,24 +2433,29 @@
         <v>113</v>
       </c>
       <c r="G49" t="n">
+        <v>184.3933333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>184.3433333333334</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L49" t="inlineStr">
+        <v>183.8</v>
+      </c>
+      <c r="L49" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2264,24 +2479,29 @@
         <v>1946.6461</v>
       </c>
       <c r="G50" t="n">
+        <v>184.4666666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>184.3500000000001</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L50" t="inlineStr">
+        <v>185.1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2305,24 +2525,27 @@
         <v>853.4417999999999</v>
       </c>
       <c r="G51" t="n">
+        <v>184.54</v>
+      </c>
+      <c r="H51" t="n">
         <v>184.3566666666668</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2346,24 +2569,27 @@
         <v>163.0049</v>
       </c>
       <c r="G52" t="n">
+        <v>184.6133333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>184.3700000000001</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2387,24 +2613,29 @@
         <v>1151.7145</v>
       </c>
       <c r="G53" t="n">
+        <v>184.6533333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>184.3866666666668</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L53" t="inlineStr">
+        <v>185.1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,24 +2659,29 @@
         <v>2.68</v>
       </c>
       <c r="G54" t="n">
+        <v>184.7133333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>184.4083333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L54" t="inlineStr">
+        <v>185.1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2469,24 +2705,29 @@
         <v>7409.1446</v>
       </c>
       <c r="G55" t="n">
+        <v>184.8133333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>184.4033333333335</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L55" t="inlineStr">
+        <v>185.5</v>
+      </c>
+      <c r="L55" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2510,24 +2751,29 @@
         <v>5</v>
       </c>
       <c r="G56" t="n">
+        <v>184.9666666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>184.4166666666668</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L56" t="inlineStr">
+        <v>185.5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2551,24 +2797,27 @@
         <v>10</v>
       </c>
       <c r="G57" t="n">
+        <v>185.08</v>
+      </c>
+      <c r="H57" t="n">
         <v>184.4500000000001</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2592,24 +2841,27 @@
         <v>577.1642000000001</v>
       </c>
       <c r="G58" t="n">
+        <v>185.14</v>
+      </c>
+      <c r="H58" t="n">
         <v>184.4583333333335</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2633,24 +2885,27 @@
         <v>5</v>
       </c>
       <c r="G59" t="n">
+        <v>185.28</v>
+      </c>
+      <c r="H59" t="n">
         <v>184.4900000000001</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2674,24 +2929,27 @@
         <v>10</v>
       </c>
       <c r="G60" t="n">
+        <v>185.4333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>184.5333333333334</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2715,24 +2973,27 @@
         <v>22451</v>
       </c>
       <c r="G61" t="n">
+        <v>185.66</v>
+      </c>
+      <c r="H61" t="n">
         <v>184.5966666666668</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,25 +3017,28 @@
         <v>2134</v>
       </c>
       <c r="G62" t="n">
+        <v>185.8933333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>184.6716666666668</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1.022218290691345</v>
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2797,18 +3061,27 @@
         <v>5</v>
       </c>
       <c r="G63" t="n">
+        <v>186.24</v>
+      </c>
+      <c r="H63" t="n">
         <v>184.7533333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,18 +3105,27 @@
         <v>6700</v>
       </c>
       <c r="G64" t="n">
+        <v>186.5066666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>184.8383333333335</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2867,18 +3149,27 @@
         <v>3828.2238</v>
       </c>
       <c r="G65" t="n">
+        <v>186.76</v>
+      </c>
+      <c r="H65" t="n">
         <v>184.9200000000001</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2902,18 +3193,27 @@
         <v>3268.8491</v>
       </c>
       <c r="G66" t="n">
+        <v>186.8666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>184.9666666666668</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2937,18 +3237,27 @@
         <v>542.8247</v>
       </c>
       <c r="G67" t="n">
+        <v>186.9666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>185.0116666666668</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2972,18 +3281,27 @@
         <v>1829.454</v>
       </c>
       <c r="G68" t="n">
+        <v>187.0733333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>185.0566666666668</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3007,18 +3325,27 @@
         <v>8.473100000000001</v>
       </c>
       <c r="G69" t="n">
+        <v>187.08</v>
+      </c>
+      <c r="H69" t="n">
         <v>185.0833333333335</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3042,18 +3369,27 @@
         <v>1070</v>
       </c>
       <c r="G70" t="n">
+        <v>187.12</v>
+      </c>
+      <c r="H70" t="n">
         <v>185.1166666666668</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3077,18 +3413,27 @@
         <v>5</v>
       </c>
       <c r="G71" t="n">
+        <v>187.14</v>
+      </c>
+      <c r="H71" t="n">
         <v>185.1450000000002</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3112,18 +3457,27 @@
         <v>6810</v>
       </c>
       <c r="G72" t="n">
+        <v>187.2333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>185.2083333333335</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3147,18 +3501,27 @@
         <v>502.2132</v>
       </c>
       <c r="G73" t="n">
+        <v>187.4333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>185.2550000000002</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3182,19 +3545,28 @@
         <v>18.5914</v>
       </c>
       <c r="G74" t="n">
+        <v>187.5733333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>185.3333333333335</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
+      <c r="L74" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>1.020013594344753</v>
       </c>
     </row>
     <row r="75">
@@ -3217,18 +3589,21 @@
         <v>9950</v>
       </c>
       <c r="G75" t="n">
+        <v>187.5733333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>185.3666666666668</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3252,18 +3627,21 @@
         <v>2677.742</v>
       </c>
       <c r="G76" t="n">
+        <v>187.4799999999999</v>
+      </c>
+      <c r="H76" t="n">
         <v>185.3816666666668</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3287,18 +3665,21 @@
         <v>254.377</v>
       </c>
       <c r="G77" t="n">
+        <v>187.32</v>
+      </c>
+      <c r="H77" t="n">
         <v>185.4033333333335</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3322,18 +3703,21 @@
         <v>2.66</v>
       </c>
       <c r="G78" t="n">
+        <v>187.1733333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>185.4333333333335</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3357,18 +3741,21 @@
         <v>17925.489</v>
       </c>
       <c r="G79" t="n">
+        <v>186.8933333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>185.4450000000001</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3392,18 +3779,21 @@
         <v>2058.6175</v>
       </c>
       <c r="G80" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="H80" t="n">
         <v>185.4783333333335</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3427,18 +3817,21 @@
         <v>85</v>
       </c>
       <c r="G81" t="n">
+        <v>186.7066666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>185.5083333333335</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3462,18 +3855,21 @@
         <v>16</v>
       </c>
       <c r="G82" t="n">
+        <v>186.72</v>
+      </c>
+      <c r="H82" t="n">
         <v>185.5550000000001</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3497,18 +3893,21 @@
         <v>540.623</v>
       </c>
       <c r="G83" t="n">
+        <v>186.7266666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>185.6033333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3532,18 +3931,21 @@
         <v>1073.892</v>
       </c>
       <c r="G84" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="H84" t="n">
         <v>185.6266666666668</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3567,18 +3969,21 @@
         <v>2.66</v>
       </c>
       <c r="G85" t="n">
+        <v>186.7733333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>185.6850000000001</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,18 +4007,21 @@
         <v>1403</v>
       </c>
       <c r="G86" t="n">
+        <v>186.7666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>185.7316666666668</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3637,18 +4045,21 @@
         <v>3</v>
       </c>
       <c r="G87" t="n">
+        <v>186.7066666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>185.7650000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3672,18 +4083,21 @@
         <v>400</v>
       </c>
       <c r="G88" t="n">
+        <v>186.5066666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>185.7783333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3707,18 +4121,21 @@
         <v>2.67</v>
       </c>
       <c r="G89" t="n">
+        <v>186.3866666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>185.8166666666668</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,18 +4159,21 @@
         <v>5674.0429</v>
       </c>
       <c r="G90" t="n">
+        <v>186.2933333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>185.8483333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3777,18 +4197,21 @@
         <v>1924</v>
       </c>
       <c r="G91" t="n">
+        <v>186.2200000000001</v>
+      </c>
+      <c r="H91" t="n">
         <v>185.8866666666668</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3812,18 +4235,21 @@
         <v>3151.2797</v>
       </c>
       <c r="G92" t="n">
+        <v>186.1666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>185.9283333333334</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3847,18 +4273,21 @@
         <v>1109.3869</v>
       </c>
       <c r="G93" t="n">
+        <v>186.08</v>
+      </c>
+      <c r="H93" t="n">
         <v>185.9533333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3882,18 +4311,21 @@
         <v>1456.1464</v>
       </c>
       <c r="G94" t="n">
+        <v>186.08</v>
+      </c>
+      <c r="H94" t="n">
         <v>185.9683333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3917,18 +4349,21 @@
         <v>19.5559</v>
       </c>
       <c r="G95" t="n">
+        <v>186.0066666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>185.9833333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3952,18 +4387,21 @@
         <v>4766.9322</v>
       </c>
       <c r="G96" t="n">
+        <v>185.8666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>185.9950000000001</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3987,18 +4425,21 @@
         <v>3242.1708</v>
       </c>
       <c r="G97" t="n">
+        <v>185.72</v>
+      </c>
+      <c r="H97" t="n">
         <v>186.0050000000001</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4022,18 +4463,21 @@
         <v>1192.4292</v>
       </c>
       <c r="G98" t="n">
+        <v>185.5733333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>186.0066666666668</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4057,18 +4501,21 @@
         <v>1651.7858</v>
       </c>
       <c r="G99" t="n">
+        <v>185.5466666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>186.0100000000001</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4092,18 +4539,21 @@
         <v>17806.572</v>
       </c>
       <c r="G100" t="n">
+        <v>185.3666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>186.0183333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4127,18 +4577,21 @@
         <v>13207.0767</v>
       </c>
       <c r="G101" t="n">
+        <v>185.2333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>186.0266666666668</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,18 +4615,21 @@
         <v>2530.7148</v>
       </c>
       <c r="G102" t="n">
+        <v>185.1066666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>186.0316666666668</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4197,18 +4653,21 @@
         <v>5441.9999</v>
       </c>
       <c r="G103" t="n">
+        <v>185.0733333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>186.0383333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4232,18 +4691,21 @@
         <v>716.7177</v>
       </c>
       <c r="G104" t="n">
+        <v>184.96</v>
+      </c>
+      <c r="H104" t="n">
         <v>186.0500000000001</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4267,18 +4729,21 @@
         <v>244.7343</v>
       </c>
       <c r="G105" t="n">
+        <v>184.9266666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>186.0566666666668</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4302,18 +4767,21 @@
         <v>2626.1795</v>
       </c>
       <c r="G106" t="n">
+        <v>184.8066666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>186.0416666666668</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4337,24 +4805,21 @@
         <v>12.7</v>
       </c>
       <c r="G107" t="n">
+        <v>184.7733333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>186.0383333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>183.7</v>
+        <v>0</v>
       </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4378,22 +4843,21 @@
         <v>35.848</v>
       </c>
       <c r="G108" t="n">
+        <v>184.74</v>
+      </c>
+      <c r="H108" t="n">
         <v>186.0583333333334</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4417,22 +4881,21 @@
         <v>3918.6947</v>
       </c>
       <c r="G109" t="n">
+        <v>184.6733333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>186.0383333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,22 +4919,21 @@
         <v>15947.7257</v>
       </c>
       <c r="G110" t="n">
+        <v>184.7933333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>186.0650000000001</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4495,22 +4957,21 @@
         <v>20303.6461</v>
       </c>
       <c r="G111" t="n">
+        <v>184.7933333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>186.0583333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4534,22 +4995,21 @@
         <v>4586.3041</v>
       </c>
       <c r="G112" t="n">
+        <v>184.8466666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>186.0633333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4573,22 +5033,21 @@
         <v>23368.0914</v>
       </c>
       <c r="G113" t="n">
+        <v>184.8466666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>186.0550000000001</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,22 +5071,21 @@
         <v>0.6524</v>
       </c>
       <c r="G114" t="n">
+        <v>184.8866666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>186.0533333333334</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4651,22 +5109,21 @@
         <v>6013.5069</v>
       </c>
       <c r="G115" t="n">
+        <v>185.0866666666666</v>
+      </c>
+      <c r="H115" t="n">
         <v>186.0866666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4690,22 +5147,21 @@
         <v>3767</v>
       </c>
       <c r="G116" t="n">
+        <v>185.2666666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>186.1016666666668</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,22 +5185,21 @@
         <v>9610.265100000001</v>
       </c>
       <c r="G117" t="n">
+        <v>185.24</v>
+      </c>
+      <c r="H117" t="n">
         <v>186.0716666666668</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4768,22 +5223,21 @@
         <v>6541.4303</v>
       </c>
       <c r="G118" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="H118" t="n">
         <v>186.0783333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4807,22 +5261,21 @@
         <v>3458.3516</v>
       </c>
       <c r="G119" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="H119" t="n">
         <v>186.0550000000001</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,22 +5299,401 @@
         <v>268.182</v>
       </c>
       <c r="G120" t="n">
+        <v>185.2866666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>186.0200000000001</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="C121" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="E121" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3204.1758</v>
+      </c>
+      <c r="G121" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="H121" t="n">
+        <v>185.9516666666668</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="C122" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="D122" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="E122" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="F122" t="n">
+        <v>9341.3815</v>
+      </c>
+      <c r="G122" t="n">
+        <v>185.2066666666666</v>
+      </c>
+      <c r="H122" t="n">
+        <v>185.8666666666668</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>184</v>
+      </c>
+      <c r="C123" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>184</v>
+      </c>
+      <c r="E123" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F123" t="n">
+        <v>21599.248</v>
+      </c>
+      <c r="G123" t="n">
+        <v>185.1333333333333</v>
+      </c>
+      <c r="H123" t="n">
+        <v>185.7816666666668</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="C124" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="D124" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="E124" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="F124" t="n">
+        <v>5893.9669</v>
+      </c>
+      <c r="G124" t="n">
+        <v>185.1866666666666</v>
+      </c>
+      <c r="H124" t="n">
+        <v>185.7083333333334</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4584.6202</v>
+      </c>
+      <c r="G125" t="n">
+        <v>185.0533333333333</v>
+      </c>
+      <c r="H125" t="n">
+        <v>185.6383333333334</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>5218.2743</v>
+      </c>
+      <c r="G126" t="n">
+        <v>184.9533333333333</v>
+      </c>
+      <c r="H126" t="n">
+        <v>185.5800000000001</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="D127" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4502.2251</v>
+      </c>
+      <c r="G127" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="H127" t="n">
+        <v>185.5466666666668</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4003</v>
+      </c>
+      <c r="G128" t="n">
+        <v>184.9133333333333</v>
+      </c>
+      <c r="H128" t="n">
+        <v>185.5150000000001</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="C129" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="E129" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>17.3738</v>
+      </c>
+      <c r="G129" t="n">
+        <v>184.8133333333333</v>
+      </c>
+      <c r="H129" t="n">
+        <v>185.4866666666667</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="C130" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D130" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="E130" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F130" t="n">
+        <v>298.6262</v>
+      </c>
+      <c r="G130" t="n">
+        <v>184.5733333333333</v>
+      </c>
+      <c r="H130" t="n">
+        <v>185.4500000000001</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest INS.xlsx
+++ b/BackTest/2020-01-23 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>186.3</v>
+        <v>184.9</v>
       </c>
       <c r="C2" t="n">
-        <v>186.3</v>
+        <v>184.9</v>
       </c>
       <c r="D2" t="n">
-        <v>186.3</v>
+        <v>184.9</v>
       </c>
       <c r="E2" t="n">
-        <v>186.3</v>
+        <v>184.9</v>
       </c>
       <c r="F2" t="n">
-        <v>2.67</v>
+        <v>159.2097</v>
       </c>
       <c r="G2" t="n">
-        <v>-27123.16883007321</v>
+        <v>-75297.51143007319</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>186.2</v>
+        <v>185.7</v>
       </c>
       <c r="C3" t="n">
-        <v>186.2</v>
+        <v>185.7</v>
       </c>
       <c r="D3" t="n">
-        <v>186.2</v>
+        <v>185.7</v>
       </c>
       <c r="E3" t="n">
-        <v>186.2</v>
+        <v>185.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1064.8939</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-28188.06273007321</v>
+        <v>-75292.51143007319</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -506,25 +513,25 @@
         <v>184.9</v>
       </c>
       <c r="C4" t="n">
-        <v>184.9</v>
+        <v>185</v>
       </c>
       <c r="D4" t="n">
-        <v>184.9</v>
+        <v>185</v>
       </c>
       <c r="E4" t="n">
-        <v>184.9</v>
+        <v>184.8</v>
       </c>
       <c r="F4" t="n">
-        <v>63.9</v>
+        <v>459.0099</v>
       </c>
       <c r="G4" t="n">
-        <v>-28251.96273007321</v>
+        <v>-75751.5213300732</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,10 +558,10 @@
         <v>185</v>
       </c>
       <c r="F5" t="n">
-        <v>236.9999</v>
+        <v>1500</v>
       </c>
       <c r="G5" t="n">
-        <v>-28014.96283007321</v>
+        <v>-75751.5213300732</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>186.7</v>
+        <v>184.2</v>
       </c>
       <c r="C6" t="n">
-        <v>186.7</v>
+        <v>184.2</v>
       </c>
       <c r="D6" t="n">
-        <v>186.7</v>
+        <v>184.2</v>
       </c>
       <c r="E6" t="n">
-        <v>186.7</v>
+        <v>184.2</v>
       </c>
       <c r="F6" t="n">
-        <v>6.6967</v>
+        <v>35.3674</v>
       </c>
       <c r="G6" t="n">
-        <v>-28008.26613007321</v>
+        <v>-75786.8887300732</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="C7" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="D7" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="E7" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="F7" t="n">
-        <v>467.6641</v>
+        <v>500</v>
       </c>
       <c r="G7" t="n">
-        <v>-28475.93023007321</v>
+        <v>-76286.8887300732</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>184.9</v>
+        <v>185</v>
       </c>
       <c r="C8" t="n">
-        <v>184.9</v>
+        <v>185</v>
       </c>
       <c r="D8" t="n">
-        <v>184.9</v>
+        <v>185</v>
       </c>
       <c r="E8" t="n">
-        <v>184.9</v>
+        <v>185</v>
       </c>
       <c r="F8" t="n">
-        <v>1064.8939</v>
+        <v>22.6333</v>
       </c>
       <c r="G8" t="n">
-        <v>-28475.93023007321</v>
+        <v>-76264.2554300732</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="C9" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="D9" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="E9" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="F9" t="n">
-        <v>5427.86</v>
+        <v>4973.3815</v>
       </c>
       <c r="G9" t="n">
-        <v>-28475.93023007321</v>
+        <v>-81237.6369300732</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="C10" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="D10" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="E10" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="F10" t="n">
-        <v>619.9999</v>
+        <v>4962.2769</v>
       </c>
       <c r="G10" t="n">
-        <v>-28475.93023007321</v>
+        <v>-86199.9138300732</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>184.9</v>
+        <v>183.8</v>
       </c>
       <c r="C11" t="n">
-        <v>184.9</v>
+        <v>183.8</v>
       </c>
       <c r="D11" t="n">
-        <v>184.9</v>
+        <v>183.8</v>
       </c>
       <c r="E11" t="n">
-        <v>184.9</v>
+        <v>183.8</v>
       </c>
       <c r="F11" t="n">
-        <v>487.2702</v>
+        <v>3331.4924</v>
       </c>
       <c r="G11" t="n">
-        <v>-28475.93023007321</v>
+        <v>-89531.4062300732</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>184.7</v>
+        <v>183.8</v>
       </c>
       <c r="C12" t="n">
-        <v>184.5</v>
+        <v>183.7</v>
       </c>
       <c r="D12" t="n">
-        <v>184.7</v>
+        <v>183.8</v>
       </c>
       <c r="E12" t="n">
-        <v>184.5</v>
+        <v>183.7</v>
       </c>
       <c r="F12" t="n">
-        <v>6682.6356</v>
+        <v>1489.4587</v>
       </c>
       <c r="G12" t="n">
-        <v>-35158.56583007321</v>
+        <v>-91020.86493007321</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>184.5</v>
+        <v>183.7</v>
       </c>
       <c r="C13" t="n">
-        <v>184.4</v>
+        <v>183.7</v>
       </c>
       <c r="D13" t="n">
-        <v>184.5</v>
+        <v>183.7</v>
       </c>
       <c r="E13" t="n">
-        <v>184.4</v>
+        <v>183.7</v>
       </c>
       <c r="F13" t="n">
-        <v>7942.1291</v>
+        <v>2000</v>
       </c>
       <c r="G13" t="n">
-        <v>-43100.69493007321</v>
+        <v>-91020.86493007321</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>184.3</v>
+        <v>184.8</v>
       </c>
       <c r="C14" t="n">
-        <v>184.3</v>
+        <v>184.8</v>
       </c>
       <c r="D14" t="n">
-        <v>184.3</v>
+        <v>184.8</v>
       </c>
       <c r="E14" t="n">
-        <v>184.3</v>
+        <v>184.8</v>
       </c>
       <c r="F14" t="n">
-        <v>2838.74</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>-45939.43493007321</v>
+        <v>-91015.86493007321</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>184.3</v>
+        <v>183.7</v>
       </c>
       <c r="C15" t="n">
-        <v>184.3</v>
+        <v>184.7</v>
       </c>
       <c r="D15" t="n">
-        <v>184.3</v>
+        <v>184.7</v>
       </c>
       <c r="E15" t="n">
-        <v>184.3</v>
+        <v>183.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1052.8743</v>
+        <v>4005</v>
       </c>
       <c r="G15" t="n">
-        <v>-45939.43493007321</v>
+        <v>-95020.86493007321</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>184.3</v>
+        <v>184.4</v>
       </c>
       <c r="C16" t="n">
-        <v>184.3</v>
+        <v>184.4</v>
       </c>
       <c r="D16" t="n">
-        <v>184.3</v>
+        <v>184.4</v>
       </c>
       <c r="E16" t="n">
-        <v>184.3</v>
+        <v>184.4</v>
       </c>
       <c r="F16" t="n">
-        <v>3270.808</v>
+        <v>4522.2234</v>
       </c>
       <c r="G16" t="n">
-        <v>-45939.43493007321</v>
+        <v>-99543.08833007321</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>185.5</v>
+        <v>183.6</v>
       </c>
       <c r="C17" t="n">
-        <v>185.5</v>
+        <v>183.6</v>
       </c>
       <c r="D17" t="n">
-        <v>185.5</v>
+        <v>183.6</v>
       </c>
       <c r="E17" t="n">
-        <v>185.5</v>
+        <v>183.6</v>
       </c>
       <c r="F17" t="n">
-        <v>10000</v>
+        <v>22.6333</v>
       </c>
       <c r="G17" t="n">
-        <v>-35939.43493007321</v>
+        <v>-99565.72163007321</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>185</v>
+        <v>183.6</v>
       </c>
       <c r="C18" t="n">
-        <v>185</v>
+        <v>183.2</v>
       </c>
       <c r="D18" t="n">
-        <v>185</v>
+        <v>183.6</v>
       </c>
       <c r="E18" t="n">
-        <v>185</v>
+        <v>183.2</v>
       </c>
       <c r="F18" t="n">
-        <v>549.12</v>
+        <v>19916.8434</v>
       </c>
       <c r="G18" t="n">
-        <v>-36488.55493007321</v>
+        <v>-119482.5650300732</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>185</v>
+        <v>183.2</v>
       </c>
       <c r="C19" t="n">
-        <v>184.7</v>
+        <v>183</v>
       </c>
       <c r="D19" t="n">
-        <v>185</v>
+        <v>183.2</v>
       </c>
       <c r="E19" t="n">
-        <v>184.7</v>
+        <v>183</v>
       </c>
       <c r="F19" t="n">
-        <v>23.17</v>
+        <v>5000</v>
       </c>
       <c r="G19" t="n">
-        <v>-36511.72493007321</v>
+        <v>-124482.5650300732</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="C20" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="D20" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="E20" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="F20" t="n">
-        <v>2598</v>
+        <v>400</v>
       </c>
       <c r="G20" t="n">
-        <v>-36511.72493007321</v>
+        <v>-124082.5650300732</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" t="n">
-        <v>184.3</v>
+        <v>184</v>
       </c>
       <c r="D21" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E21" t="n">
-        <v>184.3</v>
+        <v>184</v>
       </c>
       <c r="F21" t="n">
-        <v>5302.5134</v>
+        <v>422.0088</v>
       </c>
       <c r="G21" t="n">
-        <v>-41814.2383300732</v>
+        <v>-124082.5650300732</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>184.3</v>
+        <v>183.9</v>
       </c>
       <c r="C22" t="n">
-        <v>184.1</v>
+        <v>184</v>
       </c>
       <c r="D22" t="n">
-        <v>184.3</v>
+        <v>184</v>
       </c>
       <c r="E22" t="n">
-        <v>184.1</v>
+        <v>183.9</v>
       </c>
       <c r="F22" t="n">
-        <v>4347.3376</v>
+        <v>680.8866</v>
       </c>
       <c r="G22" t="n">
-        <v>-46161.5759300732</v>
+        <v>-124082.5650300732</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>184.2</v>
+        <v>184</v>
       </c>
       <c r="C23" t="n">
-        <v>184.2</v>
+        <v>184</v>
       </c>
       <c r="D23" t="n">
-        <v>184.2</v>
+        <v>184</v>
       </c>
       <c r="E23" t="n">
-        <v>184.2</v>
+        <v>184</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>7231.3484</v>
       </c>
       <c r="G23" t="n">
-        <v>-46061.5759300732</v>
+        <v>-124082.5650300732</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" t="n">
-        <v>185.8</v>
+        <v>184</v>
       </c>
       <c r="D24" t="n">
-        <v>185.8</v>
+        <v>184</v>
       </c>
       <c r="E24" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>10971.0306</v>
       </c>
       <c r="G24" t="n">
-        <v>-46056.5759300732</v>
+        <v>-124082.5650300732</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>185.5</v>
+        <v>184</v>
       </c>
       <c r="C25" t="n">
-        <v>185.5</v>
+        <v>184.5</v>
       </c>
       <c r="D25" t="n">
-        <v>185.5</v>
+        <v>184.5</v>
       </c>
       <c r="E25" t="n">
-        <v>185.5</v>
+        <v>184</v>
       </c>
       <c r="F25" t="n">
-        <v>2373.9459</v>
+        <v>240.2003</v>
       </c>
       <c r="G25" t="n">
-        <v>-48430.5218300732</v>
+        <v>-123842.3647300732</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>184.3</v>
+        <v>184.5</v>
       </c>
       <c r="C26" t="n">
-        <v>184.3</v>
+        <v>184.6</v>
       </c>
       <c r="D26" t="n">
-        <v>184.3</v>
+        <v>184.6</v>
       </c>
       <c r="E26" t="n">
-        <v>184.3</v>
+        <v>184.5</v>
       </c>
       <c r="F26" t="n">
-        <v>21.2734</v>
+        <v>669.2007</v>
       </c>
       <c r="G26" t="n">
-        <v>-48451.7952300732</v>
+        <v>-123173.1640300732</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C27" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D27" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E27" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F27" t="n">
-        <v>22.32</v>
+        <v>3272.5276</v>
       </c>
       <c r="G27" t="n">
-        <v>-48429.4752300732</v>
+        <v>-126445.6916300732</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="C28" t="n">
-        <v>184.5</v>
+        <v>184</v>
       </c>
       <c r="D28" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="E28" t="n">
-        <v>184.5</v>
+        <v>184</v>
       </c>
       <c r="F28" t="n">
-        <v>347</v>
+        <v>2945.2747</v>
       </c>
       <c r="G28" t="n">
-        <v>-48776.4752300732</v>
+        <v>-126445.6916300732</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>184.5</v>
+        <v>184</v>
       </c>
       <c r="C29" t="n">
-        <v>184.3</v>
+        <v>184.6</v>
       </c>
       <c r="D29" t="n">
-        <v>184.5</v>
+        <v>184.6</v>
       </c>
       <c r="E29" t="n">
-        <v>184.3</v>
+        <v>184</v>
       </c>
       <c r="F29" t="n">
-        <v>261.8</v>
+        <v>1101.3303</v>
       </c>
       <c r="G29" t="n">
-        <v>-49038.2752300732</v>
+        <v>-125344.3613300732</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>184.3</v>
+        <v>184.6</v>
       </c>
       <c r="C30" t="n">
-        <v>184.2</v>
+        <v>184.6</v>
       </c>
       <c r="D30" t="n">
-        <v>184.3</v>
+        <v>184.6</v>
       </c>
       <c r="E30" t="n">
-        <v>184.2</v>
+        <v>184.6</v>
       </c>
       <c r="F30" t="n">
-        <v>7967.5215</v>
+        <v>1351.4054</v>
       </c>
       <c r="G30" t="n">
-        <v>-57005.79673007321</v>
+        <v>-125344.3613300732</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>184.2</v>
+        <v>184.3</v>
       </c>
       <c r="C31" t="n">
-        <v>184.2</v>
+        <v>184.3</v>
       </c>
       <c r="D31" t="n">
-        <v>184.2</v>
+        <v>184.3</v>
       </c>
       <c r="E31" t="n">
-        <v>184.2</v>
+        <v>184.3</v>
       </c>
       <c r="F31" t="n">
-        <v>2849.6745</v>
+        <v>95</v>
       </c>
       <c r="G31" t="n">
-        <v>-57005.79673007321</v>
+        <v>-125439.3613300732</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>184.1</v>
+        <v>184.3</v>
       </c>
       <c r="C32" t="n">
-        <v>184.1</v>
+        <v>184.6</v>
       </c>
       <c r="D32" t="n">
-        <v>184.1</v>
+        <v>184.6</v>
       </c>
       <c r="E32" t="n">
-        <v>184.1</v>
+        <v>184.3</v>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>503.1509</v>
       </c>
       <c r="G32" t="n">
-        <v>-62005.79673007321</v>
+        <v>-124936.2104300732</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>184.1</v>
+        <v>184.6</v>
       </c>
       <c r="C33" t="n">
-        <v>184</v>
+        <v>184.6</v>
       </c>
       <c r="D33" t="n">
-        <v>184.1</v>
+        <v>184.6</v>
       </c>
       <c r="E33" t="n">
-        <v>184</v>
+        <v>184.6</v>
       </c>
       <c r="F33" t="n">
-        <v>7922.1406</v>
+        <v>558.1647</v>
       </c>
       <c r="G33" t="n">
-        <v>-69927.93733007321</v>
+        <v>-124936.2104300732</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>184</v>
+        <v>184.6</v>
       </c>
       <c r="C34" t="n">
-        <v>184</v>
+        <v>185.2</v>
       </c>
       <c r="D34" t="n">
-        <v>184</v>
+        <v>185.2</v>
       </c>
       <c r="E34" t="n">
-        <v>184</v>
+        <v>184.6</v>
       </c>
       <c r="F34" t="n">
-        <v>18.5395</v>
+        <v>1913.2625</v>
       </c>
       <c r="G34" t="n">
-        <v>-69927.93733007321</v>
+        <v>-123022.9479300732</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>183.9</v>
+        <v>183.8</v>
       </c>
       <c r="C35" t="n">
-        <v>183.9</v>
+        <v>183.8</v>
       </c>
       <c r="D35" t="n">
-        <v>183.9</v>
+        <v>183.8</v>
       </c>
       <c r="E35" t="n">
-        <v>183.9</v>
+        <v>183.8</v>
       </c>
       <c r="F35" t="n">
-        <v>503.218</v>
+        <v>4295.997</v>
       </c>
       <c r="G35" t="n">
-        <v>-70431.1553300732</v>
+        <v>-127318.9449300732</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>183.9</v>
+        <v>183.8</v>
       </c>
       <c r="C36" t="n">
-        <v>183.9</v>
+        <v>185.1</v>
       </c>
       <c r="D36" t="n">
-        <v>183.9</v>
+        <v>185.1</v>
       </c>
       <c r="E36" t="n">
-        <v>183.9</v>
+        <v>183.8</v>
       </c>
       <c r="F36" t="n">
-        <v>1447</v>
+        <v>113</v>
       </c>
       <c r="G36" t="n">
-        <v>-70431.1553300732</v>
+        <v>-127205.9449300732</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>184</v>
+        <v>185.1</v>
       </c>
       <c r="C37" t="n">
-        <v>184</v>
+        <v>185.1</v>
       </c>
       <c r="D37" t="n">
-        <v>184</v>
+        <v>185.1</v>
       </c>
       <c r="E37" t="n">
-        <v>184</v>
+        <v>185.1</v>
       </c>
       <c r="F37" t="n">
-        <v>312</v>
+        <v>1946.6461</v>
       </c>
       <c r="G37" t="n">
-        <v>-70119.1553300732</v>
+        <v>-127205.9449300732</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>184</v>
+        <v>185.1</v>
       </c>
       <c r="C38" t="n">
-        <v>184</v>
+        <v>185.1</v>
       </c>
       <c r="D38" t="n">
-        <v>184</v>
+        <v>185.1</v>
       </c>
       <c r="E38" t="n">
-        <v>184</v>
+        <v>185.1</v>
       </c>
       <c r="F38" t="n">
-        <v>230</v>
+        <v>853.4417999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>-70119.1553300732</v>
+        <v>-127205.9449300732</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>184.1</v>
+        <v>185.1</v>
       </c>
       <c r="C39" t="n">
-        <v>184.1</v>
+        <v>185.1</v>
       </c>
       <c r="D39" t="n">
-        <v>184.1</v>
+        <v>185.1</v>
       </c>
       <c r="E39" t="n">
-        <v>184.1</v>
+        <v>185.1</v>
       </c>
       <c r="F39" t="n">
-        <v>542.0248</v>
+        <v>163.0049</v>
       </c>
       <c r="G39" t="n">
-        <v>-69577.13053007321</v>
+        <v>-127205.9449300732</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>184.9</v>
+        <v>185.1</v>
       </c>
       <c r="C40" t="n">
-        <v>184.9</v>
+        <v>185.1</v>
       </c>
       <c r="D40" t="n">
-        <v>184.9</v>
+        <v>185.1</v>
       </c>
       <c r="E40" t="n">
-        <v>184.9</v>
+        <v>185.1</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>1151.7145</v>
       </c>
       <c r="G40" t="n">
-        <v>-69567.13053007321</v>
+        <v>-127205.9449300732</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>183.9</v>
+        <v>185.5</v>
       </c>
       <c r="C41" t="n">
-        <v>183.9</v>
+        <v>185.5</v>
       </c>
       <c r="D41" t="n">
-        <v>183.9</v>
+        <v>185.5</v>
       </c>
       <c r="E41" t="n">
-        <v>183.9</v>
+        <v>185.5</v>
       </c>
       <c r="F41" t="n">
-        <v>2419.2586</v>
+        <v>2.68</v>
       </c>
       <c r="G41" t="n">
-        <v>-71986.38913007321</v>
+        <v>-127203.2649300732</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>185.7</v>
+        <v>185.5</v>
       </c>
       <c r="C42" t="n">
-        <v>185.7</v>
+        <v>185.5</v>
       </c>
       <c r="D42" t="n">
-        <v>185.7</v>
+        <v>185.5</v>
       </c>
       <c r="E42" t="n">
-        <v>185.7</v>
+        <v>185.5</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>7409.1446</v>
       </c>
       <c r="G42" t="n">
-        <v>-71981.38913007321</v>
+        <v>-127203.2649300732</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>184.9</v>
+        <v>186.3</v>
       </c>
       <c r="C43" t="n">
-        <v>183.8</v>
+        <v>186.3</v>
       </c>
       <c r="D43" t="n">
-        <v>184.9</v>
+        <v>186.3</v>
       </c>
       <c r="E43" t="n">
-        <v>183.8</v>
+        <v>186.3</v>
       </c>
       <c r="F43" t="n">
-        <v>3475.332</v>
+        <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>-75456.7211300732</v>
+        <v>-127198.2649300732</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>184.9</v>
+        <v>186.3</v>
       </c>
       <c r="C44" t="n">
-        <v>184.9</v>
+        <v>186.3</v>
       </c>
       <c r="D44" t="n">
-        <v>184.9</v>
+        <v>186.3</v>
       </c>
       <c r="E44" t="n">
-        <v>184.9</v>
+        <v>186.3</v>
       </c>
       <c r="F44" t="n">
-        <v>159.2097</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>-75297.51143007319</v>
+        <v>-127198.2649300732</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>185.7</v>
+        <v>185.5</v>
       </c>
       <c r="C45" t="n">
-        <v>185.7</v>
+        <v>185.5</v>
       </c>
       <c r="D45" t="n">
-        <v>185.7</v>
+        <v>185.5</v>
       </c>
       <c r="E45" t="n">
-        <v>185.7</v>
+        <v>185.5</v>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>577.1642000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>-75292.51143007319</v>
+        <v>-127775.4291300732</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>184.9</v>
+        <v>186.4</v>
       </c>
       <c r="C46" t="n">
-        <v>185</v>
+        <v>186.4</v>
       </c>
       <c r="D46" t="n">
-        <v>185</v>
+        <v>186.4</v>
       </c>
       <c r="E46" t="n">
-        <v>184.8</v>
+        <v>186.4</v>
       </c>
       <c r="F46" t="n">
-        <v>459.0099</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>-75751.5213300732</v>
+        <v>-127770.4291300732</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>185</v>
+        <v>186.9</v>
       </c>
       <c r="C47" t="n">
-        <v>185</v>
+        <v>186.9</v>
       </c>
       <c r="D47" t="n">
-        <v>185</v>
+        <v>186.9</v>
       </c>
       <c r="E47" t="n">
-        <v>185</v>
+        <v>186.9</v>
       </c>
       <c r="F47" t="n">
-        <v>1500</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>-75751.5213300732</v>
+        <v>-127760.4291300732</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>184.2</v>
+        <v>187</v>
       </c>
       <c r="C48" t="n">
-        <v>184.2</v>
+        <v>188</v>
       </c>
       <c r="D48" t="n">
-        <v>184.2</v>
+        <v>188</v>
       </c>
       <c r="E48" t="n">
-        <v>184.2</v>
+        <v>187</v>
       </c>
       <c r="F48" t="n">
-        <v>35.3674</v>
+        <v>22451</v>
       </c>
       <c r="G48" t="n">
-        <v>-75786.8887300732</v>
+        <v>-105309.4291300732</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C49" t="n">
-        <v>184</v>
+        <v>188.7</v>
       </c>
       <c r="D49" t="n">
-        <v>184</v>
+        <v>188.7</v>
       </c>
       <c r="E49" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F49" t="n">
-        <v>500</v>
+        <v>2134</v>
       </c>
       <c r="G49" t="n">
-        <v>-76286.8887300732</v>
+        <v>-103175.4291300732</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C50" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D50" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E50" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F50" t="n">
-        <v>22.6333</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>-76264.2554300732</v>
+        <v>-103170.4291300732</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C51" t="n">
-        <v>184</v>
+        <v>189.1</v>
       </c>
       <c r="D51" t="n">
-        <v>184</v>
+        <v>189.1</v>
       </c>
       <c r="E51" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F51" t="n">
-        <v>4973.3815</v>
+        <v>6700</v>
       </c>
       <c r="G51" t="n">
-        <v>-81237.6369300732</v>
+        <v>-96470.42913007323</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>183.9</v>
+        <v>187.4</v>
       </c>
       <c r="C52" t="n">
-        <v>183.9</v>
+        <v>188.9</v>
       </c>
       <c r="D52" t="n">
-        <v>183.9</v>
+        <v>188.9</v>
       </c>
       <c r="E52" t="n">
-        <v>183.9</v>
+        <v>187.3</v>
       </c>
       <c r="F52" t="n">
-        <v>4962.2769</v>
+        <v>3828.2238</v>
       </c>
       <c r="G52" t="n">
-        <v>-86199.9138300732</v>
+        <v>-100298.6529300732</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,34 +2267,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>183.8</v>
+        <v>186.8</v>
       </c>
       <c r="C53" t="n">
-        <v>183.8</v>
+        <v>186.7</v>
       </c>
       <c r="D53" t="n">
-        <v>183.8</v>
+        <v>186.8</v>
       </c>
       <c r="E53" t="n">
-        <v>183.8</v>
+        <v>186.7</v>
       </c>
       <c r="F53" t="n">
-        <v>3331.4924</v>
+        <v>3268.8491</v>
       </c>
       <c r="G53" t="n">
-        <v>-89531.4062300732</v>
+        <v>-103567.5020300732</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2247,34 +2303,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>183.8</v>
+        <v>186.6</v>
       </c>
       <c r="C54" t="n">
-        <v>183.7</v>
+        <v>186.6</v>
       </c>
       <c r="D54" t="n">
-        <v>183.8</v>
+        <v>186.6</v>
       </c>
       <c r="E54" t="n">
-        <v>183.7</v>
+        <v>186.6</v>
       </c>
       <c r="F54" t="n">
-        <v>1489.4587</v>
+        <v>542.8247</v>
       </c>
       <c r="G54" t="n">
-        <v>-91020.86493007321</v>
+        <v>-104110.3267300732</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>183.7</v>
+        <v>186.7</v>
       </c>
       <c r="C55" t="n">
-        <v>183.7</v>
+        <v>186.7</v>
       </c>
       <c r="D55" t="n">
-        <v>183.7</v>
+        <v>186.7</v>
       </c>
       <c r="E55" t="n">
-        <v>183.7</v>
+        <v>186.7</v>
       </c>
       <c r="F55" t="n">
-        <v>2000</v>
+        <v>1829.454</v>
       </c>
       <c r="G55" t="n">
-        <v>-91020.86493007321</v>
+        <v>-102280.8727300732</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>184.8</v>
+        <v>185.6</v>
       </c>
       <c r="C56" t="n">
-        <v>184.8</v>
+        <v>185.6</v>
       </c>
       <c r="D56" t="n">
-        <v>184.8</v>
+        <v>185.6</v>
       </c>
       <c r="E56" t="n">
-        <v>184.8</v>
+        <v>185.6</v>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>8.473100000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>-91015.86493007321</v>
+        <v>-102289.3458300732</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>183.7</v>
+        <v>186.1</v>
       </c>
       <c r="C57" t="n">
-        <v>184.7</v>
+        <v>186.1</v>
       </c>
       <c r="D57" t="n">
-        <v>184.7</v>
+        <v>186.1</v>
       </c>
       <c r="E57" t="n">
-        <v>183.7</v>
+        <v>186.1</v>
       </c>
       <c r="F57" t="n">
-        <v>4005</v>
+        <v>1070</v>
       </c>
       <c r="G57" t="n">
-        <v>-95020.86493007321</v>
+        <v>-101219.3458300732</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>184.4</v>
+        <v>186.6</v>
       </c>
       <c r="C58" t="n">
-        <v>184.4</v>
+        <v>186.6</v>
       </c>
       <c r="D58" t="n">
-        <v>184.4</v>
+        <v>186.6</v>
       </c>
       <c r="E58" t="n">
-        <v>184.4</v>
+        <v>186.6</v>
       </c>
       <c r="F58" t="n">
-        <v>4522.2234</v>
+        <v>5</v>
       </c>
       <c r="G58" t="n">
-        <v>-99543.08833007321</v>
+        <v>-101214.3458300732</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>183.6</v>
+        <v>186.6</v>
       </c>
       <c r="C59" t="n">
-        <v>183.6</v>
+        <v>187.7</v>
       </c>
       <c r="D59" t="n">
-        <v>183.6</v>
+        <v>187.7</v>
       </c>
       <c r="E59" t="n">
-        <v>183.6</v>
+        <v>186.6</v>
       </c>
       <c r="F59" t="n">
-        <v>22.6333</v>
+        <v>6810</v>
       </c>
       <c r="G59" t="n">
-        <v>-99565.72163007321</v>
+        <v>-94404.34583007325</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>183.6</v>
+        <v>187.7</v>
       </c>
       <c r="C60" t="n">
-        <v>183.2</v>
+        <v>188.5</v>
       </c>
       <c r="D60" t="n">
-        <v>183.6</v>
+        <v>188.5</v>
       </c>
       <c r="E60" t="n">
-        <v>183.2</v>
+        <v>187.7</v>
       </c>
       <c r="F60" t="n">
-        <v>19916.8434</v>
+        <v>502.2132</v>
       </c>
       <c r="G60" t="n">
-        <v>-119482.5650300732</v>
+        <v>-93902.13263007325</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>183.2</v>
+        <v>188.5</v>
       </c>
       <c r="C61" t="n">
-        <v>183</v>
+        <v>188.5</v>
       </c>
       <c r="D61" t="n">
-        <v>183.2</v>
+        <v>188.5</v>
       </c>
       <c r="E61" t="n">
-        <v>183</v>
+        <v>188.5</v>
       </c>
       <c r="F61" t="n">
-        <v>5000</v>
+        <v>18.5914</v>
       </c>
       <c r="G61" t="n">
-        <v>-124482.5650300732</v>
+        <v>-93902.13263007325</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,34 +2591,35 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>184</v>
+        <v>187.2</v>
       </c>
       <c r="C62" t="n">
-        <v>184</v>
+        <v>186.9</v>
       </c>
       <c r="D62" t="n">
-        <v>184</v>
+        <v>187.2</v>
       </c>
       <c r="E62" t="n">
-        <v>184</v>
+        <v>186.9</v>
       </c>
       <c r="F62" t="n">
-        <v>400</v>
+        <v>9950</v>
       </c>
       <c r="G62" t="n">
-        <v>-124082.5650300732</v>
+        <v>-103852.1326300732</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2562,34 +2627,35 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>184</v>
+        <v>186.6</v>
       </c>
       <c r="C63" t="n">
-        <v>184</v>
+        <v>186.6</v>
       </c>
       <c r="D63" t="n">
-        <v>184</v>
+        <v>186.6</v>
       </c>
       <c r="E63" t="n">
-        <v>184</v>
+        <v>186.6</v>
       </c>
       <c r="F63" t="n">
-        <v>422.0088</v>
+        <v>2677.742</v>
       </c>
       <c r="G63" t="n">
-        <v>-124082.5650300732</v>
+        <v>-106529.8746300732</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>183.9</v>
+        <v>186.3</v>
       </c>
       <c r="C64" t="n">
-        <v>184</v>
+        <v>186.3</v>
       </c>
       <c r="D64" t="n">
-        <v>184</v>
+        <v>186.3</v>
       </c>
       <c r="E64" t="n">
-        <v>183.9</v>
+        <v>186.3</v>
       </c>
       <c r="F64" t="n">
-        <v>680.8866</v>
+        <v>254.377</v>
       </c>
       <c r="G64" t="n">
-        <v>-124082.5650300732</v>
+        <v>-106784.2516300732</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>184</v>
+        <v>186.8</v>
       </c>
       <c r="C65" t="n">
-        <v>184</v>
+        <v>186.8</v>
       </c>
       <c r="D65" t="n">
-        <v>184</v>
+        <v>186.8</v>
       </c>
       <c r="E65" t="n">
-        <v>184</v>
+        <v>186.8</v>
       </c>
       <c r="F65" t="n">
-        <v>7231.3484</v>
+        <v>2.66</v>
       </c>
       <c r="G65" t="n">
-        <v>-124082.5650300732</v>
+        <v>-106781.5916300732</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C66" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="D66" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E66" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="F66" t="n">
-        <v>10971.0306</v>
+        <v>17925.489</v>
       </c>
       <c r="G66" t="n">
-        <v>-124082.5650300732</v>
+        <v>-124707.0806300732</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C67" t="n">
-        <v>184.5</v>
+        <v>186</v>
       </c>
       <c r="D67" t="n">
-        <v>184.5</v>
+        <v>186</v>
       </c>
       <c r="E67" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F67" t="n">
-        <v>240.2003</v>
+        <v>2058.6175</v>
       </c>
       <c r="G67" t="n">
-        <v>-123842.3647300732</v>
+        <v>-122648.4631300732</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>184.5</v>
+        <v>186</v>
       </c>
       <c r="C68" t="n">
-        <v>184.6</v>
+        <v>186.8</v>
       </c>
       <c r="D68" t="n">
-        <v>184.6</v>
+        <v>186.8</v>
       </c>
       <c r="E68" t="n">
-        <v>184.5</v>
+        <v>186</v>
       </c>
       <c r="F68" t="n">
-        <v>669.2007</v>
+        <v>85</v>
       </c>
       <c r="G68" t="n">
-        <v>-123173.1640300732</v>
+        <v>-122563.4631300732</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>184</v>
+        <v>186.8</v>
       </c>
       <c r="C69" t="n">
-        <v>184</v>
+        <v>186.8</v>
       </c>
       <c r="D69" t="n">
-        <v>184</v>
+        <v>186.8</v>
       </c>
       <c r="E69" t="n">
-        <v>184</v>
+        <v>186.8</v>
       </c>
       <c r="F69" t="n">
-        <v>3272.5276</v>
+        <v>16</v>
       </c>
       <c r="G69" t="n">
-        <v>-126445.6916300732</v>
+        <v>-122563.4631300732</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>184</v>
+        <v>186.8</v>
       </c>
       <c r="C70" t="n">
-        <v>184</v>
+        <v>186.8</v>
       </c>
       <c r="D70" t="n">
-        <v>184</v>
+        <v>186.8</v>
       </c>
       <c r="E70" t="n">
-        <v>184</v>
+        <v>186.8</v>
       </c>
       <c r="F70" t="n">
-        <v>2945.2747</v>
+        <v>540.623</v>
       </c>
       <c r="G70" t="n">
-        <v>-126445.6916300732</v>
+        <v>-122563.4631300732</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>184</v>
+        <v>185.2</v>
       </c>
       <c r="C71" t="n">
-        <v>184.6</v>
+        <v>185.2</v>
       </c>
       <c r="D71" t="n">
-        <v>184.6</v>
+        <v>185.2</v>
       </c>
       <c r="E71" t="n">
-        <v>184</v>
+        <v>185.2</v>
       </c>
       <c r="F71" t="n">
-        <v>1101.3303</v>
+        <v>1073.892</v>
       </c>
       <c r="G71" t="n">
-        <v>-125344.3613300732</v>
+        <v>-123637.3551300733</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>184.6</v>
+        <v>187.2</v>
       </c>
       <c r="C72" t="n">
-        <v>184.6</v>
+        <v>187.2</v>
       </c>
       <c r="D72" t="n">
-        <v>184.6</v>
+        <v>187.2</v>
       </c>
       <c r="E72" t="n">
-        <v>184.6</v>
+        <v>187.2</v>
       </c>
       <c r="F72" t="n">
-        <v>1351.4054</v>
+        <v>2.66</v>
       </c>
       <c r="G72" t="n">
-        <v>-125344.3613300732</v>
+        <v>-123634.6951300732</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>184.3</v>
+        <v>186.5</v>
       </c>
       <c r="C73" t="n">
-        <v>184.3</v>
+        <v>186.5</v>
       </c>
       <c r="D73" t="n">
-        <v>184.3</v>
+        <v>186.5</v>
       </c>
       <c r="E73" t="n">
-        <v>184.3</v>
+        <v>186.5</v>
       </c>
       <c r="F73" t="n">
-        <v>95</v>
+        <v>1403</v>
       </c>
       <c r="G73" t="n">
-        <v>-125439.3613300732</v>
+        <v>-125037.6951300732</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>184.3</v>
+        <v>186.8</v>
       </c>
       <c r="C74" t="n">
-        <v>184.6</v>
+        <v>186.8</v>
       </c>
       <c r="D74" t="n">
-        <v>184.6</v>
+        <v>186.8</v>
       </c>
       <c r="E74" t="n">
-        <v>184.3</v>
+        <v>186.8</v>
       </c>
       <c r="F74" t="n">
-        <v>503.1509</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>-124936.2104300732</v>
+        <v>-125034.6951300732</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>184.6</v>
+        <v>185.5</v>
       </c>
       <c r="C75" t="n">
-        <v>184.6</v>
+        <v>185.5</v>
       </c>
       <c r="D75" t="n">
-        <v>184.6</v>
+        <v>185.5</v>
       </c>
       <c r="E75" t="n">
-        <v>184.6</v>
+        <v>185.5</v>
       </c>
       <c r="F75" t="n">
-        <v>558.1647</v>
+        <v>400</v>
       </c>
       <c r="G75" t="n">
-        <v>-124936.2104300732</v>
+        <v>-125434.6951300732</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>184.6</v>
+        <v>186.7</v>
       </c>
       <c r="C76" t="n">
-        <v>185.2</v>
+        <v>186.7</v>
       </c>
       <c r="D76" t="n">
-        <v>185.2</v>
+        <v>186.7</v>
       </c>
       <c r="E76" t="n">
-        <v>184.6</v>
+        <v>186.7</v>
       </c>
       <c r="F76" t="n">
-        <v>1913.2625</v>
+        <v>2.67</v>
       </c>
       <c r="G76" t="n">
-        <v>-123022.9479300732</v>
+        <v>-125432.0251300732</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>183.8</v>
+        <v>185.5</v>
       </c>
       <c r="C77" t="n">
-        <v>183.8</v>
+        <v>185.5</v>
       </c>
       <c r="D77" t="n">
-        <v>183.8</v>
+        <v>185.5</v>
       </c>
       <c r="E77" t="n">
-        <v>183.8</v>
+        <v>185.5</v>
       </c>
       <c r="F77" t="n">
-        <v>4295.997</v>
+        <v>5674.0429</v>
       </c>
       <c r="G77" t="n">
-        <v>-127318.9449300732</v>
+        <v>-131106.0680300732</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>183.8</v>
+        <v>185.5</v>
       </c>
       <c r="C78" t="n">
-        <v>185.1</v>
+        <v>185.5</v>
       </c>
       <c r="D78" t="n">
-        <v>185.1</v>
+        <v>185.5</v>
       </c>
       <c r="E78" t="n">
-        <v>183.8</v>
+        <v>185.5</v>
       </c>
       <c r="F78" t="n">
-        <v>113</v>
+        <v>1924</v>
       </c>
       <c r="G78" t="n">
-        <v>-127205.9449300732</v>
+        <v>-131106.0680300732</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>185.1</v>
+        <v>185.5</v>
       </c>
       <c r="C79" t="n">
-        <v>185.1</v>
+        <v>185.5</v>
       </c>
       <c r="D79" t="n">
-        <v>185.1</v>
+        <v>185.5</v>
       </c>
       <c r="E79" t="n">
-        <v>185.1</v>
+        <v>185.5</v>
       </c>
       <c r="F79" t="n">
-        <v>1946.6461</v>
+        <v>3151.2797</v>
       </c>
       <c r="G79" t="n">
-        <v>-127205.9449300732</v>
+        <v>-131106.0680300732</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>185.1</v>
+        <v>185.5</v>
       </c>
       <c r="C80" t="n">
-        <v>185.1</v>
+        <v>185.5</v>
       </c>
       <c r="D80" t="n">
-        <v>185.1</v>
+        <v>185.5</v>
       </c>
       <c r="E80" t="n">
-        <v>185.1</v>
+        <v>185.5</v>
       </c>
       <c r="F80" t="n">
-        <v>853.4417999999999</v>
+        <v>1109.3869</v>
       </c>
       <c r="G80" t="n">
-        <v>-127205.9449300732</v>
+        <v>-131106.0680300732</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>185.1</v>
+        <v>185</v>
       </c>
       <c r="C81" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="D81" t="n">
-        <v>185.1</v>
+        <v>185</v>
       </c>
       <c r="E81" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="F81" t="n">
-        <v>163.0049</v>
+        <v>1456.1464</v>
       </c>
       <c r="G81" t="n">
-        <v>-127205.9449300732</v>
+        <v>-132562.2144300732</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="C82" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="D82" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="E82" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="F82" t="n">
-        <v>1151.7145</v>
+        <v>19.5559</v>
       </c>
       <c r="G82" t="n">
-        <v>-127205.9449300732</v>
+        <v>-132562.2144300732</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>185.5</v>
+        <v>184.9</v>
       </c>
       <c r="C83" t="n">
-        <v>185.5</v>
+        <v>184.7</v>
       </c>
       <c r="D83" t="n">
-        <v>185.5</v>
+        <v>184.9</v>
       </c>
       <c r="E83" t="n">
-        <v>185.5</v>
+        <v>184.7</v>
       </c>
       <c r="F83" t="n">
-        <v>2.68</v>
+        <v>4766.9322</v>
       </c>
       <c r="G83" t="n">
-        <v>-127203.2649300732</v>
+        <v>-137329.1466300733</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>185.5</v>
+        <v>184.6</v>
       </c>
       <c r="C84" t="n">
-        <v>185.5</v>
+        <v>184.6</v>
       </c>
       <c r="D84" t="n">
-        <v>185.5</v>
+        <v>184.6</v>
       </c>
       <c r="E84" t="n">
-        <v>185.5</v>
+        <v>184.6</v>
       </c>
       <c r="F84" t="n">
-        <v>7409.1446</v>
+        <v>3242.1708</v>
       </c>
       <c r="G84" t="n">
-        <v>-127203.2649300732</v>
+        <v>-140571.3174300732</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,238 +3419,289 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>186.3</v>
+        <v>184.6</v>
       </c>
       <c r="C85" t="n">
-        <v>186.3</v>
+        <v>184.6</v>
       </c>
       <c r="D85" t="n">
-        <v>186.3</v>
+        <v>184.6</v>
       </c>
       <c r="E85" t="n">
-        <v>186.3</v>
+        <v>184.6</v>
       </c>
       <c r="F85" t="n">
-        <v>5</v>
+        <v>1192.4292</v>
       </c>
       <c r="G85" t="n">
-        <v>-127198.2649300732</v>
+        <v>-140571.3174300732</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="K85" t="n">
+        <v>184.6</v>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>186.3</v>
+        <v>184.8</v>
       </c>
       <c r="C86" t="n">
-        <v>186.3</v>
+        <v>184.8</v>
       </c>
       <c r="D86" t="n">
-        <v>186.3</v>
+        <v>184.8</v>
       </c>
       <c r="E86" t="n">
-        <v>186.3</v>
+        <v>184.8</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>1651.7858</v>
       </c>
       <c r="G86" t="n">
-        <v>-127198.2649300732</v>
+        <v>-138919.5316300732</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="K86" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>185.5</v>
+        <v>184.8</v>
       </c>
       <c r="C87" t="n">
-        <v>185.5</v>
+        <v>184.5</v>
       </c>
       <c r="D87" t="n">
-        <v>185.5</v>
+        <v>184.8</v>
       </c>
       <c r="E87" t="n">
-        <v>185.5</v>
+        <v>184.5</v>
       </c>
       <c r="F87" t="n">
-        <v>577.1642000000001</v>
+        <v>17806.572</v>
       </c>
       <c r="G87" t="n">
-        <v>-127775.4291300732</v>
+        <v>-156726.1036300733</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="K87" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>186.4</v>
+        <v>184.5</v>
       </c>
       <c r="C88" t="n">
-        <v>186.4</v>
+        <v>184.5</v>
       </c>
       <c r="D88" t="n">
-        <v>186.4</v>
+        <v>184.5</v>
       </c>
       <c r="E88" t="n">
-        <v>186.4</v>
+        <v>184.5</v>
       </c>
       <c r="F88" t="n">
-        <v>5</v>
+        <v>13207.0767</v>
       </c>
       <c r="G88" t="n">
-        <v>-127770.4291300732</v>
+        <v>-156726.1036300733</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>186.9</v>
+        <v>184.8</v>
       </c>
       <c r="C89" t="n">
-        <v>186.9</v>
+        <v>184.9</v>
       </c>
       <c r="D89" t="n">
-        <v>186.9</v>
+        <v>184.9</v>
       </c>
       <c r="E89" t="n">
-        <v>186.9</v>
+        <v>184.8</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>2530.7148</v>
       </c>
       <c r="G89" t="n">
-        <v>-127760.4291300732</v>
+        <v>-154195.3888300733</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>187</v>
+        <v>184.9</v>
       </c>
       <c r="C90" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D90" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E90" t="n">
-        <v>187</v>
+        <v>184.9</v>
       </c>
       <c r="F90" t="n">
-        <v>22451</v>
+        <v>5441.9999</v>
       </c>
       <c r="G90" t="n">
-        <v>-105309.4291300732</v>
+        <v>-148753.3889300733</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K90" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C91" t="n">
-        <v>188.7</v>
+        <v>185</v>
       </c>
       <c r="D91" t="n">
-        <v>188.7</v>
+        <v>185</v>
       </c>
       <c r="E91" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F91" t="n">
-        <v>2134</v>
+        <v>716.7177</v>
       </c>
       <c r="G91" t="n">
-        <v>-103175.4291300732</v>
+        <v>-148753.3889300733</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,33 +3710,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C92" t="n">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D92" t="n">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E92" t="n">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F92" t="n">
-        <v>5</v>
+        <v>244.7343</v>
       </c>
       <c r="G92" t="n">
-        <v>-103170.4291300732</v>
+        <v>-148753.3889300733</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,33 +3752,40 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>189</v>
+        <v>184.5</v>
       </c>
       <c r="C93" t="n">
-        <v>189.1</v>
+        <v>183.7</v>
       </c>
       <c r="D93" t="n">
-        <v>189.1</v>
+        <v>184.5</v>
       </c>
       <c r="E93" t="n">
-        <v>189</v>
+        <v>183.7</v>
       </c>
       <c r="F93" t="n">
-        <v>6700</v>
+        <v>2626.1795</v>
       </c>
       <c r="G93" t="n">
-        <v>-96470.42913007323</v>
+        <v>-151379.5684300733</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,33 +3794,40 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>187.4</v>
+        <v>183.7</v>
       </c>
       <c r="C94" t="n">
-        <v>188.9</v>
+        <v>185</v>
       </c>
       <c r="D94" t="n">
-        <v>188.9</v>
+        <v>185</v>
       </c>
       <c r="E94" t="n">
-        <v>187.3</v>
+        <v>183.7</v>
       </c>
       <c r="F94" t="n">
-        <v>3828.2238</v>
+        <v>12.7</v>
       </c>
       <c r="G94" t="n">
-        <v>-100298.6529300732</v>
+        <v>-151366.8684300733</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,33 +3836,40 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>186.8</v>
+        <v>185</v>
       </c>
       <c r="C95" t="n">
-        <v>186.7</v>
+        <v>185</v>
       </c>
       <c r="D95" t="n">
-        <v>186.8</v>
+        <v>185</v>
       </c>
       <c r="E95" t="n">
-        <v>186.7</v>
+        <v>185</v>
       </c>
       <c r="F95" t="n">
-        <v>3268.8491</v>
+        <v>35.848</v>
       </c>
       <c r="G95" t="n">
-        <v>-103567.5020300732</v>
+        <v>-151366.8684300733</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,33 +3878,40 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>186.6</v>
+        <v>183.9</v>
       </c>
       <c r="C96" t="n">
-        <v>186.6</v>
+        <v>183.9</v>
       </c>
       <c r="D96" t="n">
-        <v>186.6</v>
+        <v>183.9</v>
       </c>
       <c r="E96" t="n">
-        <v>186.6</v>
+        <v>183.9</v>
       </c>
       <c r="F96" t="n">
-        <v>542.8247</v>
+        <v>3918.6947</v>
       </c>
       <c r="G96" t="n">
-        <v>-104110.3267300732</v>
+        <v>-155285.5631300732</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,33 +3920,40 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>186.7</v>
+        <v>185.3</v>
       </c>
       <c r="C97" t="n">
         <v>186.7</v>
       </c>
       <c r="D97" t="n">
-        <v>186.7</v>
+        <v>187.8</v>
       </c>
       <c r="E97" t="n">
-        <v>186.7</v>
+        <v>183.9</v>
       </c>
       <c r="F97" t="n">
-        <v>1829.454</v>
+        <v>15947.7257</v>
       </c>
       <c r="G97" t="n">
-        <v>-102280.8727300732</v>
+        <v>-139337.8374300732</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,33 +3962,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>185.6</v>
+        <v>185.4</v>
       </c>
       <c r="C98" t="n">
-        <v>185.6</v>
+        <v>184.7</v>
       </c>
       <c r="D98" t="n">
-        <v>185.6</v>
+        <v>185.4</v>
       </c>
       <c r="E98" t="n">
-        <v>185.6</v>
+        <v>184.1</v>
       </c>
       <c r="F98" t="n">
-        <v>8.473100000000001</v>
+        <v>20303.6461</v>
       </c>
       <c r="G98" t="n">
-        <v>-102289.3458300732</v>
+        <v>-159641.4835300733</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,33 +4004,40 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>186.1</v>
+        <v>184</v>
       </c>
       <c r="C99" t="n">
-        <v>186.1</v>
+        <v>185.4</v>
       </c>
       <c r="D99" t="n">
-        <v>186.1</v>
+        <v>185.4</v>
       </c>
       <c r="E99" t="n">
-        <v>186.1</v>
+        <v>184</v>
       </c>
       <c r="F99" t="n">
-        <v>1070</v>
+        <v>4586.3041</v>
       </c>
       <c r="G99" t="n">
-        <v>-101219.3458300732</v>
+        <v>-155055.1794300732</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,33 +4046,40 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>186.6</v>
+        <v>185.4</v>
       </c>
       <c r="C100" t="n">
-        <v>186.6</v>
+        <v>184.6</v>
       </c>
       <c r="D100" t="n">
-        <v>186.6</v>
+        <v>185.4</v>
       </c>
       <c r="E100" t="n">
-        <v>186.6</v>
+        <v>184.6</v>
       </c>
       <c r="F100" t="n">
-        <v>5</v>
+        <v>23368.0914</v>
       </c>
       <c r="G100" t="n">
-        <v>-101214.3458300732</v>
+        <v>-178423.2708300732</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,33 +4088,40 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>186.6</v>
+        <v>185.4</v>
       </c>
       <c r="C101" t="n">
-        <v>187.7</v>
+        <v>185.4</v>
       </c>
       <c r="D101" t="n">
-        <v>187.7</v>
+        <v>185.4</v>
       </c>
       <c r="E101" t="n">
-        <v>186.6</v>
+        <v>185.4</v>
       </c>
       <c r="F101" t="n">
-        <v>6810</v>
+        <v>0.6524</v>
       </c>
       <c r="G101" t="n">
-        <v>-94404.34583007325</v>
+        <v>-178422.6184300733</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,33 +4130,40 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>187.7</v>
+        <v>185.4</v>
       </c>
       <c r="C102" t="n">
-        <v>188.5</v>
+        <v>187.5</v>
       </c>
       <c r="D102" t="n">
-        <v>188.5</v>
+        <v>187.5</v>
       </c>
       <c r="E102" t="n">
-        <v>187.7</v>
+        <v>185.4</v>
       </c>
       <c r="F102" t="n">
-        <v>502.2132</v>
+        <v>6013.5069</v>
       </c>
       <c r="G102" t="n">
-        <v>-93902.13263007325</v>
+        <v>-172409.1115300732</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,33 +4172,40 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>188.5</v>
+        <v>187</v>
       </c>
       <c r="C103" t="n">
-        <v>188.5</v>
+        <v>187.2</v>
       </c>
       <c r="D103" t="n">
-        <v>188.5</v>
+        <v>187.2</v>
       </c>
       <c r="E103" t="n">
-        <v>188.5</v>
+        <v>187</v>
       </c>
       <c r="F103" t="n">
-        <v>18.5914</v>
+        <v>3767</v>
       </c>
       <c r="G103" t="n">
-        <v>-93902.13263007325</v>
+        <v>-176176.1115300732</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,33 +4214,40 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>187.2</v>
+        <v>185.4</v>
       </c>
       <c r="C104" t="n">
-        <v>186.9</v>
+        <v>184.5</v>
       </c>
       <c r="D104" t="n">
-        <v>187.2</v>
+        <v>185.4</v>
       </c>
       <c r="E104" t="n">
-        <v>186.9</v>
+        <v>184.5</v>
       </c>
       <c r="F104" t="n">
-        <v>9950</v>
+        <v>9610.265100000001</v>
       </c>
       <c r="G104" t="n">
-        <v>-103852.1326300732</v>
+        <v>-185786.3766300732</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,33 +4256,40 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>186.6</v>
+        <v>185.2</v>
       </c>
       <c r="C105" t="n">
-        <v>186.6</v>
+        <v>185.9</v>
       </c>
       <c r="D105" t="n">
-        <v>186.6</v>
+        <v>185.9</v>
       </c>
       <c r="E105" t="n">
-        <v>186.6</v>
+        <v>184.9</v>
       </c>
       <c r="F105" t="n">
-        <v>2677.742</v>
+        <v>6541.4303</v>
       </c>
       <c r="G105" t="n">
-        <v>-106529.8746300732</v>
+        <v>-179244.9463300732</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,33 +4298,40 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>186.3</v>
+        <v>184</v>
       </c>
       <c r="C106" t="n">
-        <v>186.3</v>
+        <v>185</v>
       </c>
       <c r="D106" t="n">
-        <v>186.3</v>
+        <v>185</v>
       </c>
       <c r="E106" t="n">
-        <v>186.3</v>
+        <v>183.9</v>
       </c>
       <c r="F106" t="n">
-        <v>254.377</v>
+        <v>3458.3516</v>
       </c>
       <c r="G106" t="n">
-        <v>-106784.2516300732</v>
+        <v>-182703.2979300732</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,33 +4340,40 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>186.8</v>
+        <v>184.8</v>
       </c>
       <c r="C107" t="n">
-        <v>186.8</v>
+        <v>184.8</v>
       </c>
       <c r="D107" t="n">
-        <v>186.8</v>
+        <v>184.8</v>
       </c>
       <c r="E107" t="n">
-        <v>186.8</v>
+        <v>184.8</v>
       </c>
       <c r="F107" t="n">
-        <v>2.66</v>
+        <v>268.182</v>
       </c>
       <c r="G107" t="n">
-        <v>-106781.5916300732</v>
+        <v>-182971.4799300732</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,33 +4382,40 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>186</v>
+        <v>183.9</v>
       </c>
       <c r="C108" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="D108" t="n">
-        <v>186</v>
+        <v>183.9</v>
       </c>
       <c r="E108" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="F108" t="n">
-        <v>17925.489</v>
+        <v>3204.1758</v>
       </c>
       <c r="G108" t="n">
-        <v>-124707.0806300732</v>
+        <v>-186175.6557300732</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,33 +4424,40 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>186</v>
+        <v>183.8</v>
       </c>
       <c r="C109" t="n">
-        <v>186</v>
+        <v>183.6</v>
       </c>
       <c r="D109" t="n">
-        <v>186</v>
+        <v>183.8</v>
       </c>
       <c r="E109" t="n">
-        <v>186</v>
+        <v>183.6</v>
       </c>
       <c r="F109" t="n">
-        <v>2058.6175</v>
+        <v>9341.3815</v>
       </c>
       <c r="G109" t="n">
-        <v>-122648.4631300732</v>
+        <v>-195517.0372300732</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,33 +4466,40 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C110" t="n">
-        <v>186.8</v>
+        <v>183.9</v>
       </c>
       <c r="D110" t="n">
-        <v>186.8</v>
+        <v>184</v>
       </c>
       <c r="E110" t="n">
-        <v>186</v>
+        <v>183.9</v>
       </c>
       <c r="F110" t="n">
-        <v>85</v>
+        <v>21599.248</v>
       </c>
       <c r="G110" t="n">
-        <v>-122563.4631300732</v>
+        <v>-173917.7892300732</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,33 +4508,40 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>186.8</v>
+        <v>184.7</v>
       </c>
       <c r="C111" t="n">
-        <v>186.8</v>
+        <v>184.7</v>
       </c>
       <c r="D111" t="n">
-        <v>186.8</v>
+        <v>184.7</v>
       </c>
       <c r="E111" t="n">
-        <v>186.8</v>
+        <v>184.7</v>
       </c>
       <c r="F111" t="n">
-        <v>16</v>
+        <v>5893.9669</v>
       </c>
       <c r="G111" t="n">
-        <v>-122563.4631300732</v>
+        <v>-168023.8223300732</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,33 +4550,40 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>186.8</v>
+        <v>184.7</v>
       </c>
       <c r="C112" t="n">
-        <v>186.8</v>
+        <v>184.7</v>
       </c>
       <c r="D112" t="n">
-        <v>186.8</v>
+        <v>184.7</v>
       </c>
       <c r="E112" t="n">
-        <v>186.8</v>
+        <v>184.7</v>
       </c>
       <c r="F112" t="n">
-        <v>540.623</v>
+        <v>4584.6202</v>
       </c>
       <c r="G112" t="n">
-        <v>-122563.4631300732</v>
+        <v>-168023.8223300732</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4307,33 +4592,40 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>185.2</v>
+        <v>183.4</v>
       </c>
       <c r="C113" t="n">
-        <v>185.2</v>
+        <v>183.2</v>
       </c>
       <c r="D113" t="n">
-        <v>185.2</v>
+        <v>183.4</v>
       </c>
       <c r="E113" t="n">
-        <v>185.2</v>
+        <v>183.2</v>
       </c>
       <c r="F113" t="n">
-        <v>1073.892</v>
+        <v>5218.2743</v>
       </c>
       <c r="G113" t="n">
-        <v>-123637.3551300733</v>
+        <v>-173242.0966300732</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4342,33 +4634,40 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>187.2</v>
+        <v>183.2</v>
       </c>
       <c r="C114" t="n">
-        <v>187.2</v>
+        <v>184.6</v>
       </c>
       <c r="D114" t="n">
-        <v>187.2</v>
+        <v>184.6</v>
       </c>
       <c r="E114" t="n">
-        <v>187.2</v>
+        <v>183.2</v>
       </c>
       <c r="F114" t="n">
-        <v>2.66</v>
+        <v>4502.2251</v>
       </c>
       <c r="G114" t="n">
-        <v>-123634.6951300732</v>
+        <v>-168739.8715300732</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4377,33 +4676,40 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>186.5</v>
+        <v>184.7</v>
       </c>
       <c r="C115" t="n">
-        <v>186.5</v>
+        <v>184.8</v>
       </c>
       <c r="D115" t="n">
-        <v>186.5</v>
+        <v>184.8</v>
       </c>
       <c r="E115" t="n">
-        <v>186.5</v>
+        <v>184.7</v>
       </c>
       <c r="F115" t="n">
-        <v>1403</v>
+        <v>4003</v>
       </c>
       <c r="G115" t="n">
-        <v>-125037.6951300732</v>
+        <v>-164736.8715300732</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4412,33 +4718,40 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>186.8</v>
+        <v>183.9</v>
       </c>
       <c r="C116" t="n">
-        <v>186.8</v>
+        <v>183.9</v>
       </c>
       <c r="D116" t="n">
-        <v>186.8</v>
+        <v>183.9</v>
       </c>
       <c r="E116" t="n">
-        <v>186.8</v>
+        <v>183.9</v>
       </c>
       <c r="F116" t="n">
-        <v>3</v>
+        <v>17.3738</v>
       </c>
       <c r="G116" t="n">
-        <v>-125034.6951300732</v>
+        <v>-164754.2453300732</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4447,33 +4760,40 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>185.5</v>
+        <v>183.9</v>
       </c>
       <c r="C117" t="n">
-        <v>185.5</v>
+        <v>183.9</v>
       </c>
       <c r="D117" t="n">
-        <v>185.5</v>
+        <v>183.9</v>
       </c>
       <c r="E117" t="n">
-        <v>185.5</v>
+        <v>183.9</v>
       </c>
       <c r="F117" t="n">
-        <v>400</v>
+        <v>298.6262</v>
       </c>
       <c r="G117" t="n">
-        <v>-125434.6951300732</v>
+        <v>-164754.2453300732</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4482,1641 +4802,18 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="C118" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="D118" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="E118" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="F118" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-125432.0251300732</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C119" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D119" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E119" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F119" t="n">
-        <v>5674.0429</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-131106.0680300732</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C120" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D120" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E120" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1924</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-131106.0680300732</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C121" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D121" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E121" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F121" t="n">
-        <v>3151.2797</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-131106.0680300732</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C122" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D122" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E122" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1109.3869</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-131106.0680300732</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>185</v>
-      </c>
-      <c r="C123" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="D123" t="n">
-        <v>185</v>
-      </c>
-      <c r="E123" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1456.1464</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-132562.2144300732</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="C124" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="D124" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="E124" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="F124" t="n">
-        <v>19.5559</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-132562.2144300732</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="K117" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="C125" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="D125" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="E125" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="F125" t="n">
-        <v>4766.9322</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-137329.1466300733</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="C126" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="D126" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="E126" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="F126" t="n">
-        <v>3242.1708</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-140571.3174300732</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="C127" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="D127" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="E127" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1192.4292</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-140571.3174300732</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="C128" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="D128" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="E128" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1651.7858</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-138919.5316300732</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="C129" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="D129" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="E129" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="F129" t="n">
-        <v>17806.572</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-156726.1036300733</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="C130" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="D130" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="E130" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="F130" t="n">
-        <v>13207.0767</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-156726.1036300733</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="C131" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="D131" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="E131" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="F131" t="n">
-        <v>2530.7148</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-154195.3888300733</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="C132" t="n">
-        <v>185</v>
-      </c>
-      <c r="D132" t="n">
-        <v>185</v>
-      </c>
-      <c r="E132" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="F132" t="n">
-        <v>5441.9999</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-148753.3889300733</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>185</v>
-      </c>
-      <c r="C133" t="n">
-        <v>185</v>
-      </c>
-      <c r="D133" t="n">
-        <v>185</v>
-      </c>
-      <c r="E133" t="n">
-        <v>185</v>
-      </c>
-      <c r="F133" t="n">
-        <v>716.7177</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-148753.3889300733</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>185</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>185</v>
-      </c>
-      <c r="C134" t="n">
-        <v>185</v>
-      </c>
-      <c r="D134" t="n">
-        <v>185</v>
-      </c>
-      <c r="E134" t="n">
-        <v>185</v>
-      </c>
-      <c r="F134" t="n">
-        <v>244.7343</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-148753.3889300733</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>185</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="C135" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="D135" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="E135" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2626.1795</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-151379.5684300733</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="C136" t="n">
-        <v>185</v>
-      </c>
-      <c r="D136" t="n">
-        <v>185</v>
-      </c>
-      <c r="E136" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="F136" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-151366.8684300733</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>185</v>
-      </c>
-      <c r="C137" t="n">
-        <v>185</v>
-      </c>
-      <c r="D137" t="n">
-        <v>185</v>
-      </c>
-      <c r="E137" t="n">
-        <v>185</v>
-      </c>
-      <c r="F137" t="n">
-        <v>35.848</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-151366.8684300733</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="C138" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="D138" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="E138" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="F138" t="n">
-        <v>3918.6947</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-155285.5631300732</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="C139" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="D139" t="n">
-        <v>187.8</v>
-      </c>
-      <c r="E139" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="F139" t="n">
-        <v>15947.7257</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-139337.8374300732</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="C140" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="D140" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="E140" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>20303.6461</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-159641.4835300733</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>184</v>
-      </c>
-      <c r="C141" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="D141" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="E141" t="n">
-        <v>184</v>
-      </c>
-      <c r="F141" t="n">
-        <v>4586.3041</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-155055.1794300732</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="C142" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="D142" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="E142" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="F142" t="n">
-        <v>23368.0914</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-178423.2708300732</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="C143" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="D143" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="E143" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.6524</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-178422.6184300733</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="C144" t="n">
-        <v>187.5</v>
-      </c>
-      <c r="D144" t="n">
-        <v>187.5</v>
-      </c>
-      <c r="E144" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="F144" t="n">
-        <v>6013.5069</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-172409.1115300732</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>187</v>
-      </c>
-      <c r="C145" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="D145" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="E145" t="n">
-        <v>187</v>
-      </c>
-      <c r="F145" t="n">
-        <v>3767</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-176176.1115300732</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="C146" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="D146" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="E146" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="F146" t="n">
-        <v>9610.265100000001</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-185786.3766300732</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="C147" t="n">
-        <v>185.9</v>
-      </c>
-      <c r="D147" t="n">
-        <v>185.9</v>
-      </c>
-      <c r="E147" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="F147" t="n">
-        <v>6541.4303</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-179244.9463300732</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>184</v>
-      </c>
-      <c r="C148" t="n">
-        <v>185</v>
-      </c>
-      <c r="D148" t="n">
-        <v>185</v>
-      </c>
-      <c r="E148" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="F148" t="n">
-        <v>3458.3516</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-182703.2979300732</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="C149" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="D149" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="E149" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="F149" t="n">
-        <v>268.182</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-182971.4799300732</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="C150" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="D150" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="E150" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="F150" t="n">
-        <v>3204.1758</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-186175.6557300732</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="C151" t="n">
-        <v>183.6</v>
-      </c>
-      <c r="D151" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="E151" t="n">
-        <v>183.6</v>
-      </c>
-      <c r="F151" t="n">
-        <v>9341.3815</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-195517.0372300732</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>184</v>
-      </c>
-      <c r="C152" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="D152" t="n">
-        <v>184</v>
-      </c>
-      <c r="E152" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="F152" t="n">
-        <v>21599.248</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-173917.7892300732</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="C153" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="D153" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="E153" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="F153" t="n">
-        <v>5893.9669</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-168023.8223300732</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="C154" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="D154" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="E154" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="F154" t="n">
-        <v>4584.6202</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-168023.8223300732</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="C155" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="E155" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="F155" t="n">
-        <v>5218.2743</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-173242.0966300732</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="C156" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="D156" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="E156" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="F156" t="n">
-        <v>4502.2251</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-168739.8715300732</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="C157" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="D157" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="E157" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="F157" t="n">
-        <v>4003</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-164736.8715300732</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="C158" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="D158" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="E158" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="F158" t="n">
-        <v>17.3738</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-164754.2453300732</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="C159" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="D159" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="E159" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="F159" t="n">
-        <v>298.6262</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-164754.2453300732</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest INS.xlsx
+++ b/BackTest/2020-01-23 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>184.9</v>
+        <v>186.7</v>
       </c>
       <c r="C2" t="n">
-        <v>184.9</v>
+        <v>186.7</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9</v>
+        <v>186.7</v>
       </c>
       <c r="E2" t="n">
-        <v>184.9</v>
+        <v>186.7</v>
       </c>
       <c r="F2" t="n">
-        <v>159.2097</v>
+        <v>7101.1249</v>
       </c>
       <c r="G2" t="n">
-        <v>-75297.51143007319</v>
+        <v>-12268.464281705</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -486,16 +486,16 @@
         <v>185.7</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>268.8654</v>
       </c>
       <c r="G3" t="n">
-        <v>-75292.51143007319</v>
+        <v>-12537.329681705</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>184.9</v>
+        <v>185.5</v>
       </c>
       <c r="C4" t="n">
-        <v>185</v>
+        <v>185.5</v>
       </c>
       <c r="D4" t="n">
-        <v>185</v>
+        <v>185.5</v>
       </c>
       <c r="E4" t="n">
-        <v>184.8</v>
+        <v>185.5</v>
       </c>
       <c r="F4" t="n">
-        <v>459.0099</v>
+        <v>270.3055</v>
       </c>
       <c r="G4" t="n">
-        <v>-75751.5213300732</v>
+        <v>-12807.635181705</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>185</v>
+        <v>185.4</v>
       </c>
       <c r="C5" t="n">
-        <v>185</v>
+        <v>185.1</v>
       </c>
       <c r="D5" t="n">
-        <v>185</v>
+        <v>185.4</v>
       </c>
       <c r="E5" t="n">
-        <v>185</v>
+        <v>185.1</v>
       </c>
       <c r="F5" t="n">
-        <v>1500</v>
+        <v>7377.2326</v>
       </c>
       <c r="G5" t="n">
-        <v>-75751.5213300732</v>
+        <v>-20184.867781705</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>184.2</v>
+        <v>186.3</v>
       </c>
       <c r="C6" t="n">
-        <v>184.2</v>
+        <v>186.3</v>
       </c>
       <c r="D6" t="n">
-        <v>184.2</v>
+        <v>186.3</v>
       </c>
       <c r="E6" t="n">
-        <v>184.2</v>
+        <v>186.3</v>
       </c>
       <c r="F6" t="n">
-        <v>35.3674</v>
+        <v>198.5648</v>
       </c>
       <c r="G6" t="n">
-        <v>-75786.8887300732</v>
+        <v>-19986.302981705</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>184</v>
+        <v>186.8</v>
       </c>
       <c r="C7" t="n">
-        <v>184</v>
+        <v>186.8</v>
       </c>
       <c r="D7" t="n">
-        <v>184</v>
+        <v>186.8</v>
       </c>
       <c r="E7" t="n">
-        <v>184</v>
+        <v>186.8</v>
       </c>
       <c r="F7" t="n">
-        <v>500</v>
+        <v>165.2258</v>
       </c>
       <c r="G7" t="n">
-        <v>-76286.8887300732</v>
+        <v>-19821.077181705</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>185</v>
+        <v>186.6</v>
       </c>
       <c r="C8" t="n">
-        <v>185</v>
+        <v>186.6</v>
       </c>
       <c r="D8" t="n">
-        <v>185</v>
+        <v>186.6</v>
       </c>
       <c r="E8" t="n">
-        <v>185</v>
+        <v>186.6</v>
       </c>
       <c r="F8" t="n">
-        <v>22.6333</v>
+        <v>172.1596</v>
       </c>
       <c r="G8" t="n">
-        <v>-76264.2554300732</v>
+        <v>-19993.236781705</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>184</v>
+        <v>185.1</v>
       </c>
       <c r="C9" t="n">
-        <v>184</v>
+        <v>184.5</v>
       </c>
       <c r="D9" t="n">
-        <v>184</v>
+        <v>185.1</v>
       </c>
       <c r="E9" t="n">
-        <v>184</v>
+        <v>184.5</v>
       </c>
       <c r="F9" t="n">
-        <v>4973.3815</v>
+        <v>7796.8566</v>
       </c>
       <c r="G9" t="n">
-        <v>-81237.6369300732</v>
+        <v>-27790.093381705</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>183.9</v>
+        <v>185.7</v>
       </c>
       <c r="C10" t="n">
-        <v>183.9</v>
+        <v>186.9</v>
       </c>
       <c r="D10" t="n">
-        <v>183.9</v>
+        <v>186.9</v>
       </c>
       <c r="E10" t="n">
-        <v>183.9</v>
+        <v>185.7</v>
       </c>
       <c r="F10" t="n">
-        <v>4962.2769</v>
+        <v>2705.9015516318</v>
       </c>
       <c r="G10" t="n">
-        <v>-86199.9138300732</v>
+        <v>-25084.1918300732</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>183.8</v>
+        <v>184.6</v>
       </c>
       <c r="C11" t="n">
-        <v>183.8</v>
+        <v>184.6</v>
       </c>
       <c r="D11" t="n">
-        <v>183.8</v>
+        <v>184.6</v>
       </c>
       <c r="E11" t="n">
-        <v>183.8</v>
+        <v>184.6</v>
       </c>
       <c r="F11" t="n">
-        <v>3331.4924</v>
+        <v>8027.2164</v>
       </c>
       <c r="G11" t="n">
-        <v>-89531.4062300732</v>
+        <v>-33111.4082300732</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>183.8</v>
+        <v>184.6</v>
       </c>
       <c r="C12" t="n">
-        <v>183.7</v>
+        <v>184.6</v>
       </c>
       <c r="D12" t="n">
-        <v>183.8</v>
+        <v>184.6</v>
       </c>
       <c r="E12" t="n">
-        <v>183.7</v>
+        <v>184.6</v>
       </c>
       <c r="F12" t="n">
-        <v>1489.4587</v>
+        <v>10807.2182</v>
       </c>
       <c r="G12" t="n">
-        <v>-91020.86493007321</v>
+        <v>-33111.4082300732</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>183.7</v>
+        <v>184.6</v>
       </c>
       <c r="C13" t="n">
-        <v>183.7</v>
+        <v>184.6</v>
       </c>
       <c r="D13" t="n">
-        <v>183.7</v>
+        <v>184.6</v>
       </c>
       <c r="E13" t="n">
-        <v>183.7</v>
+        <v>184.6</v>
       </c>
       <c r="F13" t="n">
-        <v>2000</v>
+        <v>5857.3896</v>
       </c>
       <c r="G13" t="n">
-        <v>-91020.86493007321</v>
+        <v>-33111.4082300732</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>184.8</v>
+        <v>184.6</v>
       </c>
       <c r="C14" t="n">
-        <v>184.8</v>
+        <v>184.6</v>
       </c>
       <c r="D14" t="n">
-        <v>184.8</v>
+        <v>184.6</v>
       </c>
       <c r="E14" t="n">
-        <v>184.8</v>
+        <v>184.6</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>53.55</v>
       </c>
       <c r="G14" t="n">
-        <v>-91015.86493007321</v>
+        <v>-33111.4082300732</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>183.7</v>
+        <v>184.6</v>
       </c>
       <c r="C15" t="n">
-        <v>184.7</v>
+        <v>184.6</v>
       </c>
       <c r="D15" t="n">
-        <v>184.7</v>
+        <v>184.6</v>
       </c>
       <c r="E15" t="n">
-        <v>183.7</v>
+        <v>184.6</v>
       </c>
       <c r="F15" t="n">
-        <v>4005</v>
+        <v>1274</v>
       </c>
       <c r="G15" t="n">
-        <v>-95020.86493007321</v>
+        <v>-33111.4082300732</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>184.4</v>
+        <v>184.6</v>
       </c>
       <c r="C16" t="n">
-        <v>184.4</v>
+        <v>184.6</v>
       </c>
       <c r="D16" t="n">
-        <v>184.4</v>
+        <v>184.6</v>
       </c>
       <c r="E16" t="n">
-        <v>184.4</v>
+        <v>184.6</v>
       </c>
       <c r="F16" t="n">
-        <v>4522.2234</v>
+        <v>81.88</v>
       </c>
       <c r="G16" t="n">
-        <v>-99543.08833007321</v>
+        <v>-33111.4082300732</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>183.6</v>
+        <v>184.6</v>
       </c>
       <c r="C17" t="n">
-        <v>183.6</v>
+        <v>184.7</v>
       </c>
       <c r="D17" t="n">
-        <v>183.6</v>
+        <v>184.7</v>
       </c>
       <c r="E17" t="n">
-        <v>183.6</v>
+        <v>184.6</v>
       </c>
       <c r="F17" t="n">
-        <v>22.6333</v>
+        <v>2236.42</v>
       </c>
       <c r="G17" t="n">
-        <v>-99565.72163007321</v>
+        <v>-30874.98823007321</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>183.6</v>
+        <v>184.6</v>
       </c>
       <c r="C18" t="n">
-        <v>183.2</v>
+        <v>184.8</v>
       </c>
       <c r="D18" t="n">
-        <v>183.6</v>
+        <v>184.8</v>
       </c>
       <c r="E18" t="n">
-        <v>183.2</v>
+        <v>184.6</v>
       </c>
       <c r="F18" t="n">
-        <v>19916.8434</v>
+        <v>12661.2264</v>
       </c>
       <c r="G18" t="n">
-        <v>-119482.5650300732</v>
+        <v>-18213.76183007321</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>183.2</v>
+        <v>184.8</v>
       </c>
       <c r="C19" t="n">
-        <v>183</v>
+        <v>184.7</v>
       </c>
       <c r="D19" t="n">
-        <v>183.2</v>
+        <v>184.8</v>
       </c>
       <c r="E19" t="n">
-        <v>183</v>
+        <v>184.7</v>
       </c>
       <c r="F19" t="n">
-        <v>5000</v>
+        <v>727.1917</v>
       </c>
       <c r="G19" t="n">
-        <v>-124482.5650300732</v>
+        <v>-18940.95353007321</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>184</v>
+        <v>185.8</v>
       </c>
       <c r="C20" t="n">
-        <v>184</v>
+        <v>185.8</v>
       </c>
       <c r="D20" t="n">
-        <v>184</v>
+        <v>185.8</v>
       </c>
       <c r="E20" t="n">
-        <v>184</v>
+        <v>185.8</v>
       </c>
       <c r="F20" t="n">
-        <v>400</v>
+        <v>2.66</v>
       </c>
       <c r="G20" t="n">
-        <v>-124082.5650300732</v>
+        <v>-18938.29353007321</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="C21" t="n">
-        <v>184</v>
+        <v>185.3</v>
       </c>
       <c r="D21" t="n">
-        <v>184</v>
+        <v>185.3</v>
       </c>
       <c r="E21" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="F21" t="n">
-        <v>422.0088</v>
+        <v>4214</v>
       </c>
       <c r="G21" t="n">
-        <v>-124082.5650300732</v>
+        <v>-23152.29353007321</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>183.9</v>
+        <v>185.2</v>
       </c>
       <c r="C22" t="n">
-        <v>184</v>
+        <v>185.2</v>
       </c>
       <c r="D22" t="n">
-        <v>184</v>
+        <v>185.2</v>
       </c>
       <c r="E22" t="n">
-        <v>183.9</v>
+        <v>185.2</v>
       </c>
       <c r="F22" t="n">
-        <v>680.8866</v>
+        <v>3180.551</v>
       </c>
       <c r="G22" t="n">
-        <v>-124082.5650300732</v>
+        <v>-26332.84453007321</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>184</v>
+        <v>184.8</v>
       </c>
       <c r="C23" t="n">
-        <v>184</v>
+        <v>184.8</v>
       </c>
       <c r="D23" t="n">
-        <v>184</v>
+        <v>184.8</v>
       </c>
       <c r="E23" t="n">
-        <v>184</v>
+        <v>184.8</v>
       </c>
       <c r="F23" t="n">
-        <v>7231.3484</v>
+        <v>960.6142</v>
       </c>
       <c r="G23" t="n">
-        <v>-124082.5650300732</v>
+        <v>-27293.45873007321</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>184</v>
+        <v>184.8</v>
       </c>
       <c r="C24" t="n">
-        <v>184</v>
+        <v>184.8</v>
       </c>
       <c r="D24" t="n">
-        <v>184</v>
+        <v>184.8</v>
       </c>
       <c r="E24" t="n">
-        <v>184</v>
+        <v>184.8</v>
       </c>
       <c r="F24" t="n">
-        <v>10971.0306</v>
+        <v>10333.3954</v>
       </c>
       <c r="G24" t="n">
-        <v>-124082.5650300732</v>
+        <v>-27293.45873007321</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>184</v>
+        <v>184.8</v>
       </c>
       <c r="C25" t="n">
-        <v>184.5</v>
+        <v>184.8</v>
       </c>
       <c r="D25" t="n">
-        <v>184.5</v>
+        <v>184.8</v>
       </c>
       <c r="E25" t="n">
-        <v>184</v>
+        <v>184.8</v>
       </c>
       <c r="F25" t="n">
-        <v>240.2003</v>
+        <v>1497.75</v>
       </c>
       <c r="G25" t="n">
-        <v>-123842.3647300732</v>
+        <v>-27293.45873007321</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>184.5</v>
+        <v>184.8</v>
       </c>
       <c r="C26" t="n">
-        <v>184.6</v>
+        <v>184.8</v>
       </c>
       <c r="D26" t="n">
-        <v>184.6</v>
+        <v>184.8</v>
       </c>
       <c r="E26" t="n">
-        <v>184.5</v>
+        <v>184.8</v>
       </c>
       <c r="F26" t="n">
-        <v>669.2007</v>
+        <v>7360.1264</v>
       </c>
       <c r="G26" t="n">
-        <v>-123173.1640300732</v>
+        <v>-27293.45873007321</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>184</v>
+        <v>185.6</v>
       </c>
       <c r="C27" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="D27" t="n">
-        <v>184</v>
+        <v>185.6</v>
       </c>
       <c r="E27" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="F27" t="n">
-        <v>3272.5276</v>
+        <v>164.9499</v>
       </c>
       <c r="G27" t="n">
-        <v>-126445.6916300732</v>
+        <v>-27128.50883007321</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="C28" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="D28" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="E28" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="F28" t="n">
-        <v>2945.2747</v>
+        <v>4631.358</v>
       </c>
       <c r="G28" t="n">
-        <v>-126445.6916300732</v>
+        <v>-27128.50883007321</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>184</v>
+        <v>185.6</v>
       </c>
       <c r="C29" t="n">
-        <v>184.6</v>
+        <v>185.6</v>
       </c>
       <c r="D29" t="n">
-        <v>184.6</v>
+        <v>185.6</v>
       </c>
       <c r="E29" t="n">
-        <v>184</v>
+        <v>185.6</v>
       </c>
       <c r="F29" t="n">
-        <v>1101.3303</v>
+        <v>2.67</v>
       </c>
       <c r="G29" t="n">
-        <v>-125344.3613300732</v>
+        <v>-27125.83883007321</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>184.6</v>
+        <v>185.6</v>
       </c>
       <c r="C30" t="n">
-        <v>184.6</v>
+        <v>185.6</v>
       </c>
       <c r="D30" t="n">
-        <v>184.6</v>
+        <v>185.6</v>
       </c>
       <c r="E30" t="n">
-        <v>184.6</v>
+        <v>185.6</v>
       </c>
       <c r="F30" t="n">
-        <v>1351.4054</v>
+        <v>2995.3</v>
       </c>
       <c r="G30" t="n">
-        <v>-125344.3613300732</v>
+        <v>-27125.83883007321</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>184.3</v>
+        <v>186.3</v>
       </c>
       <c r="C31" t="n">
-        <v>184.3</v>
+        <v>186.3</v>
       </c>
       <c r="D31" t="n">
-        <v>184.3</v>
+        <v>186.3</v>
       </c>
       <c r="E31" t="n">
-        <v>184.3</v>
+        <v>186.3</v>
       </c>
       <c r="F31" t="n">
-        <v>95</v>
+        <v>2.67</v>
       </c>
       <c r="G31" t="n">
-        <v>-125439.3613300732</v>
+        <v>-27123.16883007321</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>184.3</v>
+        <v>186.2</v>
       </c>
       <c r="C32" t="n">
-        <v>184.6</v>
+        <v>186.2</v>
       </c>
       <c r="D32" t="n">
-        <v>184.6</v>
+        <v>186.2</v>
       </c>
       <c r="E32" t="n">
-        <v>184.3</v>
+        <v>186.2</v>
       </c>
       <c r="F32" t="n">
-        <v>503.1509</v>
+        <v>1064.8939</v>
       </c>
       <c r="G32" t="n">
-        <v>-124936.2104300732</v>
+        <v>-28188.06273007321</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>184.6</v>
+        <v>184.9</v>
       </c>
       <c r="C33" t="n">
-        <v>184.6</v>
+        <v>184.9</v>
       </c>
       <c r="D33" t="n">
-        <v>184.6</v>
+        <v>184.9</v>
       </c>
       <c r="E33" t="n">
-        <v>184.6</v>
+        <v>184.9</v>
       </c>
       <c r="F33" t="n">
-        <v>558.1647</v>
+        <v>63.9</v>
       </c>
       <c r="G33" t="n">
-        <v>-124936.2104300732</v>
+        <v>-28251.96273007321</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>184.6</v>
+        <v>185</v>
       </c>
       <c r="C34" t="n">
-        <v>185.2</v>
+        <v>185</v>
       </c>
       <c r="D34" t="n">
-        <v>185.2</v>
+        <v>185</v>
       </c>
       <c r="E34" t="n">
-        <v>184.6</v>
+        <v>185</v>
       </c>
       <c r="F34" t="n">
-        <v>1913.2625</v>
+        <v>236.9999</v>
       </c>
       <c r="G34" t="n">
-        <v>-123022.9479300732</v>
+        <v>-28014.96283007321</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>183.8</v>
+        <v>186.7</v>
       </c>
       <c r="C35" t="n">
-        <v>183.8</v>
+        <v>186.7</v>
       </c>
       <c r="D35" t="n">
-        <v>183.8</v>
+        <v>186.7</v>
       </c>
       <c r="E35" t="n">
-        <v>183.8</v>
+        <v>186.7</v>
       </c>
       <c r="F35" t="n">
-        <v>4295.997</v>
+        <v>6.6967</v>
       </c>
       <c r="G35" t="n">
-        <v>-127318.9449300732</v>
+        <v>-28008.26613007321</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>183.8</v>
+        <v>184.9</v>
       </c>
       <c r="C36" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="D36" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="E36" t="n">
-        <v>183.8</v>
+        <v>184.9</v>
       </c>
       <c r="F36" t="n">
-        <v>113</v>
+        <v>467.6641</v>
       </c>
       <c r="G36" t="n">
-        <v>-127205.9449300732</v>
+        <v>-28475.93023007321</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="C37" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="D37" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="E37" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="F37" t="n">
-        <v>1946.6461</v>
+        <v>1064.8939</v>
       </c>
       <c r="G37" t="n">
-        <v>-127205.9449300732</v>
+        <v>-28475.93023007321</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="C38" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="D38" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="E38" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="F38" t="n">
-        <v>853.4417999999999</v>
+        <v>5427.86</v>
       </c>
       <c r="G38" t="n">
-        <v>-127205.9449300732</v>
+        <v>-28475.93023007321</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="C39" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="D39" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="E39" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="F39" t="n">
-        <v>163.0049</v>
+        <v>619.9999</v>
       </c>
       <c r="G39" t="n">
-        <v>-127205.9449300732</v>
+        <v>-28475.93023007321</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="C40" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="D40" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="E40" t="n">
-        <v>185.1</v>
+        <v>184.9</v>
       </c>
       <c r="F40" t="n">
-        <v>1151.7145</v>
+        <v>487.2702</v>
       </c>
       <c r="G40" t="n">
-        <v>-127205.9449300732</v>
+        <v>-28475.93023007321</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>185.5</v>
+        <v>184.7</v>
       </c>
       <c r="C41" t="n">
-        <v>185.5</v>
+        <v>184.5</v>
       </c>
       <c r="D41" t="n">
-        <v>185.5</v>
+        <v>184.7</v>
       </c>
       <c r="E41" t="n">
-        <v>185.5</v>
+        <v>184.5</v>
       </c>
       <c r="F41" t="n">
-        <v>2.68</v>
+        <v>6682.6356</v>
       </c>
       <c r="G41" t="n">
-        <v>-127203.2649300732</v>
+        <v>-35158.56583007321</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>185.5</v>
+        <v>184.5</v>
       </c>
       <c r="C42" t="n">
-        <v>185.5</v>
+        <v>184.4</v>
       </c>
       <c r="D42" t="n">
-        <v>185.5</v>
+        <v>184.5</v>
       </c>
       <c r="E42" t="n">
-        <v>185.5</v>
+        <v>184.4</v>
       </c>
       <c r="F42" t="n">
-        <v>7409.1446</v>
+        <v>7942.1291</v>
       </c>
       <c r="G42" t="n">
-        <v>-127203.2649300732</v>
+        <v>-43100.69493007321</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>186.3</v>
+        <v>184.3</v>
       </c>
       <c r="C43" t="n">
-        <v>186.3</v>
+        <v>184.3</v>
       </c>
       <c r="D43" t="n">
-        <v>186.3</v>
+        <v>184.3</v>
       </c>
       <c r="E43" t="n">
-        <v>186.3</v>
+        <v>184.3</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>2838.74</v>
       </c>
       <c r="G43" t="n">
-        <v>-127198.2649300732</v>
+        <v>-45939.43493007321</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>186.3</v>
+        <v>184.3</v>
       </c>
       <c r="C44" t="n">
-        <v>186.3</v>
+        <v>184.3</v>
       </c>
       <c r="D44" t="n">
-        <v>186.3</v>
+        <v>184.3</v>
       </c>
       <c r="E44" t="n">
-        <v>186.3</v>
+        <v>184.3</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>1052.8743</v>
       </c>
       <c r="G44" t="n">
-        <v>-127198.2649300732</v>
+        <v>-45939.43493007321</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>185.5</v>
+        <v>184.3</v>
       </c>
       <c r="C45" t="n">
-        <v>185.5</v>
+        <v>184.3</v>
       </c>
       <c r="D45" t="n">
-        <v>185.5</v>
+        <v>184.3</v>
       </c>
       <c r="E45" t="n">
-        <v>185.5</v>
+        <v>184.3</v>
       </c>
       <c r="F45" t="n">
-        <v>577.1642000000001</v>
+        <v>3270.808</v>
       </c>
       <c r="G45" t="n">
-        <v>-127775.4291300732</v>
+        <v>-45939.43493007321</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>186.4</v>
+        <v>185.5</v>
       </c>
       <c r="C46" t="n">
-        <v>186.4</v>
+        <v>185.5</v>
       </c>
       <c r="D46" t="n">
-        <v>186.4</v>
+        <v>185.5</v>
       </c>
       <c r="E46" t="n">
-        <v>186.4</v>
+        <v>185.5</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>10000</v>
       </c>
       <c r="G46" t="n">
-        <v>-127770.4291300732</v>
+        <v>-35939.43493007321</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>186.9</v>
+        <v>185</v>
       </c>
       <c r="C47" t="n">
-        <v>186.9</v>
+        <v>185</v>
       </c>
       <c r="D47" t="n">
-        <v>186.9</v>
+        <v>185</v>
       </c>
       <c r="E47" t="n">
-        <v>186.9</v>
+        <v>185</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>549.12</v>
       </c>
       <c r="G47" t="n">
-        <v>-127760.4291300732</v>
+        <v>-36488.55493007321</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C48" t="n">
-        <v>188</v>
+        <v>184.7</v>
       </c>
       <c r="D48" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E48" t="n">
-        <v>187</v>
+        <v>184.7</v>
       </c>
       <c r="F48" t="n">
-        <v>22451</v>
+        <v>23.17</v>
       </c>
       <c r="G48" t="n">
-        <v>-105309.4291300732</v>
+        <v>-36511.72493007321</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>188</v>
+        <v>184.7</v>
       </c>
       <c r="C49" t="n">
-        <v>188.7</v>
+        <v>184.7</v>
       </c>
       <c r="D49" t="n">
-        <v>188.7</v>
+        <v>184.7</v>
       </c>
       <c r="E49" t="n">
-        <v>188</v>
+        <v>184.7</v>
       </c>
       <c r="F49" t="n">
-        <v>2134</v>
+        <v>2598</v>
       </c>
       <c r="G49" t="n">
-        <v>-103175.4291300732</v>
+        <v>-36511.72493007321</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C50" t="n">
-        <v>189</v>
+        <v>184.3</v>
       </c>
       <c r="D50" t="n">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E50" t="n">
-        <v>189</v>
+        <v>184.3</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>5302.5134</v>
       </c>
       <c r="G50" t="n">
-        <v>-103170.4291300732</v>
+        <v>-41814.2383300732</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>189</v>
+        <v>184.3</v>
       </c>
       <c r="C51" t="n">
-        <v>189.1</v>
+        <v>184.1</v>
       </c>
       <c r="D51" t="n">
-        <v>189.1</v>
+        <v>184.3</v>
       </c>
       <c r="E51" t="n">
-        <v>189</v>
+        <v>184.1</v>
       </c>
       <c r="F51" t="n">
-        <v>6700</v>
+        <v>4347.3376</v>
       </c>
       <c r="G51" t="n">
-        <v>-96470.42913007323</v>
+        <v>-46161.5759300732</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>187.4</v>
+        <v>184.2</v>
       </c>
       <c r="C52" t="n">
-        <v>188.9</v>
+        <v>184.2</v>
       </c>
       <c r="D52" t="n">
-        <v>188.9</v>
+        <v>184.2</v>
       </c>
       <c r="E52" t="n">
-        <v>187.3</v>
+        <v>184.2</v>
       </c>
       <c r="F52" t="n">
-        <v>3828.2238</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
-        <v>-100298.6529300732</v>
+        <v>-46061.5759300732</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2274,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>186.8</v>
+        <v>185</v>
       </c>
       <c r="C53" t="n">
-        <v>186.7</v>
+        <v>185.8</v>
       </c>
       <c r="D53" t="n">
-        <v>186.8</v>
+        <v>185.8</v>
       </c>
       <c r="E53" t="n">
-        <v>186.7</v>
+        <v>185</v>
       </c>
       <c r="F53" t="n">
-        <v>3268.8491</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
-        <v>-103567.5020300732</v>
+        <v>-46056.5759300732</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,28 +2310,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>186.6</v>
+        <v>185.5</v>
       </c>
       <c r="C54" t="n">
-        <v>186.6</v>
+        <v>185.5</v>
       </c>
       <c r="D54" t="n">
-        <v>186.6</v>
+        <v>185.5</v>
       </c>
       <c r="E54" t="n">
-        <v>186.6</v>
+        <v>185.5</v>
       </c>
       <c r="F54" t="n">
-        <v>542.8247</v>
+        <v>2373.9459</v>
       </c>
       <c r="G54" t="n">
-        <v>-104110.3267300732</v>
+        <v>-48430.5218300732</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>186.7</v>
+        <v>184.3</v>
       </c>
       <c r="C55" t="n">
-        <v>186.7</v>
+        <v>184.3</v>
       </c>
       <c r="D55" t="n">
-        <v>186.7</v>
+        <v>184.3</v>
       </c>
       <c r="E55" t="n">
-        <v>186.7</v>
+        <v>184.3</v>
       </c>
       <c r="F55" t="n">
-        <v>1829.454</v>
+        <v>21.2734</v>
       </c>
       <c r="G55" t="n">
-        <v>-102280.8727300732</v>
+        <v>-48451.7952300732</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>185.6</v>
+        <v>185</v>
       </c>
       <c r="C56" t="n">
-        <v>185.6</v>
+        <v>185</v>
       </c>
       <c r="D56" t="n">
-        <v>185.6</v>
+        <v>185</v>
       </c>
       <c r="E56" t="n">
-        <v>185.6</v>
+        <v>185</v>
       </c>
       <c r="F56" t="n">
-        <v>8.473100000000001</v>
+        <v>22.32</v>
       </c>
       <c r="G56" t="n">
-        <v>-102289.3458300732</v>
+        <v>-48429.4752300732</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>186.1</v>
+        <v>184.9</v>
       </c>
       <c r="C57" t="n">
-        <v>186.1</v>
+        <v>184.5</v>
       </c>
       <c r="D57" t="n">
-        <v>186.1</v>
+        <v>184.9</v>
       </c>
       <c r="E57" t="n">
-        <v>186.1</v>
+        <v>184.5</v>
       </c>
       <c r="F57" t="n">
-        <v>1070</v>
+        <v>347</v>
       </c>
       <c r="G57" t="n">
-        <v>-101219.3458300732</v>
+        <v>-48776.4752300732</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>186.6</v>
+        <v>184.5</v>
       </c>
       <c r="C58" t="n">
-        <v>186.6</v>
+        <v>184.3</v>
       </c>
       <c r="D58" t="n">
-        <v>186.6</v>
+        <v>184.5</v>
       </c>
       <c r="E58" t="n">
-        <v>186.6</v>
+        <v>184.3</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>261.8</v>
       </c>
       <c r="G58" t="n">
-        <v>-101214.3458300732</v>
+        <v>-49038.2752300732</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>186.6</v>
+        <v>184.3</v>
       </c>
       <c r="C59" t="n">
-        <v>187.7</v>
+        <v>184.2</v>
       </c>
       <c r="D59" t="n">
-        <v>187.7</v>
+        <v>184.3</v>
       </c>
       <c r="E59" t="n">
-        <v>186.6</v>
+        <v>184.2</v>
       </c>
       <c r="F59" t="n">
-        <v>6810</v>
+        <v>7967.5215</v>
       </c>
       <c r="G59" t="n">
-        <v>-94404.34583007325</v>
+        <v>-57005.79673007321</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>187.7</v>
+        <v>184.2</v>
       </c>
       <c r="C60" t="n">
-        <v>188.5</v>
+        <v>184.2</v>
       </c>
       <c r="D60" t="n">
-        <v>188.5</v>
+        <v>184.2</v>
       </c>
       <c r="E60" t="n">
-        <v>187.7</v>
+        <v>184.2</v>
       </c>
       <c r="F60" t="n">
-        <v>502.2132</v>
+        <v>2849.6745</v>
       </c>
       <c r="G60" t="n">
-        <v>-93902.13263007325</v>
+        <v>-57005.79673007321</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>188.5</v>
+        <v>184.1</v>
       </c>
       <c r="C61" t="n">
-        <v>188.5</v>
+        <v>184.1</v>
       </c>
       <c r="D61" t="n">
-        <v>188.5</v>
+        <v>184.1</v>
       </c>
       <c r="E61" t="n">
-        <v>188.5</v>
+        <v>184.1</v>
       </c>
       <c r="F61" t="n">
-        <v>18.5914</v>
+        <v>5000</v>
       </c>
       <c r="G61" t="n">
-        <v>-93902.13263007325</v>
+        <v>-62005.79673007321</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,28 +2598,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>187.2</v>
+        <v>184.1</v>
       </c>
       <c r="C62" t="n">
-        <v>186.9</v>
+        <v>184</v>
       </c>
       <c r="D62" t="n">
-        <v>187.2</v>
+        <v>184.1</v>
       </c>
       <c r="E62" t="n">
-        <v>186.9</v>
+        <v>184</v>
       </c>
       <c r="F62" t="n">
-        <v>9950</v>
+        <v>7922.1406</v>
       </c>
       <c r="G62" t="n">
-        <v>-103852.1326300732</v>
+        <v>-69927.93733007321</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2634,28 +2634,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>186.6</v>
+        <v>184</v>
       </c>
       <c r="C63" t="n">
-        <v>186.6</v>
+        <v>184</v>
       </c>
       <c r="D63" t="n">
-        <v>186.6</v>
+        <v>184</v>
       </c>
       <c r="E63" t="n">
-        <v>186.6</v>
+        <v>184</v>
       </c>
       <c r="F63" t="n">
-        <v>2677.742</v>
+        <v>18.5395</v>
       </c>
       <c r="G63" t="n">
-        <v>-106529.8746300732</v>
+        <v>-69927.93733007321</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>186.3</v>
+        <v>183.9</v>
       </c>
       <c r="C64" t="n">
-        <v>186.3</v>
+        <v>183.9</v>
       </c>
       <c r="D64" t="n">
-        <v>186.3</v>
+        <v>183.9</v>
       </c>
       <c r="E64" t="n">
-        <v>186.3</v>
+        <v>183.9</v>
       </c>
       <c r="F64" t="n">
-        <v>254.377</v>
+        <v>503.218</v>
       </c>
       <c r="G64" t="n">
-        <v>-106784.2516300732</v>
+        <v>-70431.1553300732</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>186.8</v>
+        <v>183.9</v>
       </c>
       <c r="C65" t="n">
-        <v>186.8</v>
+        <v>183.9</v>
       </c>
       <c r="D65" t="n">
-        <v>186.8</v>
+        <v>183.9</v>
       </c>
       <c r="E65" t="n">
-        <v>186.8</v>
+        <v>183.9</v>
       </c>
       <c r="F65" t="n">
-        <v>2.66</v>
+        <v>1447</v>
       </c>
       <c r="G65" t="n">
-        <v>-106781.5916300732</v>
+        <v>-70431.1553300732</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C66" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="D66" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E66" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="F66" t="n">
-        <v>17925.489</v>
+        <v>312</v>
       </c>
       <c r="G66" t="n">
-        <v>-124707.0806300732</v>
+        <v>-70119.1553300732</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C67" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D67" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E67" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F67" t="n">
-        <v>2058.6175</v>
+        <v>230</v>
       </c>
       <c r="G67" t="n">
-        <v>-122648.4631300732</v>
+        <v>-70119.1553300732</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>186</v>
+        <v>184.1</v>
       </c>
       <c r="C68" t="n">
-        <v>186.8</v>
+        <v>184.1</v>
       </c>
       <c r="D68" t="n">
-        <v>186.8</v>
+        <v>184.1</v>
       </c>
       <c r="E68" t="n">
-        <v>186</v>
+        <v>184.1</v>
       </c>
       <c r="F68" t="n">
-        <v>85</v>
+        <v>542.0248</v>
       </c>
       <c r="G68" t="n">
-        <v>-122563.4631300732</v>
+        <v>-69577.13053007321</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>186.8</v>
+        <v>184.9</v>
       </c>
       <c r="C69" t="n">
-        <v>186.8</v>
+        <v>184.9</v>
       </c>
       <c r="D69" t="n">
-        <v>186.8</v>
+        <v>184.9</v>
       </c>
       <c r="E69" t="n">
-        <v>186.8</v>
+        <v>184.9</v>
       </c>
       <c r="F69" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>-122563.4631300732</v>
+        <v>-69567.13053007321</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>186.8</v>
+        <v>183.9</v>
       </c>
       <c r="C70" t="n">
-        <v>186.8</v>
+        <v>183.9</v>
       </c>
       <c r="D70" t="n">
-        <v>186.8</v>
+        <v>183.9</v>
       </c>
       <c r="E70" t="n">
-        <v>186.8</v>
+        <v>183.9</v>
       </c>
       <c r="F70" t="n">
-        <v>540.623</v>
+        <v>2419.2586</v>
       </c>
       <c r="G70" t="n">
-        <v>-122563.4631300732</v>
+        <v>-71986.38913007321</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>185.2</v>
+        <v>185.7</v>
       </c>
       <c r="C71" t="n">
-        <v>185.2</v>
+        <v>185.7</v>
       </c>
       <c r="D71" t="n">
-        <v>185.2</v>
+        <v>185.7</v>
       </c>
       <c r="E71" t="n">
-        <v>185.2</v>
+        <v>185.7</v>
       </c>
       <c r="F71" t="n">
-        <v>1073.892</v>
+        <v>5</v>
       </c>
       <c r="G71" t="n">
-        <v>-123637.3551300733</v>
+        <v>-71981.38913007321</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>187.2</v>
+        <v>184.9</v>
       </c>
       <c r="C72" t="n">
-        <v>187.2</v>
+        <v>183.8</v>
       </c>
       <c r="D72" t="n">
-        <v>187.2</v>
+        <v>184.9</v>
       </c>
       <c r="E72" t="n">
-        <v>187.2</v>
+        <v>183.8</v>
       </c>
       <c r="F72" t="n">
-        <v>2.66</v>
+        <v>3475.332</v>
       </c>
       <c r="G72" t="n">
-        <v>-123634.6951300732</v>
+        <v>-75456.7211300732</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>186.5</v>
+        <v>184.9</v>
       </c>
       <c r="C73" t="n">
-        <v>186.5</v>
+        <v>184.9</v>
       </c>
       <c r="D73" t="n">
-        <v>186.5</v>
+        <v>184.9</v>
       </c>
       <c r="E73" t="n">
-        <v>186.5</v>
+        <v>184.9</v>
       </c>
       <c r="F73" t="n">
-        <v>1403</v>
+        <v>159.2097</v>
       </c>
       <c r="G73" t="n">
-        <v>-125037.6951300732</v>
+        <v>-75297.51143007319</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>186.8</v>
+        <v>185.7</v>
       </c>
       <c r="C74" t="n">
-        <v>186.8</v>
+        <v>185.7</v>
       </c>
       <c r="D74" t="n">
-        <v>186.8</v>
+        <v>185.7</v>
       </c>
       <c r="E74" t="n">
-        <v>186.8</v>
+        <v>185.7</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G74" t="n">
-        <v>-125034.6951300732</v>
+        <v>-75292.51143007319</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>185.5</v>
+        <v>184.9</v>
       </c>
       <c r="C75" t="n">
-        <v>185.5</v>
+        <v>185</v>
       </c>
       <c r="D75" t="n">
-        <v>185.5</v>
+        <v>185</v>
       </c>
       <c r="E75" t="n">
-        <v>185.5</v>
+        <v>184.8</v>
       </c>
       <c r="F75" t="n">
-        <v>400</v>
+        <v>459.0099</v>
       </c>
       <c r="G75" t="n">
-        <v>-125434.6951300732</v>
+        <v>-75751.5213300732</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>186.7</v>
+        <v>185</v>
       </c>
       <c r="C76" t="n">
-        <v>186.7</v>
+        <v>185</v>
       </c>
       <c r="D76" t="n">
-        <v>186.7</v>
+        <v>185</v>
       </c>
       <c r="E76" t="n">
-        <v>186.7</v>
+        <v>185</v>
       </c>
       <c r="F76" t="n">
-        <v>2.67</v>
+        <v>1500</v>
       </c>
       <c r="G76" t="n">
-        <v>-125432.0251300732</v>
+        <v>-75751.5213300732</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>185.5</v>
+        <v>184.2</v>
       </c>
       <c r="C77" t="n">
-        <v>185.5</v>
+        <v>184.2</v>
       </c>
       <c r="D77" t="n">
-        <v>185.5</v>
+        <v>184.2</v>
       </c>
       <c r="E77" t="n">
-        <v>185.5</v>
+        <v>184.2</v>
       </c>
       <c r="F77" t="n">
-        <v>5674.0429</v>
+        <v>35.3674</v>
       </c>
       <c r="G77" t="n">
-        <v>-131106.0680300732</v>
+        <v>-75786.8887300732</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>185.5</v>
+        <v>184</v>
       </c>
       <c r="C78" t="n">
-        <v>185.5</v>
+        <v>184</v>
       </c>
       <c r="D78" t="n">
-        <v>185.5</v>
+        <v>184</v>
       </c>
       <c r="E78" t="n">
-        <v>185.5</v>
+        <v>184</v>
       </c>
       <c r="F78" t="n">
-        <v>1924</v>
+        <v>500</v>
       </c>
       <c r="G78" t="n">
-        <v>-131106.0680300732</v>
+        <v>-76286.8887300732</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>185.5</v>
+        <v>185</v>
       </c>
       <c r="C79" t="n">
-        <v>185.5</v>
+        <v>185</v>
       </c>
       <c r="D79" t="n">
-        <v>185.5</v>
+        <v>185</v>
       </c>
       <c r="E79" t="n">
-        <v>185.5</v>
+        <v>185</v>
       </c>
       <c r="F79" t="n">
-        <v>3151.2797</v>
+        <v>22.6333</v>
       </c>
       <c r="G79" t="n">
-        <v>-131106.0680300732</v>
+        <v>-76264.2554300732</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>185.5</v>
+        <v>184</v>
       </c>
       <c r="C80" t="n">
-        <v>185.5</v>
+        <v>184</v>
       </c>
       <c r="D80" t="n">
-        <v>185.5</v>
+        <v>184</v>
       </c>
       <c r="E80" t="n">
-        <v>185.5</v>
+        <v>184</v>
       </c>
       <c r="F80" t="n">
-        <v>1109.3869</v>
+        <v>4973.3815</v>
       </c>
       <c r="G80" t="n">
-        <v>-131106.0680300732</v>
+        <v>-81237.6369300732</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>185</v>
+        <v>183.9</v>
       </c>
       <c r="C81" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="D81" t="n">
-        <v>185</v>
+        <v>183.9</v>
       </c>
       <c r="E81" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="F81" t="n">
-        <v>1456.1464</v>
+        <v>4962.2769</v>
       </c>
       <c r="G81" t="n">
-        <v>-132562.2144300732</v>
+        <v>-86199.9138300732</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>184.9</v>
+        <v>183.8</v>
       </c>
       <c r="C82" t="n">
-        <v>184.9</v>
+        <v>183.8</v>
       </c>
       <c r="D82" t="n">
-        <v>184.9</v>
+        <v>183.8</v>
       </c>
       <c r="E82" t="n">
-        <v>184.9</v>
+        <v>183.8</v>
       </c>
       <c r="F82" t="n">
-        <v>19.5559</v>
+        <v>3331.4924</v>
       </c>
       <c r="G82" t="n">
-        <v>-132562.2144300732</v>
+        <v>-89531.4062300732</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>184.9</v>
+        <v>183.8</v>
       </c>
       <c r="C83" t="n">
-        <v>184.7</v>
+        <v>183.7</v>
       </c>
       <c r="D83" t="n">
-        <v>184.9</v>
+        <v>183.8</v>
       </c>
       <c r="E83" t="n">
-        <v>184.7</v>
+        <v>183.7</v>
       </c>
       <c r="F83" t="n">
-        <v>4766.9322</v>
+        <v>1489.4587</v>
       </c>
       <c r="G83" t="n">
-        <v>-137329.1466300733</v>
+        <v>-91020.86493007321</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>184.6</v>
+        <v>183.7</v>
       </c>
       <c r="C84" t="n">
-        <v>184.6</v>
+        <v>183.7</v>
       </c>
       <c r="D84" t="n">
-        <v>184.6</v>
+        <v>183.7</v>
       </c>
       <c r="E84" t="n">
-        <v>184.6</v>
+        <v>183.7</v>
       </c>
       <c r="F84" t="n">
-        <v>3242.1708</v>
+        <v>2000</v>
       </c>
       <c r="G84" t="n">
-        <v>-140571.3174300732</v>
+        <v>-91020.86493007321</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,35 +3426,31 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>184.6</v>
+        <v>184.8</v>
       </c>
       <c r="C85" t="n">
-        <v>184.6</v>
+        <v>184.8</v>
       </c>
       <c r="D85" t="n">
-        <v>184.6</v>
+        <v>184.8</v>
       </c>
       <c r="E85" t="n">
-        <v>184.6</v>
+        <v>184.8</v>
       </c>
       <c r="F85" t="n">
-        <v>1192.4292</v>
+        <v>5</v>
       </c>
       <c r="G85" t="n">
-        <v>-140571.3174300732</v>
+        <v>-91015.86493007321</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K85" t="n">
-        <v>184.6</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
@@ -3466,40 +3462,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>184.8</v>
+        <v>183.7</v>
       </c>
       <c r="C86" t="n">
-        <v>184.8</v>
+        <v>184.7</v>
       </c>
       <c r="D86" t="n">
-        <v>184.8</v>
+        <v>184.7</v>
       </c>
       <c r="E86" t="n">
-        <v>184.8</v>
+        <v>183.7</v>
       </c>
       <c r="F86" t="n">
-        <v>1651.7858</v>
+        <v>4005</v>
       </c>
       <c r="G86" t="n">
-        <v>-138919.5316300732</v>
+        <v>-95020.86493007321</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K86" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3510,40 +3498,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>184.8</v>
+        <v>184.4</v>
       </c>
       <c r="C87" t="n">
-        <v>184.5</v>
+        <v>184.4</v>
       </c>
       <c r="D87" t="n">
-        <v>184.8</v>
+        <v>184.4</v>
       </c>
       <c r="E87" t="n">
-        <v>184.5</v>
+        <v>184.4</v>
       </c>
       <c r="F87" t="n">
-        <v>17806.572</v>
+        <v>4522.2234</v>
       </c>
       <c r="G87" t="n">
-        <v>-156726.1036300733</v>
+        <v>-99543.08833007321</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="K87" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3554,40 +3534,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>184.5</v>
+        <v>183.6</v>
       </c>
       <c r="C88" t="n">
-        <v>184.5</v>
+        <v>183.6</v>
       </c>
       <c r="D88" t="n">
-        <v>184.5</v>
+        <v>183.6</v>
       </c>
       <c r="E88" t="n">
-        <v>184.5</v>
+        <v>183.6</v>
       </c>
       <c r="F88" t="n">
-        <v>13207.0767</v>
+        <v>22.6333</v>
       </c>
       <c r="G88" t="n">
-        <v>-156726.1036300733</v>
+        <v>-99565.72163007321</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="K88" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3598,40 +3570,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>184.8</v>
+        <v>183.6</v>
       </c>
       <c r="C89" t="n">
-        <v>184.9</v>
+        <v>183.2</v>
       </c>
       <c r="D89" t="n">
-        <v>184.9</v>
+        <v>183.6</v>
       </c>
       <c r="E89" t="n">
-        <v>184.8</v>
+        <v>183.2</v>
       </c>
       <c r="F89" t="n">
-        <v>2530.7148</v>
+        <v>19916.8434</v>
       </c>
       <c r="G89" t="n">
-        <v>-154195.3888300733</v>
+        <v>-119482.5650300732</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="K89" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3642,40 +3606,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>184.9</v>
+        <v>183.2</v>
       </c>
       <c r="C90" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D90" t="n">
-        <v>185</v>
+        <v>183.2</v>
       </c>
       <c r="E90" t="n">
-        <v>184.9</v>
+        <v>183</v>
       </c>
       <c r="F90" t="n">
-        <v>5441.9999</v>
+        <v>5000</v>
       </c>
       <c r="G90" t="n">
-        <v>-148753.3889300733</v>
+        <v>-124482.5650300732</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="K90" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3686,38 +3642,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C91" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D91" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E91" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F91" t="n">
-        <v>716.7177</v>
+        <v>400</v>
       </c>
       <c r="G91" t="n">
-        <v>-148753.3889300733</v>
+        <v>-124082.5650300732</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>183</v>
+      </c>
       <c r="K91" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3728,36 +3682,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C92" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D92" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E92" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F92" t="n">
-        <v>244.7343</v>
+        <v>422.0088</v>
       </c>
       <c r="G92" t="n">
-        <v>-148753.3889300733</v>
+        <v>-124082.5650300732</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>184</v>
+      </c>
       <c r="K92" t="n">
-        <v>184.6</v>
+        <v>183</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M92" t="n">
@@ -3770,36 +3726,38 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>184.5</v>
+        <v>183.9</v>
       </c>
       <c r="C93" t="n">
-        <v>183.7</v>
+        <v>184</v>
       </c>
       <c r="D93" t="n">
-        <v>184.5</v>
+        <v>184</v>
       </c>
       <c r="E93" t="n">
-        <v>183.7</v>
+        <v>183.9</v>
       </c>
       <c r="F93" t="n">
-        <v>2626.1795</v>
+        <v>680.8866</v>
       </c>
       <c r="G93" t="n">
-        <v>-151379.5684300733</v>
+        <v>-124082.5650300732</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>184</v>
+      </c>
       <c r="K93" t="n">
-        <v>184.6</v>
+        <v>183</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -3812,38 +3770,36 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>183.7</v>
+        <v>184</v>
       </c>
       <c r="C94" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D94" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E94" t="n">
-        <v>183.7</v>
+        <v>184</v>
       </c>
       <c r="F94" t="n">
-        <v>12.7</v>
+        <v>7231.3484</v>
       </c>
       <c r="G94" t="n">
-        <v>-151366.8684300733</v>
+        <v>-124082.5650300732</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>184</v>
+      </c>
       <c r="K94" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3854,36 +3810,38 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C95" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D95" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E95" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F95" t="n">
-        <v>35.848</v>
+        <v>10971.0306</v>
       </c>
       <c r="G95" t="n">
-        <v>-151366.8684300733</v>
+        <v>-124082.5650300732</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>184</v>
+      </c>
       <c r="K95" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -3896,36 +3854,38 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>183.9</v>
+        <v>184</v>
       </c>
       <c r="C96" t="n">
-        <v>183.9</v>
+        <v>184.5</v>
       </c>
       <c r="D96" t="n">
-        <v>183.9</v>
+        <v>184.5</v>
       </c>
       <c r="E96" t="n">
-        <v>183.9</v>
+        <v>184</v>
       </c>
       <c r="F96" t="n">
-        <v>3918.6947</v>
+        <v>240.2003</v>
       </c>
       <c r="G96" t="n">
-        <v>-155285.5631300732</v>
+        <v>-123842.3647300732</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>184</v>
+      </c>
       <c r="K96" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M96" t="n">
@@ -3938,32 +3898,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>185.3</v>
+        <v>184.5</v>
       </c>
       <c r="C97" t="n">
-        <v>186.7</v>
+        <v>184.6</v>
       </c>
       <c r="D97" t="n">
-        <v>187.8</v>
+        <v>184.6</v>
       </c>
       <c r="E97" t="n">
-        <v>183.9</v>
+        <v>184.5</v>
       </c>
       <c r="F97" t="n">
-        <v>15947.7257</v>
+        <v>669.2007</v>
       </c>
       <c r="G97" t="n">
-        <v>-139337.8374300732</v>
+        <v>-123173.1640300732</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>184.5</v>
+      </c>
       <c r="K97" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -3980,32 +3942,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>185.4</v>
+        <v>184</v>
       </c>
       <c r="C98" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="D98" t="n">
-        <v>185.4</v>
+        <v>184</v>
       </c>
       <c r="E98" t="n">
-        <v>184.1</v>
+        <v>184</v>
       </c>
       <c r="F98" t="n">
-        <v>20303.6461</v>
+        <v>3272.5276</v>
       </c>
       <c r="G98" t="n">
-        <v>-159641.4835300733</v>
+        <v>-126445.6916300732</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K98" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4025,29 +3989,31 @@
         <v>184</v>
       </c>
       <c r="C99" t="n">
-        <v>185.4</v>
+        <v>184</v>
       </c>
       <c r="D99" t="n">
-        <v>185.4</v>
+        <v>184</v>
       </c>
       <c r="E99" t="n">
         <v>184</v>
       </c>
       <c r="F99" t="n">
-        <v>4586.3041</v>
+        <v>2945.2747</v>
       </c>
       <c r="G99" t="n">
-        <v>-155055.1794300732</v>
+        <v>-126445.6916300732</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>184</v>
+      </c>
       <c r="K99" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4064,32 +4030,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>185.4</v>
+        <v>184</v>
       </c>
       <c r="C100" t="n">
         <v>184.6</v>
       </c>
       <c r="D100" t="n">
-        <v>185.4</v>
+        <v>184.6</v>
       </c>
       <c r="E100" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="F100" t="n">
-        <v>23368.0914</v>
+        <v>1101.3303</v>
       </c>
       <c r="G100" t="n">
-        <v>-178423.2708300732</v>
+        <v>-125344.3613300732</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>184</v>
+      </c>
       <c r="K100" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4106,32 +4074,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>185.4</v>
+        <v>184.6</v>
       </c>
       <c r="C101" t="n">
-        <v>185.4</v>
+        <v>184.6</v>
       </c>
       <c r="D101" t="n">
-        <v>185.4</v>
+        <v>184.6</v>
       </c>
       <c r="E101" t="n">
-        <v>185.4</v>
+        <v>184.6</v>
       </c>
       <c r="F101" t="n">
-        <v>0.6524</v>
+        <v>1351.4054</v>
       </c>
       <c r="G101" t="n">
-        <v>-178422.6184300733</v>
+        <v>-125344.3613300732</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K101" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4148,32 +4118,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>185.4</v>
+        <v>184.3</v>
       </c>
       <c r="C102" t="n">
-        <v>187.5</v>
+        <v>184.3</v>
       </c>
       <c r="D102" t="n">
-        <v>187.5</v>
+        <v>184.3</v>
       </c>
       <c r="E102" t="n">
-        <v>185.4</v>
+        <v>184.3</v>
       </c>
       <c r="F102" t="n">
-        <v>6013.5069</v>
+        <v>95</v>
       </c>
       <c r="G102" t="n">
-        <v>-172409.1115300732</v>
+        <v>-125439.3613300732</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K102" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4190,32 +4162,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>187</v>
+        <v>184.3</v>
       </c>
       <c r="C103" t="n">
-        <v>187.2</v>
+        <v>184.6</v>
       </c>
       <c r="D103" t="n">
-        <v>187.2</v>
+        <v>184.6</v>
       </c>
       <c r="E103" t="n">
-        <v>187</v>
+        <v>184.3</v>
       </c>
       <c r="F103" t="n">
-        <v>3767</v>
+        <v>503.1509</v>
       </c>
       <c r="G103" t="n">
-        <v>-176176.1115300732</v>
+        <v>-124936.2104300732</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>184.3</v>
+      </c>
       <c r="K103" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4232,32 +4206,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>185.4</v>
+        <v>184.6</v>
       </c>
       <c r="C104" t="n">
-        <v>184.5</v>
+        <v>184.6</v>
       </c>
       <c r="D104" t="n">
-        <v>185.4</v>
+        <v>184.6</v>
       </c>
       <c r="E104" t="n">
-        <v>184.5</v>
+        <v>184.6</v>
       </c>
       <c r="F104" t="n">
-        <v>9610.265100000001</v>
+        <v>558.1647</v>
       </c>
       <c r="G104" t="n">
-        <v>-185786.3766300732</v>
+        <v>-124936.2104300732</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K104" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4274,32 +4250,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="C105" t="n">
         <v>185.2</v>
       </c>
-      <c r="C105" t="n">
-        <v>185.9</v>
-      </c>
       <c r="D105" t="n">
-        <v>185.9</v>
+        <v>185.2</v>
       </c>
       <c r="E105" t="n">
-        <v>184.9</v>
+        <v>184.6</v>
       </c>
       <c r="F105" t="n">
-        <v>6541.4303</v>
+        <v>1913.2625</v>
       </c>
       <c r="G105" t="n">
-        <v>-179244.9463300732</v>
+        <v>-123022.9479300732</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K105" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4316,32 +4294,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>184</v>
+        <v>183.8</v>
       </c>
       <c r="C106" t="n">
-        <v>185</v>
+        <v>183.8</v>
       </c>
       <c r="D106" t="n">
-        <v>185</v>
+        <v>183.8</v>
       </c>
       <c r="E106" t="n">
-        <v>183.9</v>
+        <v>183.8</v>
       </c>
       <c r="F106" t="n">
-        <v>3458.3516</v>
+        <v>4295.997</v>
       </c>
       <c r="G106" t="n">
-        <v>-182703.2979300732</v>
+        <v>-127318.9449300732</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>185.2</v>
+      </c>
       <c r="K106" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4358,32 +4338,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>184.8</v>
+        <v>183.8</v>
       </c>
       <c r="C107" t="n">
-        <v>184.8</v>
+        <v>185.1</v>
       </c>
       <c r="D107" t="n">
-        <v>184.8</v>
+        <v>185.1</v>
       </c>
       <c r="E107" t="n">
-        <v>184.8</v>
+        <v>183.8</v>
       </c>
       <c r="F107" t="n">
-        <v>268.182</v>
+        <v>113</v>
       </c>
       <c r="G107" t="n">
-        <v>-182971.4799300732</v>
+        <v>-127205.9449300732</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>183.8</v>
+      </c>
       <c r="K107" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4400,32 +4382,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>183.9</v>
+        <v>185.1</v>
       </c>
       <c r="C108" t="n">
-        <v>183.9</v>
+        <v>185.1</v>
       </c>
       <c r="D108" t="n">
-        <v>183.9</v>
+        <v>185.1</v>
       </c>
       <c r="E108" t="n">
-        <v>183.9</v>
+        <v>185.1</v>
       </c>
       <c r="F108" t="n">
-        <v>3204.1758</v>
+        <v>1946.6461</v>
       </c>
       <c r="G108" t="n">
-        <v>-186175.6557300732</v>
+        <v>-127205.9449300732</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>185.1</v>
+      </c>
       <c r="K108" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4442,32 +4426,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>183.8</v>
+        <v>185.1</v>
       </c>
       <c r="C109" t="n">
-        <v>183.6</v>
+        <v>185.1</v>
       </c>
       <c r="D109" t="n">
-        <v>183.8</v>
+        <v>185.1</v>
       </c>
       <c r="E109" t="n">
-        <v>183.6</v>
+        <v>185.1</v>
       </c>
       <c r="F109" t="n">
-        <v>9341.3815</v>
+        <v>853.4417999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>-195517.0372300732</v>
+        <v>-127205.9449300732</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>185.1</v>
+      </c>
       <c r="K109" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4484,22 +4470,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>184</v>
+        <v>185.1</v>
       </c>
       <c r="C110" t="n">
-        <v>183.9</v>
+        <v>185.1</v>
       </c>
       <c r="D110" t="n">
-        <v>184</v>
+        <v>185.1</v>
       </c>
       <c r="E110" t="n">
-        <v>183.9</v>
+        <v>185.1</v>
       </c>
       <c r="F110" t="n">
-        <v>21599.248</v>
+        <v>163.0049</v>
       </c>
       <c r="G110" t="n">
-        <v>-173917.7892300732</v>
+        <v>-127205.9449300732</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4509,7 +4495,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4526,22 +4512,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>184.7</v>
+        <v>185.1</v>
       </c>
       <c r="C111" t="n">
-        <v>184.7</v>
+        <v>185.1</v>
       </c>
       <c r="D111" t="n">
-        <v>184.7</v>
+        <v>185.1</v>
       </c>
       <c r="E111" t="n">
-        <v>184.7</v>
+        <v>185.1</v>
       </c>
       <c r="F111" t="n">
-        <v>5893.9669</v>
+        <v>1151.7145</v>
       </c>
       <c r="G111" t="n">
-        <v>-168023.8223300732</v>
+        <v>-127205.9449300732</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4551,7 +4537,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4568,32 +4554,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>184.7</v>
+        <v>185.5</v>
       </c>
       <c r="C112" t="n">
-        <v>184.7</v>
+        <v>185.5</v>
       </c>
       <c r="D112" t="n">
-        <v>184.7</v>
+        <v>185.5</v>
       </c>
       <c r="E112" t="n">
-        <v>184.7</v>
+        <v>185.5</v>
       </c>
       <c r="F112" t="n">
-        <v>4584.6202</v>
+        <v>2.68</v>
       </c>
       <c r="G112" t="n">
-        <v>-168023.8223300732</v>
+        <v>-127203.2649300732</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>185.1</v>
+      </c>
       <c r="K112" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4610,22 +4598,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>183.4</v>
+        <v>185.5</v>
       </c>
       <c r="C113" t="n">
-        <v>183.2</v>
+        <v>185.5</v>
       </c>
       <c r="D113" t="n">
-        <v>183.4</v>
+        <v>185.5</v>
       </c>
       <c r="E113" t="n">
-        <v>183.2</v>
+        <v>185.5</v>
       </c>
       <c r="F113" t="n">
-        <v>5218.2743</v>
+        <v>7409.1446</v>
       </c>
       <c r="G113" t="n">
-        <v>-173242.0966300732</v>
+        <v>-127203.2649300732</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4635,7 +4623,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4652,22 +4640,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>183.2</v>
+        <v>186.3</v>
       </c>
       <c r="C114" t="n">
-        <v>184.6</v>
+        <v>186.3</v>
       </c>
       <c r="D114" t="n">
-        <v>184.6</v>
+        <v>186.3</v>
       </c>
       <c r="E114" t="n">
-        <v>183.2</v>
+        <v>186.3</v>
       </c>
       <c r="F114" t="n">
-        <v>4502.2251</v>
+        <v>5</v>
       </c>
       <c r="G114" t="n">
-        <v>-168739.8715300732</v>
+        <v>-127198.2649300732</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4677,7 +4665,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4694,22 +4682,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>184.7</v>
+        <v>186.3</v>
       </c>
       <c r="C115" t="n">
-        <v>184.8</v>
+        <v>186.3</v>
       </c>
       <c r="D115" t="n">
-        <v>184.8</v>
+        <v>186.3</v>
       </c>
       <c r="E115" t="n">
-        <v>184.7</v>
+        <v>186.3</v>
       </c>
       <c r="F115" t="n">
-        <v>4003</v>
+        <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>-164736.8715300732</v>
+        <v>-127198.2649300732</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4719,7 +4707,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4736,22 +4724,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>183.9</v>
+        <v>185.5</v>
       </c>
       <c r="C116" t="n">
-        <v>183.9</v>
+        <v>185.5</v>
       </c>
       <c r="D116" t="n">
-        <v>183.9</v>
+        <v>185.5</v>
       </c>
       <c r="E116" t="n">
-        <v>183.9</v>
+        <v>185.5</v>
       </c>
       <c r="F116" t="n">
-        <v>17.3738</v>
+        <v>577.1642000000001</v>
       </c>
       <c r="G116" t="n">
-        <v>-164754.2453300732</v>
+        <v>-127775.4291300732</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4761,7 +4749,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>184.6</v>
+        <v>184</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4778,22 +4766,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>183.9</v>
+        <v>186.4</v>
       </c>
       <c r="C117" t="n">
-        <v>183.9</v>
+        <v>186.4</v>
       </c>
       <c r="D117" t="n">
-        <v>183.9</v>
+        <v>186.4</v>
       </c>
       <c r="E117" t="n">
-        <v>183.9</v>
+        <v>186.4</v>
       </c>
       <c r="F117" t="n">
-        <v>298.6262</v>
+        <v>5</v>
       </c>
       <c r="G117" t="n">
-        <v>-164754.2453300732</v>
+        <v>-127770.4291300732</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4803,17 +4791,2999 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
+        <v>184</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="C118" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="D118" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="E118" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="F118" t="n">
+        <v>10</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-127760.4291300732</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>184</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>187</v>
+      </c>
+      <c r="C119" t="n">
+        <v>188</v>
+      </c>
+      <c r="D119" t="n">
+        <v>188</v>
+      </c>
+      <c r="E119" t="n">
+        <v>187</v>
+      </c>
+      <c r="F119" t="n">
+        <v>22451</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-105309.4291300732</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>184</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>188</v>
+      </c>
+      <c r="C120" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="D120" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="E120" t="n">
+        <v>188</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2134</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-103175.4291300732</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>184</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>189</v>
+      </c>
+      <c r="C121" t="n">
+        <v>189</v>
+      </c>
+      <c r="D121" t="n">
+        <v>189</v>
+      </c>
+      <c r="E121" t="n">
+        <v>189</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-103170.4291300732</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>184</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>189</v>
+      </c>
+      <c r="C122" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>189</v>
+      </c>
+      <c r="F122" t="n">
+        <v>6700</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-96470.42913007323</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>184</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3828.2238</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-100298.6529300732</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>184</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="C124" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="D124" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3268.8491</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-103567.5020300732</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>184</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="C125" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="D125" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="E125" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="F125" t="n">
+        <v>542.8247</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-104110.3267300732</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>184</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="C126" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1829.454</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-102280.8727300732</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>184</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="C127" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="D127" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="F127" t="n">
+        <v>8.473100000000001</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-102289.3458300732</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>184</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1070</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-101219.3458300732</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>184</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="F129" t="n">
+        <v>5</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-101214.3458300732</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>184</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>6810</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-94404.34583007325</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>184</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>502.2132</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-93902.13263007325</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>184</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>18.5914</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-93902.13263007325</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>184</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="F133" t="n">
+        <v>9950</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-103852.1326300732</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>184</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2677.742</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-106529.8746300732</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>184</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="C135" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="D135" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="E135" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>254.377</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-106784.2516300732</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>184</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="C136" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D136" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-106781.5916300732</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>184</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>186</v>
+      </c>
+      <c r="C137" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>186</v>
+      </c>
+      <c r="E137" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>17925.489</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-124707.0806300732</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>184</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>186</v>
+      </c>
+      <c r="C138" t="n">
+        <v>186</v>
+      </c>
+      <c r="D138" t="n">
+        <v>186</v>
+      </c>
+      <c r="E138" t="n">
+        <v>186</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2058.6175</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-122648.4631300732</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>184</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>186</v>
+      </c>
+      <c r="C139" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>186</v>
+      </c>
+      <c r="F139" t="n">
+        <v>85</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-122563.4631300732</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>184</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>16</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-122563.4631300732</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>184</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>540.623</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-122563.4631300732</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>184</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1073.892</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-123637.3551300733</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>184</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-123634.6951300732</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>184</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1403</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-125037.6951300732</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>184</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="C145" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E145" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-125034.6951300732</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>184</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>400</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-125434.6951300732</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>184</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="C147" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-125432.0251300732</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>184</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D148" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5674.0429</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-131106.0680300732</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>184</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1924</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-131106.0680300732</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>184</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3151.2797</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-131106.0680300732</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>184</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1109.3869</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-131106.0680300732</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>184</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>185</v>
+      </c>
+      <c r="C152" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="D152" t="n">
+        <v>185</v>
+      </c>
+      <c r="E152" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1456.1464</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-132562.2144300732</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>184</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="C153" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="D153" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="E153" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="F153" t="n">
+        <v>19.5559</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-132562.2144300732</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>184</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="C154" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="D154" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="E154" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4766.9322</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-137329.1466300733</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>184</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
         <v>184.6</v>
       </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="C155" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3242.1708</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-140571.3174300732</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>184</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="C156" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="E156" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1192.4292</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-140571.3174300732</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>184</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="C157" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="D157" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="E157" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1651.7858</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-138919.5316300732</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>184</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="C158" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="D158" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="E158" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>17806.572</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-156726.1036300733</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>184</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>13207.0767</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-156726.1036300733</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>184</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="C160" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="E160" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2530.7148</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-154195.3888300733</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>184</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>185</v>
+      </c>
+      <c r="D161" t="n">
+        <v>185</v>
+      </c>
+      <c r="E161" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5441.9999</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-148753.3889300733</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>184</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>185</v>
+      </c>
+      <c r="C162" t="n">
+        <v>185</v>
+      </c>
+      <c r="D162" t="n">
+        <v>185</v>
+      </c>
+      <c r="E162" t="n">
+        <v>185</v>
+      </c>
+      <c r="F162" t="n">
+        <v>716.7177</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-148753.3889300733</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>184</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>185</v>
+      </c>
+      <c r="C163" t="n">
+        <v>185</v>
+      </c>
+      <c r="D163" t="n">
+        <v>185</v>
+      </c>
+      <c r="E163" t="n">
+        <v>185</v>
+      </c>
+      <c r="F163" t="n">
+        <v>244.7343</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-148753.3889300733</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>184</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="C164" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="D164" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2626.1795</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-151379.5684300733</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>184</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="C165" t="n">
+        <v>185</v>
+      </c>
+      <c r="D165" t="n">
+        <v>185</v>
+      </c>
+      <c r="E165" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-151366.8684300733</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>184</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>185</v>
+      </c>
+      <c r="C166" t="n">
+        <v>185</v>
+      </c>
+      <c r="D166" t="n">
+        <v>185</v>
+      </c>
+      <c r="E166" t="n">
+        <v>185</v>
+      </c>
+      <c r="F166" t="n">
+        <v>35.848</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-151366.8684300733</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>184</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="C167" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3918.6947</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-155285.5631300732</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>184</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="C168" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="D168" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="E168" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F168" t="n">
+        <v>15947.7257</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-139337.8374300732</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>184</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="C169" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="E169" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>20303.6461</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-159641.4835300733</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>184</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>184</v>
+      </c>
+      <c r="C170" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="D170" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="E170" t="n">
+        <v>184</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4586.3041</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-155055.1794300732</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>184</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="C171" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="D171" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="E171" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="F171" t="n">
+        <v>23368.0914</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-178423.2708300732</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>184</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="C172" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="D172" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="E172" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.6524</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-178422.6184300733</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>184</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="C173" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="D173" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="F173" t="n">
+        <v>6013.5069</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-172409.1115300732</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>184</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>187</v>
+      </c>
+      <c r="C174" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="D174" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>187</v>
+      </c>
+      <c r="F174" t="n">
+        <v>3767</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-176176.1115300732</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>184</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="C175" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="E175" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>9610.265100000001</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-185786.3766300732</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>184</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="D176" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="F176" t="n">
+        <v>6541.4303</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-179244.9463300732</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>184</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>184</v>
+      </c>
+      <c r="C177" t="n">
+        <v>185</v>
+      </c>
+      <c r="D177" t="n">
+        <v>185</v>
+      </c>
+      <c r="E177" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3458.3516</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-182703.2979300732</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>184</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="C178" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="D178" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="E178" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="F178" t="n">
+        <v>268.182</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-182971.4799300732</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>184</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="C179" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D179" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="E179" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3204.1758</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-186175.6557300732</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>184</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="C180" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="D180" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="E180" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="F180" t="n">
+        <v>9341.3815</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-195517.0372300732</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>184</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>184</v>
+      </c>
+      <c r="C181" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D181" t="n">
+        <v>184</v>
+      </c>
+      <c r="E181" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F181" t="n">
+        <v>21599.248</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-173917.7892300732</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>184</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="C182" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="D182" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5893.9669</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-168023.8223300732</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>184</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="C183" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="D183" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="E183" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="F183" t="n">
+        <v>4584.6202</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-168023.8223300732</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>184</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="C184" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="E184" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="F184" t="n">
+        <v>5218.2743</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-173242.0966300732</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>184</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="D185" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="E185" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="F185" t="n">
+        <v>4502.2251</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-168739.8715300732</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>184</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="C186" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="D186" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="E186" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="F186" t="n">
+        <v>4003</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-164736.8715300732</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>184</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="C187" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D187" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="E187" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F187" t="n">
+        <v>17.3738</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-164754.2453300732</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>184</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="C188" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D188" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F188" t="n">
+        <v>298.6262</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-164754.2453300732</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>184</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest INS.xlsx
+++ b/BackTest/2020-01-23 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N188"/>
+  <dimension ref="A1:M188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-12268.464281705</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-20184.867781705</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-19821.077181705</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-19993.236781705</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-27790.093381705</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-33111.4082300732</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-33111.4082300732</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-70431.1553300732</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,19 @@
         <v>-69567.13053007321</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>184.1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>184.1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2701,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2740,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2779,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2812,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2845,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2878,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2911,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2944,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2975,15 @@
         <v>-76286.8887300732</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +3008,15 @@
         <v>-76264.2554300732</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3041,19 @@
         <v>-81237.6369300732</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>185</v>
+      </c>
+      <c r="J80" t="n">
+        <v>185</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3080,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>185</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3117,21 @@
         <v>-89531.4062300732</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>185</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3156,15 @@
         <v>-91020.86493007321</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3189,15 @@
         <v>-91020.86493007321</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3222,15 @@
         <v>-91015.86493007321</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3255,15 @@
         <v>-95020.86493007321</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3290,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3323,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3356,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3387,21 @@
         <v>-124482.5650300732</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>183.2</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,22 +3426,19 @@
         <v>-124082.5650300732</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>183</v>
-      </c>
-      <c r="K91" t="n">
-        <v>183</v>
-      </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3700,26 +3463,19 @@
         <v>-124082.5650300732</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>184</v>
-      </c>
-      <c r="K92" t="n">
-        <v>183</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3744,26 +3500,21 @@
         <v>-124082.5650300732</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
         <v>184</v>
       </c>
-      <c r="K93" t="n">
-        <v>183</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3788,22 +3539,21 @@
         <v>-124082.5650300732</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
         <v>184</v>
       </c>
-      <c r="K94" t="n">
-        <v>184</v>
-      </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3828,26 +3578,21 @@
         <v>-124082.5650300732</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
         <v>184</v>
       </c>
-      <c r="K95" t="n">
-        <v>184</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3872,26 +3617,21 @@
         <v>-123842.3647300732</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
         <v>184</v>
       </c>
-      <c r="K96" t="n">
-        <v>184</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3916,26 +3656,21 @@
         <v>-123173.1640300732</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
         <v>184.5</v>
       </c>
-      <c r="K97" t="n">
-        <v>184</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3960,26 +3695,21 @@
         <v>-126445.6916300732</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
         <v>184.6</v>
       </c>
-      <c r="K98" t="n">
-        <v>184</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4004,26 +3734,21 @@
         <v>-126445.6916300732</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
         <v>184</v>
       </c>
-      <c r="K99" t="n">
-        <v>184</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4048,26 +3773,21 @@
         <v>-125344.3613300732</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
         <v>184</v>
       </c>
-      <c r="K100" t="n">
-        <v>184</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4092,26 +3812,19 @@
         <v>-125344.3613300732</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K101" t="n">
-        <v>184</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4136,26 +3849,21 @@
         <v>-125439.3613300732</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
         <v>184.6</v>
       </c>
-      <c r="K102" t="n">
-        <v>184</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4180,26 +3888,19 @@
         <v>-124936.2104300732</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K103" t="n">
-        <v>184</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4224,26 +3925,19 @@
         <v>-124936.2104300732</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K104" t="n">
-        <v>184</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4268,26 +3962,19 @@
         <v>-123022.9479300732</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K105" t="n">
-        <v>184</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4312,26 +3999,21 @@
         <v>-127318.9449300732</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
         <v>185.2</v>
       </c>
-      <c r="K106" t="n">
-        <v>184</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4356,26 +4038,21 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
         <v>183.8</v>
       </c>
-      <c r="K107" t="n">
-        <v>184</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4400,26 +4077,21 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
         <v>185.1</v>
       </c>
-      <c r="K108" t="n">
-        <v>184</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4444,26 +4116,21 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
         <v>185.1</v>
       </c>
-      <c r="K109" t="n">
-        <v>184</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4488,24 +4155,21 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>185.1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>184</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4532,22 +4196,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>184</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4572,26 +4231,19 @@
         <v>-127203.2649300732</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="K112" t="n">
-        <v>184</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4616,24 +4268,21 @@
         <v>-127203.2649300732</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>185.5</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>184</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4660,22 +4309,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>184</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4702,22 +4346,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>184</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4744,22 +4383,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>184</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4784,24 +4418,21 @@
         <v>-127770.4291300732</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>185.5</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>184</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4826,24 +4457,21 @@
         <v>-127760.4291300732</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>186.4</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>184</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4870,22 +4498,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>184</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4912,22 +4535,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>184</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4954,22 +4572,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>184</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4996,22 +4609,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>184</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5038,22 +4646,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>184</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5080,22 +4683,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>184</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5122,22 +4720,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>184</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5164,22 +4757,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>184</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5206,22 +4794,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>184</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5248,22 +4831,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>184</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5288,24 +4866,21 @@
         <v>-101214.3458300732</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>186.1</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>184</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5330,24 +4905,21 @@
         <v>-94404.34583007325</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>186.6</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>184</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5372,24 +4944,21 @@
         <v>-93902.13263007325</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>187.7</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>184</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5416,22 +4985,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>184</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5458,22 +5022,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>184</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5500,22 +5059,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>184</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5542,22 +5096,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>184</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5584,22 +5133,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>184</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5626,22 +5170,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>184</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5668,22 +5207,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>184</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5710,22 +5244,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>184</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5752,22 +5281,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>184</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5794,22 +5318,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>184</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5836,22 +5355,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>184</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5878,22 +5392,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>184</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5920,22 +5429,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>184</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5962,22 +5466,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>184</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6004,22 +5503,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>184</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6046,22 +5540,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>184</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6088,22 +5577,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>184</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6130,22 +5614,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>184</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6172,22 +5651,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>184</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6214,22 +5688,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>184</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6256,22 +5725,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>184</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6296,24 +5760,19 @@
         <v>-132562.2144300732</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>184</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6338,24 +5797,19 @@
         <v>-137329.1466300733</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>184</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6380,24 +5834,19 @@
         <v>-140571.3174300732</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>184</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6422,24 +5871,19 @@
         <v>-140571.3174300732</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>184</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6464,24 +5908,19 @@
         <v>-138919.5316300732</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>184</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6508,22 +5947,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>184</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6548,24 +5982,19 @@
         <v>-156726.1036300733</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>184</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6590,24 +6019,19 @@
         <v>-154195.3888300733</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>184</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6632,24 +6056,19 @@
         <v>-148753.3889300733</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>184</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6674,24 +6093,19 @@
         <v>-148753.3889300733</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>184</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6716,24 +6130,19 @@
         <v>-148753.3889300733</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>184</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6758,24 +6167,19 @@
         <v>-151379.5684300733</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>184</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6800,24 +6204,19 @@
         <v>-151366.8684300733</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>184</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6842,24 +6241,19 @@
         <v>-151366.8684300733</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>184</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6886,22 +6280,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>184</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6926,24 +6315,19 @@
         <v>-139337.8374300732</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>184</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6970,22 +6354,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>184</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7012,22 +6391,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>184</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7054,22 +6428,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>184</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7096,22 +6465,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>184</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7138,22 +6502,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>184</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7180,22 +6539,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>184</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7222,22 +6576,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>184</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7264,22 +6613,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>184</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7306,22 +6650,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>184</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7348,22 +6687,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>184</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7390,22 +6724,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>184</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7432,22 +6761,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>184</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7474,22 +6798,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>184</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7516,22 +6835,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>184</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7558,22 +6872,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>184</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7600,22 +6909,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>184</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7642,22 +6946,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>184</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7684,22 +6983,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>184</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7726,22 +7020,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>184</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7768,24 +7057,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>184</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest INS.xlsx
+++ b/BackTest/2020-01-23 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-12268.464281705</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-12537.329681705</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-12807.635181705</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-20184.867781705</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-19986.302981705</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-19821.077181705</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-19993.236781705</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-27790.093381705</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-25084.1918300732</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-33111.4082300732</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-33111.4082300732</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-33111.4082300732</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-33111.4082300732</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-33111.4082300732</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-33111.4082300732</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-30874.98823007321</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-18213.76183007321</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-18940.95353007321</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-18938.29353007321</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-23152.29353007321</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-26332.84453007321</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-27293.45873007321</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-27125.83883007321</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-27123.16883007321</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-28188.06273007321</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-28014.96283007321</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-70431.1553300732</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2662,14 +2662,10 @@
         <v>-69567.13053007321</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>184.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2702,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2741,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2975,7 +2959,7 @@
         <v>-76286.8887300732</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3008,7 +2992,7 @@
         <v>-76264.2554300732</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3041,14 +3025,10 @@
         <v>-81237.6369300732</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>185</v>
-      </c>
-      <c r="J80" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
@@ -3081,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>185</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3117,17 +3091,11 @@
         <v>-89531.4062300732</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>185</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3156,7 +3124,7 @@
         <v>-91020.86493007321</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3189,7 +3157,7 @@
         <v>-91020.86493007321</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3222,7 +3190,7 @@
         <v>-91015.86493007321</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3255,7 +3223,7 @@
         <v>-95020.86493007321</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3387,17 +3355,11 @@
         <v>-124482.5650300732</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>183.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3430,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3467,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3500,17 +3454,11 @@
         <v>-124082.5650300732</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3539,17 +3487,11 @@
         <v>-124082.5650300732</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3578,17 +3520,11 @@
         <v>-124082.5650300732</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3617,17 +3553,11 @@
         <v>-123842.3647300732</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3656,17 +3586,11 @@
         <v>-123173.1640300732</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>184.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3695,17 +3619,11 @@
         <v>-126445.6916300732</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>184.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3734,17 +3652,11 @@
         <v>-126445.6916300732</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3773,17 +3685,11 @@
         <v>-125344.3613300732</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3812,15 +3718,15 @@
         <v>-125344.3613300732</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3849,15 +3755,15 @@
         <v>-125439.3613300732</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -3891,10 +3797,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -3925,10 +3833,14 @@
         <v>-124936.2104300732</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="J104" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3962,10 +3874,14 @@
         <v>-123022.9479300732</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="J105" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3999,12 +3915,14 @@
         <v>-127318.9449300732</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>185.2</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4038,12 +3956,14 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>183.8</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4077,12 +3997,14 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>185.1</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4116,12 +4038,14 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>185.1</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4155,12 +4079,12 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4197,7 +4121,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4234,7 +4160,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4268,12 +4196,12 @@
         <v>-127203.2649300732</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4307,10 +4235,14 @@
         <v>-127198.2649300732</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="J114" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4347,7 +4279,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4384,7 +4318,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4418,12 +4354,14 @@
         <v>-127770.4291300732</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>185.5</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4457,12 +4395,12 @@
         <v>-127760.4291300732</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4499,7 +4437,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4536,7 +4476,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4573,7 +4515,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4610,7 +4554,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4647,7 +4593,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4684,7 +4632,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4721,7 +4671,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4758,7 +4710,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4795,7 +4749,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4832,7 +4788,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4866,12 +4824,12 @@
         <v>-101214.3458300732</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4905,12 +4863,12 @@
         <v>-94404.34583007325</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4944,12 +4902,12 @@
         <v>-93902.13263007325</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4986,7 +4944,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5023,7 +4983,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5060,7 +5022,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5097,7 +5061,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5134,7 +5100,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5171,7 +5139,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5208,7 +5178,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5245,7 +5217,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5282,7 +5256,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5319,7 +5295,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5356,7 +5334,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5393,7 +5373,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5430,7 +5412,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5467,7 +5451,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5504,7 +5490,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5541,7 +5529,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5578,7 +5568,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5615,7 +5607,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5652,7 +5646,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5689,7 +5685,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5726,7 +5724,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5760,10 +5760,12 @@
         <v>-132562.2144300732</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5797,10 +5799,12 @@
         <v>-137329.1466300733</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5834,10 +5838,12 @@
         <v>-140571.3174300732</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5871,10 +5877,12 @@
         <v>-140571.3174300732</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5908,10 +5916,12 @@
         <v>-138919.5316300732</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5948,7 +5958,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5982,10 +5994,12 @@
         <v>-156726.1036300733</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6019,10 +6033,12 @@
         <v>-154195.3888300733</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6056,10 +6072,12 @@
         <v>-148753.3889300733</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6093,10 +6111,12 @@
         <v>-148753.3889300733</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6130,10 +6150,12 @@
         <v>-148753.3889300733</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6167,10 +6189,12 @@
         <v>-151379.5684300733</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6204,10 +6228,12 @@
         <v>-151366.8684300733</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6241,10 +6267,12 @@
         <v>-151366.8684300733</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6281,7 +6309,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6315,10 +6345,12 @@
         <v>-139337.8374300732</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6355,7 +6387,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6392,7 +6426,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6429,7 +6465,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6466,7 +6504,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6503,7 +6543,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6540,7 +6582,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6577,7 +6621,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6614,7 +6660,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6651,7 +6699,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6688,7 +6738,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6725,7 +6777,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6762,7 +6816,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6799,7 +6855,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6836,7 +6894,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6873,7 +6933,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6910,7 +6972,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6947,7 +7011,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6984,7 +7050,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7021,7 +7089,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7058,7 +7128,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>184.6</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7070,6 +7142,6 @@
       <c r="M188" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest INS.xlsx
+++ b/BackTest/2020-01-23 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-12268.464281705</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-12537.329681705</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-12807.635181705</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-20184.867781705</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-19986.302981705</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-19821.077181705</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-19993.236781705</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-27790.093381705</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-25084.1918300732</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-33111.4082300732</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-33111.4082300732</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-33111.4082300732</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-33111.4082300732</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-33111.4082300732</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-33111.4082300732</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-30874.98823007321</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-18213.76183007321</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-18940.95353007321</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-18938.29353007321</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-23152.29353007321</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-26332.84453007321</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-27293.45873007321</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-27125.83883007321</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-28188.06273007321</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-28014.96283007321</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -3718,14 +3718,10 @@
         <v>-125344.3613300732</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="J101" t="n">
-        <v>184.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
@@ -3758,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3797,3228 +3787,2720 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
         <v>184.6</v>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="C104" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="D104" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="E104" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="F104" t="n">
+        <v>558.1647</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-124936.2104300732</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="C105" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1913.2625</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-123022.9479300732</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="C106" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="D106" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="E106" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4295.997</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-127318.9449300732</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="C107" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="F107" t="n">
+        <v>113</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-127205.9449300732</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1946.6461</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-127205.9449300732</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>853.4417999999999</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-127205.9449300732</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>163.0049</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-127205.9449300732</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1151.7145</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-127205.9449300732</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-127203.2649300732</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C113" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F113" t="n">
+        <v>7409.1446</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-127203.2649300732</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="E114" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-127198.2649300732</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="C115" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="E115" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>10</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-127198.2649300732</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>577.1642000000001</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-127775.4291300732</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="C117" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="D117" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="E117" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>5</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-127770.4291300732</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="C118" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="D118" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="E118" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="F118" t="n">
+        <v>10</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-127760.4291300732</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>187</v>
+      </c>
+      <c r="C119" t="n">
+        <v>188</v>
+      </c>
+      <c r="D119" t="n">
+        <v>188</v>
+      </c>
+      <c r="E119" t="n">
+        <v>187</v>
+      </c>
+      <c r="F119" t="n">
+        <v>22451</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-105309.4291300732</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>188</v>
+      </c>
+      <c r="C120" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="D120" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="E120" t="n">
+        <v>188</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2134</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-103175.4291300732</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>189</v>
+      </c>
+      <c r="C121" t="n">
+        <v>189</v>
+      </c>
+      <c r="D121" t="n">
+        <v>189</v>
+      </c>
+      <c r="E121" t="n">
+        <v>189</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-103170.4291300732</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>189</v>
+      </c>
+      <c r="C122" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>189</v>
+      </c>
+      <c r="F122" t="n">
+        <v>6700</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-96470.42913007323</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3828.2238</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-100298.6529300732</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="C124" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="D124" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3268.8491</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-103567.5020300732</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="C125" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="D125" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="E125" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="F125" t="n">
+        <v>542.8247</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-104110.3267300732</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="C126" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1829.454</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-102280.8727300732</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="C127" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="D127" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="F127" t="n">
+        <v>8.473100000000001</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-102289.3458300732</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1070</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-101219.3458300732</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="F129" t="n">
+        <v>5</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-101214.3458300732</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>6810</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-94404.34583007325</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>502.2132</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-93902.13263007325</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>18.5914</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-93902.13263007325</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="F133" t="n">
+        <v>9950</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-103852.1326300732</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2677.742</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-106529.8746300732</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="C135" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="D135" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="E135" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>254.377</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-106784.2516300732</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="C136" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D136" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-106781.5916300732</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>186</v>
+      </c>
+      <c r="C137" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>186</v>
+      </c>
+      <c r="E137" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>17925.489</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-124707.0806300732</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>186</v>
+      </c>
+      <c r="C138" t="n">
+        <v>186</v>
+      </c>
+      <c r="D138" t="n">
+        <v>186</v>
+      </c>
+      <c r="E138" t="n">
+        <v>186</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2058.6175</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-122648.4631300732</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>186</v>
+      </c>
+      <c r="C139" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>186</v>
+      </c>
+      <c r="F139" t="n">
+        <v>85</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-122563.4631300732</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>16</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-122563.4631300732</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>540.623</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-122563.4631300732</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1073.892</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-123637.3551300733</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-123634.6951300732</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1403</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-125037.6951300732</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="C145" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E145" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-125034.6951300732</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>400</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-125434.6951300732</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="C147" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-125432.0251300732</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D148" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5674.0429</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-131106.0680300732</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1924</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-131106.0680300732</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3151.2797</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-131106.0680300732</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1109.3869</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-131106.0680300732</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>185</v>
+      </c>
+      <c r="C152" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="D152" t="n">
+        <v>185</v>
+      </c>
+      <c r="E152" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1456.1464</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-132562.2144300732</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="C153" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="D153" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="E153" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="F153" t="n">
+        <v>19.5559</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-132562.2144300732</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="C154" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="D154" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="E154" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4766.9322</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-137329.1466300733</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="C155" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3242.1708</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-140571.3174300732</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="C156" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="E156" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1192.4292</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-140571.3174300732</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="C157" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="D157" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="E157" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1651.7858</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-138919.5316300732</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="C158" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="D158" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="E158" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>17806.572</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-156726.1036300733</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>13207.0767</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-156726.1036300733</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="C160" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="E160" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2530.7148</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-154195.3888300733</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>185</v>
+      </c>
+      <c r="D161" t="n">
+        <v>185</v>
+      </c>
+      <c r="E161" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5441.9999</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-148753.3889300733</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>185</v>
+      </c>
+      <c r="C162" t="n">
+        <v>185</v>
+      </c>
+      <c r="D162" t="n">
+        <v>185</v>
+      </c>
+      <c r="E162" t="n">
+        <v>185</v>
+      </c>
+      <c r="F162" t="n">
+        <v>716.7177</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-148753.3889300733</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>185</v>
+      </c>
+      <c r="C163" t="n">
+        <v>185</v>
+      </c>
+      <c r="D163" t="n">
+        <v>185</v>
+      </c>
+      <c r="E163" t="n">
+        <v>185</v>
+      </c>
+      <c r="F163" t="n">
+        <v>244.7343</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-148753.3889300733</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="C164" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="D164" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2626.1795</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-151379.5684300733</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="C165" t="n">
+        <v>185</v>
+      </c>
+      <c r="D165" t="n">
+        <v>185</v>
+      </c>
+      <c r="E165" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-151366.8684300733</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>185</v>
+      </c>
+      <c r="C166" t="n">
+        <v>185</v>
+      </c>
+      <c r="D166" t="n">
+        <v>185</v>
+      </c>
+      <c r="E166" t="n">
+        <v>185</v>
+      </c>
+      <c r="F166" t="n">
+        <v>35.848</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-151366.8684300733</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="C167" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3918.6947</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-155285.5631300732</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="C168" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="D168" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="E168" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F168" t="n">
+        <v>15947.7257</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-139337.8374300732</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="C169" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="E169" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>20303.6461</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-159641.4835300733</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>184</v>
+      </c>
+      <c r="C170" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="D170" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="E170" t="n">
+        <v>184</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4586.3041</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-155055.1794300732</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="C171" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="D171" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="E171" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="F171" t="n">
+        <v>23368.0914</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-178423.2708300732</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="C172" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="D172" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="E172" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.6524</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-178422.6184300733</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="C173" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="D173" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="F173" t="n">
+        <v>6013.5069</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-172409.1115300732</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>187</v>
+      </c>
+      <c r="C174" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="D174" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>187</v>
+      </c>
+      <c r="F174" t="n">
+        <v>3767</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-176176.1115300732</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="C175" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="E175" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>9610.265100000001</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-185786.3766300732</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="D176" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="F176" t="n">
+        <v>6541.4303</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-179244.9463300732</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>184</v>
+      </c>
+      <c r="C177" t="n">
+        <v>185</v>
+      </c>
+      <c r="D177" t="n">
+        <v>185</v>
+      </c>
+      <c r="E177" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3458.3516</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-182703.2979300732</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="C178" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="D178" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="E178" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="F178" t="n">
+        <v>268.182</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-182971.4799300732</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="C179" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D179" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="E179" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3204.1758</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-186175.6557300732</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="C180" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="D180" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="E180" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="F180" t="n">
+        <v>9341.3815</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-195517.0372300732</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>184</v>
+      </c>
+      <c r="C181" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D181" t="n">
+        <v>184</v>
+      </c>
+      <c r="E181" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F181" t="n">
+        <v>21599.248</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-173917.7892300732</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="C182" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="D182" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5893.9669</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-168023.8223300732</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="C183" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="D183" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="E183" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="F183" t="n">
+        <v>4584.6202</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-168023.8223300732</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="C184" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="E184" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="F184" t="n">
+        <v>5218.2743</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-173242.0966300732</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="D185" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="E185" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="F185" t="n">
+        <v>4502.2251</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-168739.8715300732</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="C104" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="D104" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="E104" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="F104" t="n">
-        <v>558.1647</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-124936.2104300732</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="J104" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="C105" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="D105" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="E105" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1913.2625</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-123022.9479300732</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="J105" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="C106" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="D106" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="E106" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="F106" t="n">
-        <v>4295.997</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-127318.9449300732</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="J106" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="C107" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="D107" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="E107" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="F107" t="n">
-        <v>113</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-127205.9449300732</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="J107" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="C108" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="E108" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1946.6461</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-127205.9449300732</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="C109" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="D109" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="E109" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="F109" t="n">
-        <v>853.4417999999999</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-127205.9449300732</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="C110" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="D110" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="E110" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="F110" t="n">
-        <v>163.0049</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-127205.9449300732</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="C111" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="E111" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1151.7145</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-127205.9449300732</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C112" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D112" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E112" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F112" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-127203.2649300732</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C113" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D113" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E113" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F113" t="n">
-        <v>7409.1446</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-127203.2649300732</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>186.3</v>
-      </c>
-      <c r="C114" t="n">
-        <v>186.3</v>
-      </c>
-      <c r="D114" t="n">
-        <v>186.3</v>
-      </c>
-      <c r="E114" t="n">
-        <v>186.3</v>
-      </c>
-      <c r="F114" t="n">
-        <v>5</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-127198.2649300732</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="J114" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>186.3</v>
-      </c>
-      <c r="C115" t="n">
-        <v>186.3</v>
-      </c>
-      <c r="D115" t="n">
-        <v>186.3</v>
-      </c>
-      <c r="E115" t="n">
-        <v>186.3</v>
-      </c>
-      <c r="F115" t="n">
-        <v>10</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-127198.2649300732</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C116" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D116" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E116" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F116" t="n">
-        <v>577.1642000000001</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-127775.4291300732</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="C117" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="D117" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="E117" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="F117" t="n">
-        <v>5</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-127770.4291300732</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="J117" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>186.9</v>
-      </c>
-      <c r="C118" t="n">
-        <v>186.9</v>
-      </c>
-      <c r="D118" t="n">
-        <v>186.9</v>
-      </c>
-      <c r="E118" t="n">
-        <v>186.9</v>
-      </c>
-      <c r="F118" t="n">
-        <v>10</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-127760.4291300732</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>187</v>
-      </c>
-      <c r="C119" t="n">
-        <v>188</v>
-      </c>
-      <c r="D119" t="n">
-        <v>188</v>
-      </c>
-      <c r="E119" t="n">
-        <v>187</v>
-      </c>
-      <c r="F119" t="n">
-        <v>22451</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-105309.4291300732</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>188</v>
-      </c>
-      <c r="C120" t="n">
-        <v>188.7</v>
-      </c>
-      <c r="D120" t="n">
-        <v>188.7</v>
-      </c>
-      <c r="E120" t="n">
-        <v>188</v>
-      </c>
-      <c r="F120" t="n">
-        <v>2134</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-103175.4291300732</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>189</v>
-      </c>
-      <c r="C121" t="n">
-        <v>189</v>
-      </c>
-      <c r="D121" t="n">
-        <v>189</v>
-      </c>
-      <c r="E121" t="n">
-        <v>189</v>
-      </c>
-      <c r="F121" t="n">
-        <v>5</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-103170.4291300732</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>189</v>
-      </c>
-      <c r="C122" t="n">
-        <v>189.1</v>
-      </c>
-      <c r="D122" t="n">
-        <v>189.1</v>
-      </c>
-      <c r="E122" t="n">
-        <v>189</v>
-      </c>
-      <c r="F122" t="n">
-        <v>6700</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-96470.42913007323</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>187.4</v>
-      </c>
-      <c r="C123" t="n">
-        <v>188.9</v>
-      </c>
-      <c r="D123" t="n">
-        <v>188.9</v>
-      </c>
-      <c r="E123" t="n">
-        <v>187.3</v>
-      </c>
-      <c r="F123" t="n">
-        <v>3828.2238</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-100298.6529300732</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="C124" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="D124" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="E124" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="F124" t="n">
-        <v>3268.8491</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-103567.5020300732</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="C125" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="D125" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="E125" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="F125" t="n">
-        <v>542.8247</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-104110.3267300732</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="C126" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="D126" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="E126" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1829.454</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-102280.8727300732</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>185.6</v>
-      </c>
-      <c r="C127" t="n">
-        <v>185.6</v>
-      </c>
-      <c r="D127" t="n">
-        <v>185.6</v>
-      </c>
-      <c r="E127" t="n">
-        <v>185.6</v>
-      </c>
-      <c r="F127" t="n">
-        <v>8.473100000000001</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-102289.3458300732</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="C128" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="D128" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="E128" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1070</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-101219.3458300732</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="C129" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="D129" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="E129" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="F129" t="n">
-        <v>5</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-101214.3458300732</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="C130" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="D130" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="E130" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="F130" t="n">
-        <v>6810</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-94404.34583007325</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="C131" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="D131" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="E131" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="F131" t="n">
-        <v>502.2132</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-93902.13263007325</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="C132" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="D132" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="E132" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="F132" t="n">
-        <v>18.5914</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-93902.13263007325</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="C133" t="n">
-        <v>186.9</v>
-      </c>
-      <c r="D133" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="E133" t="n">
-        <v>186.9</v>
-      </c>
-      <c r="F133" t="n">
-        <v>9950</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-103852.1326300732</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="C134" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="D134" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="E134" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2677.742</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-106529.8746300732</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>186.3</v>
-      </c>
-      <c r="C135" t="n">
-        <v>186.3</v>
-      </c>
-      <c r="D135" t="n">
-        <v>186.3</v>
-      </c>
-      <c r="E135" t="n">
-        <v>186.3</v>
-      </c>
-      <c r="F135" t="n">
-        <v>254.377</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-106784.2516300732</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="C136" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="D136" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="E136" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="F136" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-106781.5916300732</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>186</v>
-      </c>
-      <c r="C137" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="D137" t="n">
-        <v>186</v>
-      </c>
-      <c r="E137" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="F137" t="n">
-        <v>17925.489</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-124707.0806300732</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>186</v>
-      </c>
-      <c r="C138" t="n">
-        <v>186</v>
-      </c>
-      <c r="D138" t="n">
-        <v>186</v>
-      </c>
-      <c r="E138" t="n">
-        <v>186</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2058.6175</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-122648.4631300732</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>186</v>
-      </c>
-      <c r="C139" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="D139" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="E139" t="n">
-        <v>186</v>
-      </c>
-      <c r="F139" t="n">
-        <v>85</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-122563.4631300732</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="C140" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="D140" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="E140" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="F140" t="n">
-        <v>16</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-122563.4631300732</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="C141" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="D141" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="E141" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="F141" t="n">
-        <v>540.623</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-122563.4631300732</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="C142" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="D142" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="E142" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1073.892</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-123637.3551300733</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="C143" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="D143" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="E143" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-123634.6951300732</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="C144" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="D144" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="E144" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1403</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-125037.6951300732</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="C145" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="D145" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="E145" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="F145" t="n">
-        <v>3</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-125034.6951300732</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C146" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D146" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F146" t="n">
-        <v>400</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-125434.6951300732</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="C147" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="D147" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="E147" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-125432.0251300732</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C148" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D148" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E148" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F148" t="n">
-        <v>5674.0429</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-131106.0680300732</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C149" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D149" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E149" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1924</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-131106.0680300732</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C150" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D150" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E150" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F150" t="n">
-        <v>3151.2797</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-131106.0680300732</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C151" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D151" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E151" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1109.3869</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-131106.0680300732</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>185</v>
-      </c>
-      <c r="C152" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="D152" t="n">
-        <v>185</v>
-      </c>
-      <c r="E152" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1456.1464</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-132562.2144300732</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="C153" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="D153" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="E153" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="F153" t="n">
-        <v>19.5559</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-132562.2144300732</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="C154" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="D154" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="E154" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="F154" t="n">
-        <v>4766.9322</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-137329.1466300733</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="C155" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="D155" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="E155" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="F155" t="n">
-        <v>3242.1708</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-140571.3174300732</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="C156" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="D156" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="E156" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1192.4292</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-140571.3174300732</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="C157" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="D157" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="E157" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1651.7858</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-138919.5316300732</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="C158" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="D158" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="E158" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="F158" t="n">
-        <v>17806.572</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-156726.1036300733</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="C159" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="D159" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="E159" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="F159" t="n">
-        <v>13207.0767</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-156726.1036300733</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="C160" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="D160" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="E160" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2530.7148</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-154195.3888300733</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="C161" t="n">
-        <v>185</v>
-      </c>
-      <c r="D161" t="n">
-        <v>185</v>
-      </c>
-      <c r="E161" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="F161" t="n">
-        <v>5441.9999</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-148753.3889300733</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>185</v>
-      </c>
-      <c r="C162" t="n">
-        <v>185</v>
-      </c>
-      <c r="D162" t="n">
-        <v>185</v>
-      </c>
-      <c r="E162" t="n">
-        <v>185</v>
-      </c>
-      <c r="F162" t="n">
-        <v>716.7177</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-148753.3889300733</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>185</v>
-      </c>
-      <c r="C163" t="n">
-        <v>185</v>
-      </c>
-      <c r="D163" t="n">
-        <v>185</v>
-      </c>
-      <c r="E163" t="n">
-        <v>185</v>
-      </c>
-      <c r="F163" t="n">
-        <v>244.7343</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-148753.3889300733</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="C164" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="D164" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="E164" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="F164" t="n">
-        <v>2626.1795</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-151379.5684300733</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="C165" t="n">
-        <v>185</v>
-      </c>
-      <c r="D165" t="n">
-        <v>185</v>
-      </c>
-      <c r="E165" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="F165" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-151366.8684300733</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>185</v>
-      </c>
-      <c r="C166" t="n">
-        <v>185</v>
-      </c>
-      <c r="D166" t="n">
-        <v>185</v>
-      </c>
-      <c r="E166" t="n">
-        <v>185</v>
-      </c>
-      <c r="F166" t="n">
-        <v>35.848</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-151366.8684300733</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="C167" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="D167" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="E167" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="F167" t="n">
-        <v>3918.6947</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-155285.5631300732</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="C168" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="D168" t="n">
-        <v>187.8</v>
-      </c>
-      <c r="E168" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="F168" t="n">
-        <v>15947.7257</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-139337.8374300732</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="C169" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="D169" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="E169" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="F169" t="n">
-        <v>20303.6461</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-159641.4835300733</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>184</v>
-      </c>
-      <c r="C170" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="D170" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="E170" t="n">
-        <v>184</v>
-      </c>
-      <c r="F170" t="n">
-        <v>4586.3041</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-155055.1794300732</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="C171" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="D171" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="E171" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="F171" t="n">
-        <v>23368.0914</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-178423.2708300732</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="C172" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="D172" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="E172" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0.6524</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-178422.6184300733</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="C173" t="n">
-        <v>187.5</v>
-      </c>
-      <c r="D173" t="n">
-        <v>187.5</v>
-      </c>
-      <c r="E173" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="F173" t="n">
-        <v>6013.5069</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-172409.1115300732</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>187</v>
-      </c>
-      <c r="C174" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="D174" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="E174" t="n">
-        <v>187</v>
-      </c>
-      <c r="F174" t="n">
-        <v>3767</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-176176.1115300732</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="C175" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="D175" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="E175" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="F175" t="n">
-        <v>9610.265100000001</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-185786.3766300732</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="C176" t="n">
-        <v>185.9</v>
-      </c>
-      <c r="D176" t="n">
-        <v>185.9</v>
-      </c>
-      <c r="E176" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="F176" t="n">
-        <v>6541.4303</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-179244.9463300732</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>184</v>
-      </c>
-      <c r="C177" t="n">
-        <v>185</v>
-      </c>
-      <c r="D177" t="n">
-        <v>185</v>
-      </c>
-      <c r="E177" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="F177" t="n">
-        <v>3458.3516</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-182703.2979300732</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="C178" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="D178" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="E178" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="F178" t="n">
-        <v>268.182</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-182971.4799300732</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="C179" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="D179" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="E179" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="F179" t="n">
-        <v>3204.1758</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-186175.6557300732</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="C180" t="n">
-        <v>183.6</v>
-      </c>
-      <c r="D180" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="E180" t="n">
-        <v>183.6</v>
-      </c>
-      <c r="F180" t="n">
-        <v>9341.3815</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-195517.0372300732</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>184</v>
-      </c>
-      <c r="C181" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="D181" t="n">
-        <v>184</v>
-      </c>
-      <c r="E181" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="F181" t="n">
-        <v>21599.248</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-173917.7892300732</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="C182" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="D182" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="E182" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="F182" t="n">
-        <v>5893.9669</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-168023.8223300732</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="C183" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="D183" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="E183" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="F183" t="n">
-        <v>4584.6202</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-168023.8223300732</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="C184" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="D184" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="E184" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="F184" t="n">
-        <v>5218.2743</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-173242.0966300732</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="C185" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="D185" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="E185" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="F185" t="n">
-        <v>4502.2251</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-168739.8715300732</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7050,9 +6532,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>184.6</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7089,9 +6569,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>184.6</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7128,9 +6606,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>184.6</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7142,6 +6618,6 @@
       <c r="M188" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest INS.xlsx
+++ b/BackTest/2020-01-23 BackTest INS.xlsx
@@ -451,7 +451,7 @@
         <v>-12268.464281705</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-12537.329681705</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-12807.635181705</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-33111.4082300732</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-27123.16883007321</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -3949,10 +3949,14 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>185.1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
@@ -3982,11 +3986,19 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4027,19 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,10 +4068,14 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>185.1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4081,11 +4105,19 @@
         <v>-127203.2649300732</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4146,19 @@
         <v>-127203.2649300732</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="J113" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,10 +4187,14 @@
         <v>-127198.2649300732</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="J114" t="n">
+        <v>185.5</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
@@ -4180,11 +4224,19 @@
         <v>-127198.2649300732</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="J115" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4265,19 @@
         <v>-127775.4291300732</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="J116" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,10 +4306,14 @@
         <v>-127770.4291300732</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="J117" t="n">
+        <v>185.5</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
@@ -4279,11 +4343,19 @@
         <v>-127760.4291300732</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="J118" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4384,19 @@
         <v>-105309.4291300732</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="J119" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4774,7 +4854,7 @@
         <v>-103852.1326300732</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5170,7 +5250,7 @@
         <v>-125034.6951300732</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5283,7 @@
         <v>-125434.6951300732</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5316,7 @@
         <v>-125432.0251300732</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5349,7 @@
         <v>-131106.0680300732</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5382,7 @@
         <v>-131106.0680300732</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5415,7 @@
         <v>-131106.0680300732</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5467,7 +5547,7 @@
         <v>-137329.1466300733</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5580,7 @@
         <v>-140571.3174300732</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5632,7 +5712,7 @@
         <v>-156726.1036300733</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6490,17 +6570,11 @@
         <v>-168739.8715300732</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>183.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6533,11 +6607,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6570,11 +6640,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6607,11 +6673,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-23 BackTest INS.xlsx
+++ b/BackTest/2020-01-23 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M188"/>
+  <dimension ref="A1:L188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>7101.1249</v>
       </c>
       <c r="G2" t="n">
-        <v>-12268.464281705</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>268.8654</v>
       </c>
       <c r="G3" t="n">
-        <v>-12537.329681705</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>270.3055</v>
       </c>
       <c r="G4" t="n">
-        <v>-12807.635181705</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>7377.2326</v>
       </c>
       <c r="G5" t="n">
-        <v>-20184.867781705</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>198.5648</v>
       </c>
       <c r="G6" t="n">
-        <v>-19986.302981705</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>165.2258</v>
       </c>
       <c r="G7" t="n">
-        <v>-19821.077181705</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>172.1596</v>
       </c>
       <c r="G8" t="n">
-        <v>-19993.236781705</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>7796.8566</v>
       </c>
       <c r="G9" t="n">
-        <v>-27790.093381705</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2705.9015516318</v>
       </c>
       <c r="G10" t="n">
-        <v>-25084.1918300732</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>8027.2164</v>
       </c>
       <c r="G11" t="n">
-        <v>-33111.4082300732</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>10807.2182</v>
       </c>
       <c r="G12" t="n">
-        <v>-33111.4082300732</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>5857.3896</v>
       </c>
       <c r="G13" t="n">
-        <v>-33111.4082300732</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>53.55</v>
       </c>
       <c r="G14" t="n">
-        <v>-33111.4082300732</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1274</v>
       </c>
       <c r="G15" t="n">
-        <v>-33111.4082300732</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>81.88</v>
       </c>
       <c r="G16" t="n">
-        <v>-33111.4082300732</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>2236.42</v>
       </c>
       <c r="G17" t="n">
-        <v>-30874.98823007321</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>12661.2264</v>
       </c>
       <c r="G18" t="n">
-        <v>-18213.76183007321</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>727.1917</v>
       </c>
       <c r="G19" t="n">
-        <v>-18940.95353007321</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2.66</v>
       </c>
       <c r="G20" t="n">
-        <v>-18938.29353007321</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>4214</v>
       </c>
       <c r="G21" t="n">
-        <v>-23152.29353007321</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,19 @@
         <v>3180.551</v>
       </c>
       <c r="G22" t="n">
-        <v>-26332.84453007321</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>185.3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>185.3</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1077,21 @@
         <v>960.6142</v>
       </c>
       <c r="G23" t="n">
-        <v>-27293.45873007321</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1113,21 @@
         <v>10333.3954</v>
       </c>
       <c r="G24" t="n">
-        <v>-27293.45873007321</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1149,15 @@
         <v>1497.75</v>
       </c>
       <c r="G25" t="n">
-        <v>-27293.45873007321</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1179,15 @@
         <v>7360.1264</v>
       </c>
       <c r="G26" t="n">
-        <v>-27293.45873007321</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1209,15 @@
         <v>164.9499</v>
       </c>
       <c r="G27" t="n">
-        <v>-27128.50883007321</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1239,15 @@
         <v>4631.358</v>
       </c>
       <c r="G28" t="n">
-        <v>-27128.50883007321</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1269,15 @@
         <v>2.67</v>
       </c>
       <c r="G29" t="n">
-        <v>-27125.83883007321</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1299,15 @@
         <v>2995.3</v>
       </c>
       <c r="G30" t="n">
-        <v>-27125.83883007321</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1329,15 @@
         <v>2.67</v>
       </c>
       <c r="G31" t="n">
-        <v>-27123.16883007321</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1359,15 @@
         <v>1064.8939</v>
       </c>
       <c r="G32" t="n">
-        <v>-28188.06273007321</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1389,15 @@
         <v>63.9</v>
       </c>
       <c r="G33" t="n">
-        <v>-28251.96273007321</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1419,15 @@
         <v>236.9999</v>
       </c>
       <c r="G34" t="n">
-        <v>-28014.96283007321</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1449,15 @@
         <v>6.6967</v>
       </c>
       <c r="G35" t="n">
-        <v>-28008.26613007321</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1479,15 @@
         <v>467.6641</v>
       </c>
       <c r="G36" t="n">
-        <v>-28475.93023007321</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1509,15 @@
         <v>1064.8939</v>
       </c>
       <c r="G37" t="n">
-        <v>-28475.93023007321</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1539,15 @@
         <v>5427.86</v>
       </c>
       <c r="G38" t="n">
-        <v>-28475.93023007321</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1569,15 @@
         <v>619.9999</v>
       </c>
       <c r="G39" t="n">
-        <v>-28475.93023007321</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1599,15 @@
         <v>487.2702</v>
       </c>
       <c r="G40" t="n">
-        <v>-28475.93023007321</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1629,15 @@
         <v>6682.6356</v>
       </c>
       <c r="G41" t="n">
-        <v>-35158.56583007321</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1659,15 @@
         <v>7942.1291</v>
       </c>
       <c r="G42" t="n">
-        <v>-43100.69493007321</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1689,15 @@
         <v>2838.74</v>
       </c>
       <c r="G43" t="n">
-        <v>-45939.43493007321</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1719,15 @@
         <v>1052.8743</v>
       </c>
       <c r="G44" t="n">
-        <v>-45939.43493007321</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1749,15 @@
         <v>3270.808</v>
       </c>
       <c r="G45" t="n">
-        <v>-45939.43493007321</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1779,15 @@
         <v>10000</v>
       </c>
       <c r="G46" t="n">
-        <v>-35939.43493007321</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1809,15 @@
         <v>549.12</v>
       </c>
       <c r="G47" t="n">
-        <v>-36488.55493007321</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1839,15 @@
         <v>23.17</v>
       </c>
       <c r="G48" t="n">
-        <v>-36511.72493007321</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1869,15 @@
         <v>2598</v>
       </c>
       <c r="G49" t="n">
-        <v>-36511.72493007321</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1899,15 @@
         <v>5302.5134</v>
       </c>
       <c r="G50" t="n">
-        <v>-41814.2383300732</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1929,15 @@
         <v>4347.3376</v>
       </c>
       <c r="G51" t="n">
-        <v>-46161.5759300732</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1959,15 @@
         <v>100</v>
       </c>
       <c r="G52" t="n">
-        <v>-46061.5759300732</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1989,15 @@
         <v>5</v>
       </c>
       <c r="G53" t="n">
-        <v>-46056.5759300732</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2019,15 @@
         <v>2373.9459</v>
       </c>
       <c r="G54" t="n">
-        <v>-48430.5218300732</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2049,15 @@
         <v>21.2734</v>
       </c>
       <c r="G55" t="n">
-        <v>-48451.7952300732</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2079,15 @@
         <v>22.32</v>
       </c>
       <c r="G56" t="n">
-        <v>-48429.4752300732</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2109,15 @@
         <v>347</v>
       </c>
       <c r="G57" t="n">
-        <v>-48776.4752300732</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2139,15 @@
         <v>261.8</v>
       </c>
       <c r="G58" t="n">
-        <v>-49038.2752300732</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2169,15 @@
         <v>7967.5215</v>
       </c>
       <c r="G59" t="n">
-        <v>-57005.79673007321</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2199,15 @@
         <v>2849.6745</v>
       </c>
       <c r="G60" t="n">
-        <v>-57005.79673007321</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2229,15 @@
         <v>5000</v>
       </c>
       <c r="G61" t="n">
-        <v>-62005.79673007321</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2259,15 @@
         <v>7922.1406</v>
       </c>
       <c r="G62" t="n">
-        <v>-69927.93733007321</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2289,15 @@
         <v>18.5395</v>
       </c>
       <c r="G63" t="n">
-        <v>-69927.93733007321</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2319,15 @@
         <v>503.218</v>
       </c>
       <c r="G64" t="n">
-        <v>-70431.1553300732</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2349,15 @@
         <v>1447</v>
       </c>
       <c r="G65" t="n">
-        <v>-70431.1553300732</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2379,15 @@
         <v>312</v>
       </c>
       <c r="G66" t="n">
-        <v>-70119.1553300732</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2409,15 @@
         <v>230</v>
       </c>
       <c r="G67" t="n">
-        <v>-70119.1553300732</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2439,19 @@
         <v>542.0248</v>
       </c>
       <c r="G68" t="n">
-        <v>-69577.13053007321</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I68" t="n">
+        <v>184</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2473,23 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>-69567.13053007321</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>184.1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>184</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2511,21 @@
         <v>2419.2586</v>
       </c>
       <c r="G70" t="n">
-        <v>-71986.38913007321</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>184</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2547,15 @@
         <v>5</v>
       </c>
       <c r="G71" t="n">
-        <v>-71981.38913007321</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2577,15 @@
         <v>3475.332</v>
       </c>
       <c r="G72" t="n">
-        <v>-75456.7211300732</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2607,15 @@
         <v>159.2097</v>
       </c>
       <c r="G73" t="n">
-        <v>-75297.51143007319</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2637,15 @@
         <v>5</v>
       </c>
       <c r="G74" t="n">
-        <v>-75292.51143007319</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2667,15 @@
         <v>459.0099</v>
       </c>
       <c r="G75" t="n">
-        <v>-75751.5213300732</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2697,15 @@
         <v>1500</v>
       </c>
       <c r="G76" t="n">
-        <v>-75751.5213300732</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2727,15 @@
         <v>35.3674</v>
       </c>
       <c r="G77" t="n">
-        <v>-75786.8887300732</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2757,15 @@
         <v>500</v>
       </c>
       <c r="G78" t="n">
-        <v>-76286.8887300732</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2787,15 @@
         <v>22.6333</v>
       </c>
       <c r="G79" t="n">
-        <v>-76264.2554300732</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2817,15 @@
         <v>4973.3815</v>
       </c>
       <c r="G80" t="n">
-        <v>-81237.6369300732</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2847,15 @@
         <v>4962.2769</v>
       </c>
       <c r="G81" t="n">
-        <v>-86199.9138300732</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2877,15 @@
         <v>3331.4924</v>
       </c>
       <c r="G82" t="n">
-        <v>-89531.4062300732</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2907,15 @@
         <v>1489.4587</v>
       </c>
       <c r="G83" t="n">
-        <v>-91020.86493007321</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2937,15 @@
         <v>2000</v>
       </c>
       <c r="G84" t="n">
-        <v>-91020.86493007321</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2967,15 @@
         <v>5</v>
       </c>
       <c r="G85" t="n">
-        <v>-91015.86493007321</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2997,15 @@
         <v>4005</v>
       </c>
       <c r="G86" t="n">
-        <v>-95020.86493007321</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3027,15 @@
         <v>4522.2234</v>
       </c>
       <c r="G87" t="n">
-        <v>-99543.08833007321</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3057,15 @@
         <v>22.6333</v>
       </c>
       <c r="G88" t="n">
-        <v>-99565.72163007321</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3087,15 @@
         <v>19916.8434</v>
       </c>
       <c r="G89" t="n">
-        <v>-119482.5650300732</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3117,15 @@
         <v>5000</v>
       </c>
       <c r="G90" t="n">
-        <v>-124482.5650300732</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3147,19 @@
         <v>400</v>
       </c>
       <c r="G91" t="n">
-        <v>-124082.5650300732</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I91" t="n">
+        <v>183</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3181,23 @@
         <v>422.0088</v>
       </c>
       <c r="G92" t="n">
-        <v>-124082.5650300732</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I92" t="n">
+        <v>183</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3219,23 @@
         <v>680.8866</v>
       </c>
       <c r="G93" t="n">
-        <v>-124082.5650300732</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I93" t="n">
+        <v>183</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3257,15 @@
         <v>7231.3484</v>
       </c>
       <c r="G94" t="n">
-        <v>-124082.5650300732</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3287,15 @@
         <v>10971.0306</v>
       </c>
       <c r="G95" t="n">
-        <v>-124082.5650300732</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3317,15 @@
         <v>240.2003</v>
       </c>
       <c r="G96" t="n">
-        <v>-123842.3647300732</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3347,15 @@
         <v>669.2007</v>
       </c>
       <c r="G97" t="n">
-        <v>-123173.1640300732</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3377,15 @@
         <v>3272.5276</v>
       </c>
       <c r="G98" t="n">
-        <v>-126445.6916300732</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3407,15 @@
         <v>2945.2747</v>
       </c>
       <c r="G99" t="n">
-        <v>-126445.6916300732</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3437,15 @@
         <v>1101.3303</v>
       </c>
       <c r="G100" t="n">
-        <v>-125344.3613300732</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3467,15 @@
         <v>1351.4054</v>
       </c>
       <c r="G101" t="n">
-        <v>-125344.3613300732</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3497,15 @@
         <v>95</v>
       </c>
       <c r="G102" t="n">
-        <v>-125439.3613300732</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3527,15 @@
         <v>503.1509</v>
       </c>
       <c r="G103" t="n">
-        <v>-124936.2104300732</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3557,15 @@
         <v>558.1647</v>
       </c>
       <c r="G104" t="n">
-        <v>-124936.2104300732</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3587,15 @@
         <v>1913.2625</v>
       </c>
       <c r="G105" t="n">
-        <v>-123022.9479300732</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3617,15 @@
         <v>4295.997</v>
       </c>
       <c r="G106" t="n">
-        <v>-127318.9449300732</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3647,15 @@
         <v>113</v>
       </c>
       <c r="G107" t="n">
-        <v>-127205.9449300732</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,22 +3677,15 @@
         <v>1946.6461</v>
       </c>
       <c r="G108" t="n">
-        <v>-127205.9449300732</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3983,26 +3707,15 @@
         <v>853.4417999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>-127205.9449300732</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4024,26 +3737,15 @@
         <v>163.0049</v>
       </c>
       <c r="G110" t="n">
-        <v>-127205.9449300732</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4065,22 +3767,15 @@
         <v>1151.7145</v>
       </c>
       <c r="G111" t="n">
-        <v>-127205.9449300732</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4102,26 +3797,15 @@
         <v>2.68</v>
       </c>
       <c r="G112" t="n">
-        <v>-127203.2649300732</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4143,26 +3827,15 @@
         <v>7409.1446</v>
       </c>
       <c r="G113" t="n">
-        <v>-127203.2649300732</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="J113" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4184,22 +3857,15 @@
         <v>5</v>
       </c>
       <c r="G114" t="n">
-        <v>-127198.2649300732</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="J114" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4221,26 +3887,15 @@
         <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>-127198.2649300732</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>186.3</v>
-      </c>
-      <c r="J115" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4262,26 +3917,15 @@
         <v>577.1642000000001</v>
       </c>
       <c r="G116" t="n">
-        <v>-127775.4291300732</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>186.3</v>
-      </c>
-      <c r="J116" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4303,22 +3947,15 @@
         <v>5</v>
       </c>
       <c r="G117" t="n">
-        <v>-127770.4291300732</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="J117" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4340,26 +3977,15 @@
         <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>-127760.4291300732</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="J118" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4381,26 +4007,15 @@
         <v>22451</v>
       </c>
       <c r="G119" t="n">
-        <v>-105309.4291300732</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>186.9</v>
-      </c>
-      <c r="J119" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4422,18 +4037,15 @@
         <v>2134</v>
       </c>
       <c r="G120" t="n">
-        <v>-103175.4291300732</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4455,18 +4067,15 @@
         <v>5</v>
       </c>
       <c r="G121" t="n">
-        <v>-103170.4291300732</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4488,18 +4097,15 @@
         <v>6700</v>
       </c>
       <c r="G122" t="n">
-        <v>-96470.42913007323</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4521,18 +4127,15 @@
         <v>3828.2238</v>
       </c>
       <c r="G123" t="n">
-        <v>-100298.6529300732</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4554,18 +4157,15 @@
         <v>3268.8491</v>
       </c>
       <c r="G124" t="n">
-        <v>-103567.5020300732</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4587,18 +4187,15 @@
         <v>542.8247</v>
       </c>
       <c r="G125" t="n">
-        <v>-104110.3267300732</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4620,18 +4217,15 @@
         <v>1829.454</v>
       </c>
       <c r="G126" t="n">
-        <v>-102280.8727300732</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4653,18 +4247,15 @@
         <v>8.473100000000001</v>
       </c>
       <c r="G127" t="n">
-        <v>-102289.3458300732</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4686,18 +4277,15 @@
         <v>1070</v>
       </c>
       <c r="G128" t="n">
-        <v>-101219.3458300732</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4719,18 +4307,15 @@
         <v>5</v>
       </c>
       <c r="G129" t="n">
-        <v>-101214.3458300732</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4752,18 +4337,15 @@
         <v>6810</v>
       </c>
       <c r="G130" t="n">
-        <v>-94404.34583007325</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4785,18 +4367,15 @@
         <v>502.2132</v>
       </c>
       <c r="G131" t="n">
-        <v>-93902.13263007325</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4818,18 +4397,15 @@
         <v>18.5914</v>
       </c>
       <c r="G132" t="n">
-        <v>-93902.13263007325</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4851,18 +4427,15 @@
         <v>9950</v>
       </c>
       <c r="G133" t="n">
-        <v>-103852.1326300732</v>
-      </c>
-      <c r="H133" t="n">
         <v>2</v>
       </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4884,18 +4457,15 @@
         <v>2677.742</v>
       </c>
       <c r="G134" t="n">
-        <v>-106529.8746300732</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4917,18 +4487,15 @@
         <v>254.377</v>
       </c>
       <c r="G135" t="n">
-        <v>-106784.2516300732</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4950,18 +4517,15 @@
         <v>2.66</v>
       </c>
       <c r="G136" t="n">
-        <v>-106781.5916300732</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4983,18 +4547,15 @@
         <v>17925.489</v>
       </c>
       <c r="G137" t="n">
-        <v>-124707.0806300732</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5016,18 +4577,15 @@
         <v>2058.6175</v>
       </c>
       <c r="G138" t="n">
-        <v>-122648.4631300732</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5049,18 +4607,15 @@
         <v>85</v>
       </c>
       <c r="G139" t="n">
-        <v>-122563.4631300732</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5082,18 +4637,15 @@
         <v>16</v>
       </c>
       <c r="G140" t="n">
-        <v>-122563.4631300732</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5115,18 +4667,15 @@
         <v>540.623</v>
       </c>
       <c r="G141" t="n">
-        <v>-122563.4631300732</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5148,18 +4697,15 @@
         <v>1073.892</v>
       </c>
       <c r="G142" t="n">
-        <v>-123637.3551300733</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5181,18 +4727,15 @@
         <v>2.66</v>
       </c>
       <c r="G143" t="n">
-        <v>-123634.6951300732</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5214,18 +4757,15 @@
         <v>1403</v>
       </c>
       <c r="G144" t="n">
-        <v>-125037.6951300732</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5247,18 +4787,15 @@
         <v>3</v>
       </c>
       <c r="G145" t="n">
-        <v>-125034.6951300732</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5280,18 +4817,15 @@
         <v>400</v>
       </c>
       <c r="G146" t="n">
-        <v>-125434.6951300732</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5313,18 +4847,15 @@
         <v>2.67</v>
       </c>
       <c r="G147" t="n">
-        <v>-125432.0251300732</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5346,18 +4877,15 @@
         <v>5674.0429</v>
       </c>
       <c r="G148" t="n">
-        <v>-131106.0680300732</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5379,18 +4907,15 @@
         <v>1924</v>
       </c>
       <c r="G149" t="n">
-        <v>-131106.0680300732</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5412,18 +4937,15 @@
         <v>3151.2797</v>
       </c>
       <c r="G150" t="n">
-        <v>-131106.0680300732</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5445,18 +4967,15 @@
         <v>1109.3869</v>
       </c>
       <c r="G151" t="n">
-        <v>-131106.0680300732</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5478,18 +4997,15 @@
         <v>1456.1464</v>
       </c>
       <c r="G152" t="n">
-        <v>-132562.2144300732</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5511,18 +5027,15 @@
         <v>19.5559</v>
       </c>
       <c r="G153" t="n">
-        <v>-132562.2144300732</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5544,18 +5057,15 @@
         <v>4766.9322</v>
       </c>
       <c r="G154" t="n">
-        <v>-137329.1466300733</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5577,18 +5087,15 @@
         <v>3242.1708</v>
       </c>
       <c r="G155" t="n">
-        <v>-140571.3174300732</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5610,18 +5117,15 @@
         <v>1192.4292</v>
       </c>
       <c r="G156" t="n">
-        <v>-140571.3174300732</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5643,18 +5147,15 @@
         <v>1651.7858</v>
       </c>
       <c r="G157" t="n">
-        <v>-138919.5316300732</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5676,18 +5177,15 @@
         <v>17806.572</v>
       </c>
       <c r="G158" t="n">
-        <v>-156726.1036300733</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5709,18 +5207,15 @@
         <v>13207.0767</v>
       </c>
       <c r="G159" t="n">
-        <v>-156726.1036300733</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5742,18 +5237,15 @@
         <v>2530.7148</v>
       </c>
       <c r="G160" t="n">
-        <v>-154195.3888300733</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5775,18 +5267,15 @@
         <v>5441.9999</v>
       </c>
       <c r="G161" t="n">
-        <v>-148753.3889300733</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5808,18 +5297,15 @@
         <v>716.7177</v>
       </c>
       <c r="G162" t="n">
-        <v>-148753.3889300733</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5841,18 +5327,15 @@
         <v>244.7343</v>
       </c>
       <c r="G163" t="n">
-        <v>-148753.3889300733</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5874,18 +5357,15 @@
         <v>2626.1795</v>
       </c>
       <c r="G164" t="n">
-        <v>-151379.5684300733</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5907,18 +5387,15 @@
         <v>12.7</v>
       </c>
       <c r="G165" t="n">
-        <v>-151366.8684300733</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5940,18 +5417,15 @@
         <v>35.848</v>
       </c>
       <c r="G166" t="n">
-        <v>-151366.8684300733</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5973,18 +5447,15 @@
         <v>3918.6947</v>
       </c>
       <c r="G167" t="n">
-        <v>-155285.5631300732</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6006,18 +5477,15 @@
         <v>15947.7257</v>
       </c>
       <c r="G168" t="n">
-        <v>-139337.8374300732</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6039,18 +5507,15 @@
         <v>20303.6461</v>
       </c>
       <c r="G169" t="n">
-        <v>-159641.4835300733</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6072,18 +5537,15 @@
         <v>4586.3041</v>
       </c>
       <c r="G170" t="n">
-        <v>-155055.1794300732</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6105,18 +5567,15 @@
         <v>23368.0914</v>
       </c>
       <c r="G171" t="n">
-        <v>-178423.2708300732</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6138,18 +5597,15 @@
         <v>0.6524</v>
       </c>
       <c r="G172" t="n">
-        <v>-178422.6184300733</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6171,18 +5627,15 @@
         <v>6013.5069</v>
       </c>
       <c r="G173" t="n">
-        <v>-172409.1115300732</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6204,18 +5657,15 @@
         <v>3767</v>
       </c>
       <c r="G174" t="n">
-        <v>-176176.1115300732</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6237,18 +5687,15 @@
         <v>9610.265100000001</v>
       </c>
       <c r="G175" t="n">
-        <v>-185786.3766300732</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6270,18 +5717,15 @@
         <v>6541.4303</v>
       </c>
       <c r="G176" t="n">
-        <v>-179244.9463300732</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6303,18 +5747,15 @@
         <v>3458.3516</v>
       </c>
       <c r="G177" t="n">
-        <v>-182703.2979300732</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6336,18 +5777,15 @@
         <v>268.182</v>
       </c>
       <c r="G178" t="n">
-        <v>-182971.4799300732</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6369,18 +5807,15 @@
         <v>3204.1758</v>
       </c>
       <c r="G179" t="n">
-        <v>-186175.6557300732</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6402,18 +5837,15 @@
         <v>9341.3815</v>
       </c>
       <c r="G180" t="n">
-        <v>-195517.0372300732</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6435,18 +5867,15 @@
         <v>21599.248</v>
       </c>
       <c r="G181" t="n">
-        <v>-173917.7892300732</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6468,18 +5897,15 @@
         <v>5893.9669</v>
       </c>
       <c r="G182" t="n">
-        <v>-168023.8223300732</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6501,18 +5927,15 @@
         <v>4584.6202</v>
       </c>
       <c r="G183" t="n">
-        <v>-168023.8223300732</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6534,18 +5957,15 @@
         <v>5218.2743</v>
       </c>
       <c r="G184" t="n">
-        <v>-173242.0966300732</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6567,18 +5987,15 @@
         <v>4502.2251</v>
       </c>
       <c r="G185" t="n">
-        <v>-168739.8715300732</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6600,18 +6017,15 @@
         <v>4003</v>
       </c>
       <c r="G186" t="n">
-        <v>-164736.8715300732</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6633,18 +6047,15 @@
         <v>17.3738</v>
       </c>
       <c r="G187" t="n">
-        <v>-164754.2453300732</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6666,18 +6077,15 @@
         <v>298.6262</v>
       </c>
       <c r="G188" t="n">
-        <v>-164754.2453300732</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
